--- a/data/alatopiikkianalyysi_luonnostelu.xlsx
+++ b/data/alatopiikkianalyysi_luonnostelu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="797">
   <si>
     <t xml:space="preserve">sentence</t>
   </si>
@@ -31,12 +31,18 @@
     <t xml:space="preserve">Alatopiikki</t>
   </si>
   <si>
-    <t xml:space="preserve">kommentti</t>
+    <t xml:space="preserve">Ryhmä</t>
   </si>
   <si>
     <t xml:space="preserve">textid</t>
   </si>
   <si>
+    <t xml:space="preserve">väliotsikko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edellinenkpl</t>
+  </si>
+  <si>
     <t xml:space="preserve">indicatorword</t>
   </si>
   <si>
@@ -64,6 +70,12 @@
     <t xml:space="preserve">kyllä</t>
   </si>
   <si>
+    <t xml:space="preserve">unnamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saavuin Wieniin syyskuun alussa ja aloitin heti yliopiston tarjoaman saksan intensiivikurssin. Kurssi maksoi muistaakseni noin 300-400 euroa, mutta Erasmus-opiskelijat joutuivat pulittamaan vain sata euroa, jos läpäisivät kurssin lopputentin. Kurssi oli mielestäni hyödyllinen ja sen kautta sain myös paljon uusia kavereita. Lisäksi olin mukana paikallisen Erasmus Student Networkin buddy-toiminnassa, jonka kautta sain kaksi itävaltalaista tutoreikseni. Buddy-ryhmäämme kuului myös kaksi muuta vaihtaria ja heistäkin sain hyviä kavereita.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asua</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
     <t xml:space="preserve">ei</t>
   </si>
   <si>
+    <t xml:space="preserve">Onnistuin saamaan saksan lähtötasotestistä C1-tuloksen, joten yliopisto ei tarjonnut minulle intensiivikurssia. Tämä jäi hieman harmittamaan, sillä erityisesti puhuminen ei lähtiessä ollut kovin sujuvaa, ja lisätreeni olisi tullut tarpeeseen. Intensiivikurssit ovat maksullisia, mutta vaihtarikavereideni mukaan tehokkaita ja suositeltavia.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto#tarjous</t>
   </si>
   <si>
@@ -109,6 +124,9 @@
     <t xml:space="preserve">?</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Ljubljanaan jo ennen lukuvuoden alkua sloveenin intensiivikielikurssille. Kurssia oli suositeltu minulle etukäteen ja mielestäni kurssi oli todella mukava ja lopulta aivan hyödyllinenkin. Sloveniassa pärjää todella hyvin englannilla, mutta kielen alkeiden osaamisesta ei ole haittaa. Kielikurssilta ja koordinaattoreilta sai kaiken tarvitseman tiedon opiskelemisesta, asumisesta ja elämisestä Ljubljanassa. Oikeastaan avustava tuutoritoiminta oli melko vähäistä Ljubljanan yliopistossa, mutta apua kyllä saa, kunhan vain pyytää. Tuutorit kuitenkin keskittyivät enemmänkin järjestämään juhlia ja matkoja vaihto-opiskelijoille.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto</t>
   </si>
   <si>
@@ -127,6 +145,9 @@
     <t xml:space="preserve">Asunnon varasin paikallista vuokramarkkinaa hoitavan Kopparstaden-palvelun kautta. Nettisivut vaikuttivat alkuun sekavilta, mutta onnistuin lopulta saamaan kolmen hengen solusta asunnon. Ruotsin taitoni auttoivat kyllä paljon tässä samoin kuin muussakin käytännön asioissa vaihdon aikana: lähes kaikkien ikäisteni suomalaisten tapaan ymmärrän kyllä lukiessa ruotsia hyvin, vaikka puhuminen onkin vaikeaa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hakuprosessi tuntui simppeliltä. Täytin hakemukseni, hain vain tähän kohteeseen, sain hyväksynnän, kaikki ok. Tukiasiat sain helposti kuntoon KELAn ystävällisen virkailijan kanssa ja kohteeni läheisen sijainnin vuoksi en joutunut sen kummemmin murehtimaan viisumeita tai vakuutuksia tai sellaisia. Sain jopa puhelimen liittymän Suomesta suoraan Soneralta pohjoismaissa toimivan Sopiva-liittymän muodossa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">varata</t>
   </si>
   <si>
@@ -139,6 +160,9 @@
     <t xml:space="preserve">Itse hankin asunnon jo Suomesta käsin, asuin College Courtissa joka sijaitsee aivan kampuksen kyljessä. Kävelin luennoille viisi minuuttia. College Court on edullinen valinta (itse maksoin 260e +n.20e laskuihin/kk) ja sijainniltaan aivan loistava. Mutta siellä asuu lähes pelkästään irlantilaisia ja talot ovat vuosien opiskelija-asumisen jäljiltä aika hirveässä kunnossa. Itse asuin viiden irlantilaisen pojan kanssa ja kämppä oli sen mukainen. Kaverini Suomesta sanoi kyläillessään että koko talo tulisi laittaa jätesäkkiin; kuvaa aika hyvin paikan tasoa. Parikymppiset irlantilaiset eivät ole vielä kovinkaan itsenäisiä, kaikki lähtevät viikonlopuiksi kotiin pesettämään vaatteensa äideillään. Yksityiseltä vuokratessa kaikki sujui kuitenkin ongelmitta. Muut vaihtarit asuivat on campus tai off campus asuntoloissa. On campus asuntolat vaikuttivat kaikki omaan silmään aika samantasoisilta eli todella hyviltä, Cappavilla oli sijainniltaan huonoin. On campus asuntolat ovat hyvin kysyttyjä ja hinnaltaan aika suolaisia, kun kyseessä kuitenkin soluhuoneet. Off campus -asuntoloissa en käynyt kertaakaan, mutta ainakin Brookfield Hall on aika kaukana kampukselta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Luento Limerickissä kestää 50 minuuttia ja tyypillisesti niitä on kaksi per viikko per kurssi. Lisäksi kursseihin kuului kerran viikossa 50 min tutorial, jonne piti etukäteen tehdä muutama tehtävä viikon luentoihin liittyen ja/tai joissa keskusteltiin luentojen aiheesta maisterivaiheen opiskelijan johdolla. Tutorialeissa läsnäoloa seurattiin poikkeuksetta, luennoilla kurssista riippuen. Yliopiston kampus on suuri ja sieltä löytyy monia kahviloita ja ravintoloita, mm. Subway ja Starbucks. Suomen yliopistoista tuttua kouluruokalatyyppistä vaihtoehtoa ei ole tarjolla ja tästä johtuen lounas maksaa noin 5 euroa paikasta riippuen. Monet söivät kotona tai ottivat eväät mukaan, lisäksi kampuksella on myös Spar-kauppa. Tietokoneluokkia löytyy melkein joka rakennuksesta joten tulostaminen ym. on helppoa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=254</t>
   </si>
   <si>
@@ -148,6 +172,12 @@
     <t xml:space="preserve">Kv. koordinaattori Maggy oli suuri apu asuntoa etsittäessä. Hän lähetti Suomeen sähköisen kyselyn mahdollisista toiveista ja ehdotti sen mukaan asuntoa.</t>
   </si>
   <si>
+    <t xml:space="preserve">ASUMINEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uusille vaihto-opiskelijoille järjestettiin myös orientaatioviikko, jonka aikana meitä valmisteltiin Ranskassa asumista ja opiskelua varten. Yksi osa oli ranskan tasokoe, jonka mukaan meidät määrättiin eritasoisille ranskan kielikursseille. Kandidaatin vaiheessa oleville kurssit ovat pakollisia, mutta maisteriopintoja suorittavat saavat itse päättää haluavatko osallistua luennoille vai eivät. Kurssi on hyödyllinen ja opettajat mukavia, joten suosittelen tämän mahdollisuuden hyödyntämistä. Maisteriopintojen opiskelijana osasin kuitenkin myös arvostaa sitä, ettei kieliluennoille tarvinnut aina mennä sillä työmäärämme oli keskimäärin suurempi kuin kandidaatin opiskelijoilla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">apu</t>
   </si>
   <si>
@@ -160,6 +190,9 @@
     <t xml:space="preserve">Rupesin hyvissä ajoin kyselemään asuntoa asunnonvälittäjä Wendyltä. Samoihin aikoihin tapasin kaksi muuta opiskelijaa yliopistolta, jotka olivat lähtemässä samaan kohteeseen. Toisen opiskelijan kanssa sovimme, että otamme yhteisen asunnon. Varasimme tilavan 3h, keittiö, 2 parveketta ja 2 kylppäriä Sunnyvillestä. Taisi olla vähän alle 200 e/hlö. Sunnyvillen valitsimme siksi, että sen yhteydessä oli enemmän palveluita. Sieltä löytyi mm. ravintola, parturi, pesula ja kauppa. Otimme asunnon kolmella huoneella, jotta voimme majoittaa ystäviämme, jotka olivat tulossa vierailulle.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hakuprosessi meni suuremmitta ongelmitta. Kurssitarjonta oli etukäteen melko epämääräistä ja paikanpäällä ilmeni, ettei niitä kursseja järjestettykään, mitä olin etukäteen katsonut. Viisumin kuvan kanssa saa olla tarkkana nimittäin itse jouduin lähettämään uudet kuvat, kun edelliset eivät kelvanneet. Selvityksenä oli, ettei tausta ollut riittävän sininen. Katsoin kaikki rokotukset kuntoon ja tein vaadittavan terveystarkastuksen YTHS:lla. Aika tarkastukseen kannattaa varata hyvissä ajoin.  Laitoin myös matkavakuutukseni kuntoon vaihtoni ajaksi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ruveta</t>
   </si>
   <si>
@@ -172,6 +205,12 @@
     <t xml:space="preserve">Etsin asunnon vasta paikan päällä, sillä minulla oli kaupungissa kavereita, joiden luona sain viettää ensimmäiset pari viikkoa. Paras tapa asunnonhakuun on hankkia paikallinen puhelinnumero ja soitella ilmoituksien perusteella. Aluksi otin yhteyttä viestein ja WhatsAppin kautta, mutta lopulta rohkaistuin ja soittamalla asunnonhaku nopeutuikin huomattavasti. Kävin katsomassa arviolta kymmentä huonetta ennen kuin löysin ensimmäisen asuntoni. Olin jo etukäteen katsonut alueita ja tiesin suurinpiirtein, mitä etsin. Taso vaihteli suuresti asuntojen välillä ja suurin osa rakennuksista on vanhoja eikä esimerkiksi lämmityksestä ole tietoakaan. Muutin vaihtovuoteni aikana useamman kerran ja vuokrani vaihteli 250 – 300 euron välillä. Asuntoa hankkiessa on tärkeää myös selvittää, sisältyvätkö muut kulut (sähkö, vesi, kaasu, internet) vuokraan, sillä näiden osuus voi nostaa kuukausittaisia elinkuluja huomattavasti. Ylipäätään suosittelen hankkimaan asunnon vasta paikan päällä, sillä usein ilmoituksessa olevat kuvat antavat ymmärtää jotain ihan muuta kuin mitä huone tai asunto todellisuudessa on. Myöskään vuokrasopimus ei ole normi, vaikka ensimmäisessä asunnossa asuessani kirjoitimmekin asianmukaiset paperit.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perillä UAB:ssa oli kv-opiskelijoille lukukauden alussa jonkinlaisia vapaamuotoisia tilaisuuksia, joskin ne alkoivat kaikki samana päivänä kuin kurssit, joten en lopulta käynyt yhdessäkään. Näiden tarkoituksena on kuitenkin lähinnä tutustua ihmisiin sekä kampukseen ja siellä tarjottavaan vapaa-ajantoimintaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">etsiä</t>
   </si>
   <si>
@@ -184,6 +223,12 @@
     <t xml:space="preserve">Asuntoa voi hakea BNU nettijärjestelmän kautta, johon saa ohjeet hyväksymispaketin kanssa. Kannattaa olla heti varaamassa itselleen asuntoa, mikäli haluaa oman huoneen, sillä asunnot viedään käsistä. Muutaman tunnin kuluttua edes jaettuja huoneita ei välttämättä ole tarjolla. BNU asunnot maksavat tasosta riippuen 40-95 RMB/päivä. 95 RMB/päivä voi vuokrata jo vapailta markkinoilta oman huoneen. Vuokrat ovat kuitenkin nousseet Pekingissä kovaa vauhtia viime vuosina ja asuminen kampuksella on helppoa ja erittäin suositeltavaa, jos opiskelee vain yhden lukukauden. Jos koulun ulkopuolelta vuokraa kämpän, niin kannattaa etsiä kiinaa puhuva kaveri auttamaan, ellei oma kiina riitä. En ole ikinä kuullut englantia puhuvasta kiinteistö agentista tai vuokranantajasta, vaikka heitä varmastikin on muutama.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saavuin jo elokuun 22. Pekingiin, vaikka koulu sanoi, että ei kannata saapua ennen 25. päivä viisumi asioiden takia. Viisumin vaihtaminen asuinluvaksi vie aikaa ja vaatii terveystarkastuksen teon/hyväksymisen ulkomaalaisten sairaalassa. BNU järjestää kyydityksen sairaalaan, mutta koska saavuin aikaisin, enkä halunnut jonottaa sairaalassa, niin menin sinne omin päin. Kannattaa mennä sairaalaan heti aamusta, sillä lukukausien alussa sairaalaan voi pamahtaa monta bussilastia ulkomaalaisia opiskelijoita ja jonotus voi viedä kauan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">hakea</t>
   </si>
   <si>
@@ -196,6 +241,9 @@
     <t xml:space="preserve">Asuntoni sain vuokrattua Apartiksen (paikallinen TOAS) kautta. Vaihtareille on varattu kaksi erillistä taloa, toinen (Beauregard) sijaitsee aivan kaupungin keskustassa juna-aseman ja yliopiston päärakennuksen vieressä ja toinen (Bellevue) puolestaan noin 20 minuutin kävelymatkan päässä keskustasta. Asuntohakemus toimitettiin myös kaikkien muiden hakemuspapereiden yhteydessä eli hakuprosessi oli siis senkin osalta tehty todella helpoksi. Itse asuin kolmen hengen solussa keskustan vaihtaritalossa, joka oli mielestäni sijaintiinsa nähden melko edullinen asunto, sillä vuokraan sisältyi vesi, sähkö ja nettiyhteys. Koin vaihtaritalossa asumisen minulle parhaana vaihtoehtona, sillä kaikki vaihtarikaverit asuivat lähellä, ja näin ollen illanviettoihin ja muihin oli todella helppoa osallistua. Sveitsin hintataso on yleisesti ottaen tietysti melko korkea, mutta näin suomalaiselle se ei kuitenkaan mielestäni kovin suurena shokkina tullut, joten sen vuoksi en missään nimessä jättäisi Sveitsiin lähtemättä. Kaupoista löytyvät yhtälailla halvemmat merkit hyvinä vaihtoehtoina aivan kuin Suomessakin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Infopaketin mukana tuli myös ilmoittautumislomake vaihtareille suunnatulle ranskan intensiivikurssille, joka järjestetään molempien lukukausien alussa. Itse olin vaihdossa kevätlukukauden, jolloin kurssi kesti helmikuun kaksi ensimmäistä viikkoa ennen muiden kurssien ja varsinaisen lukukauden alkamista. Hintaa kurssilla oli 400 CHF, mutta kurssi oli todellakin vähintäänkin tuon hinnan arvoinen. Suosittelen kurssia siis aivan kaikille todella lämpimästi! Kurssi koostui siis päivittäisistä ranskankielen tunneista, joiden tarkoituksena oli lähinnä madaltaa vaihtareiden kynnystä käyttää ranskaa sekä opinnoissa että tavallisissa arkisissa tilanteissa. Lisäksi jokaisena päivänä oli myös järjestettynä kaikenlaisia erilaisia tapahtumia kuten fondue-ilta, lumikenkäilyretki ja suklaatehtaassa vierailu. Kurssi toimi siis mielestäni erittäin onnistuneena orientaatiota koko vaihtarikeväälle, sillä kurssiporukalla kierrettiin paljon ympäri kaupunkia ja kampusta sekä myös toisiin vaihtareihin tutustuminen kävi kurssilla todella helposti. Tutustuinkin suurimpaan osaan parhaimmista kavereistani juuri intensiivikurssilla. Kurssi ei ole tarkoitettu täysin ranskan kielen aloittelijoille, mutta itse koin olevani todella lähellä aloittelijatasoa tullessani ja silti pärjäsin kurssilla oikein hyvin, sillä opiskelijat jaettiin ensimmäisenä päivänä tasoryhmiin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">saada</t>
   </si>
   <si>
@@ -208,6 +256,9 @@
     <t xml:space="preserve">Opiskelijoille asuminen oli organisoitu dormiin nimeltä Gonzaga hall. Sijainniltaan asuntola oli kampuksen sisäreunalla ja hyvällä sijainnilla monellakin tapaa. Asumisen järjestäminen muualta olisi ollut hieman työläämpää, koska vuokramarkkinat ovat ulkomaalaisille haasteellisempia. Usein esim. joutuu maksamaan korkeampaa vuokraa tai vaihtoehtoisesti maksamaan vuokranvakuuden, joka saattoi olla tuhansia euroja. Jos olisin opiskellut vuoden tai pidempään olisin hankkinut oman asunnon tai huoneen, mutta lyhyeksi aikaa 4-6kk dormiasuminen oli hyvä ja helppo vaihtoehto. Asuntolassa oli lähes kaikki paikalliseen opiskelukulttuuriin liittyvät palvelut kuten esim. ruokala, jossa tarjottiin suhteellisen edullinen aamiainen ja illallinen. Itse söin illallisen noin 1-2 kertaa viikossa, mikä oli mukava asia, kun ei jaksanut tai ehtinyt lähteä muualle syömään. Asuntolassa oli edullinen itsepalvelupesula, pienehkö kuntosali, jääkaapit ja vesiautomaatit kerroksittain, ulkopuolella 24h auki oleva kauppa. Näitä palveluita tuli hyödynnettyä paljon. Asuntolan vuokra oli suhteellisen korkeahko, mutta asuntola oli laadukas. Joillekin huonekaverin läsnäolo saattoi olla haastavaa, yksityisyyden puuttumisen vuoksi, mutta siihen tottui ja huonekaverista sai hyvän kaverin helposti. Itse valitsin ulkomaalaisen opiskelijan, koska paikalliset saattoivat opiskella liiankin ahkeraan ja suomalaista huonekaveria en halunnut. Lopulta sain koreankiinalaisen huonekaverin. Joillekin dormin säännöt saattoivat tuottaa hankaluuksia, koska siellä oli eräänlainen kotiintuloaika eikä yöllä saanut poistua ilman miinuspisteitä, mutta minä en sitä sen suuremmin huomioinut eikä se kenellekään tuottanut ongelmia. Internetistä löytyy myös paljon välittäjiä vapaille markkinoille.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaahan saapuminen järjestyi edullisesti kolmen lennon kautta ja yliopistolle löysin aivan itse metrolla ja kävellen. Yhteiskyyti olisi ollut tarjolla, mutta päätin saapua ja lähteä ns. omin voimin eivätkä aikataulut täsmänneet omille lennoilleni osuvasti sekä sain jo lentomatkalla pari paikallista tuttua, joiden kanssa matkasin Soulin keskustaan. Yliopistossa oli jonkin verran tuutoritoimintaa, riippuen omasta aktiivisuudesta. Illanistumiset olivat mukavia ja tapa tutustua paikallisiin opiskelijoihin. Yleisesti korealaiset ovat hieman etäisiä tutustumaan ulkomaalaisiin kielen ja kulttuurin vuoksi, mutta yllättävissä tilanteissa saattoi tutustua myös muihin. Tuutoritoiminnan lisäksi oli tarjolla erilaisia klubeja myös ulkomaalaisille opiskelijoille. Osallistuin intensiivikielikurssille, joka järjestettiin 3 iltana viikossa 10 viikon ajan. Kurssi oli hyödyllinen mutta myös työläs osallistumispakon vuoksi. Suosittelen kurssia kaikille. Lisäksi Soulissa on tarjolla erilaisten järjestöjen organisoimia kielikursseja noin kerran viikossa, joille osallistuin myöhemmin. Tämä tosin vaatii omaa tiedonhankintakykyä, jotta kurssit löytyvät. Lisäksi jotkin järjestöt järjestivät toimintaa ulkomaalaisille, esim. matkoja ja muita tapahtumia. Näistä jotkin matkat olivat todella mielenkiintoisia ja suositeltavia. Yliopiston sisältäkin organisoidaan erilaisia matkoja ja tapaamisia, joille suosittelen osallistumaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">organisoida</t>
   </si>
   <si>
@@ -220,6 +271,9 @@
     <t xml:space="preserve">Hain jo syksyllä asuntolapaikkaa ja sainkin paikan vaihtareille osoitetusta asuntolasta. Lueskeltuani uudemman kerran aiempia vaihtotarinoita ja kokemuksia rauhattomista asuntoloista Ljubljanassa päädyin kuitenkin etsimään asuntoa yksityisiltä markkinoilta ja löysinkin vuokravälityssivustolta oman huoneen jo ennen saapumistani paikalle. Hinta viiden hengen jakamasta asunnosta yhden hengen huoneesta lähellä keskustaa oli 180€ kuussa + sähkö ja vesimaksut, yhteensä kuukaudesta riippuen noin 230€, mikä keskustan välittömässä läheisyydessä oli normaali tai jopa edullinen hinta. Normaalihintataso keskustassa ja sen liepeillä vaihtelee n. 300€ tietämillä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Oma tiedekuntani yhteiskuntatieteiden tiedekunta FDV ei järjestänyt juuri minkäänlaista tuutoritoimintaa. Tapasimme koko tiedekunnan 60:lle vaihto-opiskelijalle osoitetut neljä tuutoria tervetuloinfossa, mutta yksikkö ei infon lisäksi tarjonnut minkäänlaista muuta tuki- tai tervetulotoimintaa vaihto-opiskelijoille. Meitä kehotettiin liittymään FDV:n Facebook-ryhmään, jossa tuutorit silloin tällöin ilmoittelivat ajankohtaisista asioista ja jossa oli mahdollisuus kysyä heiltä mieltä askarruttavista asioista. Tuutorointi Ljubljanan yliopistossa vaihtelee suuresti tiedekuntakohtaisesti, sillä esimerkiksi samalla kampuksella sijaitsevassa liiketalouden tiedekunnassa jokaisella vaihto-opiskelijalla oli henkilökohtaiset tuutorit ja tiedekunta järjesti vaihtareilleen retkiä ympäri Sloveniaa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asun#tola#paikka</t>
   </si>
   <si>
@@ -232,6 +286,9 @@
     <t xml:space="preserve">CUHKin hakuvaiheessa tulee laittaa järjestykseen asumisvaihtoehdot, jotka ovat international house, collegen asuntola tai collegen asuntola johon kuuluu "communal dinner" tiistaista torstaihin. Itse laitoin vaihtoehdot edellä olevaan järjestykseen ja minut sijoitettiin Lee Woo Singin asuntolaan, joka on kampuksen uusin asuntola.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopistoon hakiessa tehdään myös alustavat kurssivalinnat. Nämä kurssivalinnat eivät kuitenkaan ole sitovia ja lopullisia kurssivalintoja, vaan niitä voi muuttaa, lukukauden kahdella ensimmäisellä viikolla järjestettävällä, add/drop periodilla. Kurssitarjontaan kannattaa kuitenkin tutustua huolellisesti jo Suomessa. Suurin osa kursseista järjestetään englanniksi, mutta poikkeuksiakin löytyy.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asua#vaihto#ehto</t>
   </si>
   <si>
@@ -247,6 +304,9 @@
     <t xml:space="preserve">Asunnon olin hommannut jo etukateen Suomesta kasin eraan valitysfirman kautta. Asunto oli aika kallis paikalliseen hintatasoon nahden (vuokra sisaltaen vedet, sahkot yms. oli 1800 zł eli noin 400 €) mutta asunto oli vasta rempattu ja aivan keskustassa. Muista vaihtareista poiketen asuin yksin ja yksiot ovat suhteessa aika kalliita Puolassa, aivan kuten muuallakin maailmassa. Jos haluaa asua kamppisten kanssa, niin huoneen saa keskustan tuntumasta noin 900 złotylla.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Krakovaan viikkoa ennen orientaatioviikon alkamista. Se osoittautui jarkevaksi, silla tuon viikon aikana sain kaikki kaytannon jarjestelyt kuntoon asunnon ja yliopistoon ilmoittautumisen kanssa ja paasin ilmoittautumaan ajoissa orientaatioviikon tapahtumiin. Suurimpaan osaan tapahtumista oli rajoitettu osallistujamaara ja myohemmin Krakovaan saapuneet eivat saaneet enaa lippuja tapahtumiin. Ennen orientaatioviikon alkua jarjestettiin muutama epavirallinen tapaaminen kaupunkiin jo saapuneille vaihtareille ja oli mukava paasta tutustumaan ihmisiin jo ennen isompia bileita.</t>
+  </si>
+  <si>
     <t xml:space="preserve">hommata</t>
   </si>
   <si>
@@ -259,6 +319,9 @@
     <t xml:space="preserve">Asunnon hankin paikalliselta opiskelija-asuntosäätiöltä (CROUS) yliopiston ilmoittautumisen yhteydessä. CROUSin asunnot ovat pääasiassa, kuten minunkin asuntoni oli, asuntolakampuksilla sijaitsevia 9 neliömetrin huoneita kerroskeittiöllä ja omalla kylpyhuoneella. Asuntola on helppo ja edullinen ratkaisu (oma vuokrani oli vain 235e/kk), mutta jos nyt saisin valita, asuisin mieluummin paikallisen kämppiksen/kämppiksien kanssa yksityisellä. Yksi ystäväni asui näin, ja sitä tilan määrää ja etenkin asunnossa olevaa keittiötä kävi kateeksi. Lisäksi kämppis on tietenkin hyvä väylä tutustua paikallisiin ja käyttää kieltä päivittäin. Kämppistä hakevia ranskalaisia löytyy netistä pilvin pimein erilaisilta colocataire-sivustoilta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kieltä pääsi jokainen opiskelemaan jo mainitsemallani FLE-kurssilla. Ennen kurssin alkua opiskelijat jaettiin kokeen perusteella pieniin tasoryhmiin, joissa opiskelu tapahtui. FLE-kurssi oli ehdoton suosikkikurssini, jonka suurin hyöty oli mielestäni mukavan ilmapiirin aikaan saama rentoutuminen kielen suhteen: ilman kurssia jännittäisin varmasti vieläkin ranskan puhumista.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=544</t>
   </si>
   <si>
@@ -286,6 +349,12 @@
     <t xml:space="preserve">Asunnon hankin vasta paikan päältä. Asuin ensimmäisen viikon hostellissa ja etsin kimppakämppää Compartodepto.cl nimiseltä sivustolta. Päädyin asumaan Providencian alueelle, ja sen lisäksi muun muassa Ñuñoa ja Las Condes ovat Santiagon turvallisimpia, mutta myös kalleimpia asuinalueita. Suosittelen panostamaan turvallisuuteen, vaikka vuokrat hipovatkin näillä alueilla melkein Suomen vuokratasoa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaahan saapuminen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Portalesin yliopiston nettisivuilta sai kaiken tarvittavan informaation kursseista ja yliopiston kansainvälisten asioiden henkilökunta oli todella auttavaista. Sähköposteihin vastattiin usein jo saman päivän aikana, mikä oli positiivinen yllätys.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=162</t>
   </si>
   <si>
@@ -295,6 +364,9 @@
     <t xml:space="preserve">Asuntoa minun ei tarvinnut hankkia. Yleisesti ottaen Italiassa asuntoa vuokratessa kannattaa käyttää välittäjää ja sopia kaikesta kirjallisesti. Takuuvuokra voi vastata useamman kuukauden vuokraa. Kannattaa ottaa huomioon, että vedestä, sähköstä ja kaasusta maksetaan yleensä erikseen. Etenkin sähkö on Suomeen verrattuna kallista, minkä vuoksi asuntoja ei lämmitetä sähköllä. Kannattaakin selvittää, miten asuntoa lämmitetään (esim. takka, pelletit) ja millaiset ovat lämmityksen kustannukset. Asuntoja pidetään talvisaikaan viileähköinä kustannussyistä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Käytännön asioista huomionarvoisimpia olivat muuttoilmoituksen tekeminen (pakollinen, jos oleskelee yli 3 kuukautta ulkomailla), vakuutukset, Kelaan liittyvien asioiden hoitaminen sekä matkojen varaaminen. Lisäksi mukanani matkusti kissa, jolle oli hankittava passi, mikrosiru sekä raivotautirokotus.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=266</t>
   </si>
   <si>
@@ -304,6 +376,9 @@
     <t xml:space="preserve">Ensimmäiseksi neljäksi yöksi olin hankkinut huoneen Airbnb:stä, mutta pysyvän asunnon hommasin vasta saavuttuani paikan päälle. Asunnon hankinta aiheutti pahimman vaihtoon liittyvän stressin. Keskustelin aiheesta usean paikallisen kanssa, joista osa oli sitä mieltä, että asuntoa on todella vaikea löytää siihen aikaan vuodesta, kun taas toiset vakuuttivat, että asunnon löytää nopeastikin. Jälkikäteen sanoisin, että asuntoja on kyllä tarjolla, mutta täytyy tietää mistä etsii. Vuokrailmoituksille tarkoitetut Facebook-ryhmät ja nettisivut ovat mielestäni parhaita vaihtoehtoja. Itse löysin lopulta asunnon paikallisista Facebook-ryhmistä kahdessa päivässä. Asunto oli iso ja jaoin sen yhden kämppiksen kanssa. Vuokra oli 260€/kk yhdeltä henkilöltä, joka oli halpa (keskimäärin n. 300-400 €/kk), mutta asunto oli hieman syrjässä. Asunto oli muuten hyvä, mutta jotain oli jatkuvasti rikki. Vaihdon aikana hajosi molemmat vessat, jääkaappi ja suihku vain muutamia mainitakseni. Vuokranantaja oli kuitenkin mukava; kaikki korjattiin heti ja muutenkin kommunikointi sujui ongelmitta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Suomen päässä vaihdon hakuprosessi oli selkeä ja sujuva, eikä ongelmia ilmennyt. Kohdeyliopistosta informointi sen sijaan oli toisinaan epäselvää. Selkeitä ohjeita oli vaikea saada ja kokoajan sai olla kyselemässä missä mennään. Kaikki kuitenkin selvisi, kun oli itse aktiivinen. Kohdeyliopistossa ensimmäisenä päivänä pidettiin noin tunnin kestävä infotilaisuus, jossa käytiin läpi perusasioita ja tutustuttiin muihin Erasmus-opiskelijoihin. Varsinaista tutortoimintaa koulussa ei ollut, mutta opiskelijajärjestö esittäytyi lyhyesti ja kannusti liittymään mukaan toimintaan. Opiskelijajärjestö mm. järjesti Erasmus-opiskelijoille illallisen, jossa tutustui muihin vaihto-opiskelijoihin ja olipa paikalla myös jokunen paikallinen opiskelija.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=476</t>
   </si>
   <si>
@@ -313,6 +388,9 @@
     <t xml:space="preserve">Yritin ennen lähtöäni katsoa netistä asuntoasiat kuntoon, mutta mielestäni nettisivut oli melko sekavia. Lähes joka sivulle piti tehdä tunnukset, ja joissain piti jopa maksaa että sai enemmän vastauksia. Toinen opiskelija Tampereen yliopistosta oli siellä ennen minua ja hän auttoi minua paljon asunnon löytämisessä. Monet vaihto-opiskelijat asuivat ensimmäisen viikon hostellissa ja etsivät siinä samalla asuntoa. Asuntoja oli paljon tarjolla, ei tarvitse olla huolissaan että jäisi ilman. Mielestäni kannattaa tutustua paikallisiin opiskelijoihin, tai kysellä vaikka tuutoreilta apua asunnon etsimiseen. He neuvovat mielellään, ja ainakin omat tuutorini lupautuivat tulla kanssani jopa katsomaan asuntoja. Vuokrat olivat n. 150 – 250€/kk, ja kämppien kunnot vaihtelivat laidasta laitaan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Portoon viikkoa ennen (2.2) kevätlukukauden alkamista hoitaakseni kaikki ”paperiasiat” kuntoon ennen koulun alkua.  Lisäksi halusin tutustua kaupunkiin rauhassa, jotta saisi arkirytmistä mahdollisimman nopeasti kiinni. Huomasin heti Portoon saapuessani että ihmiset ovat todella ystävällisiä ja auttavaisia, jopa vaihto-opiskelijoita kohtaan. Metrolla kulkeminen oli todella helppoa, ja tärkeimmät paikat opin tuntemaan jo ensimmäisien viikkojen aikana. Metrolla kulkeminen oli myös edullista, varsinkin jos hankki ”kultaisen”-kuukausilipun. Tämän hinnaksi tuli alle 25€, jolla pääsi kulkemaan Porton keskustan alueella ja yliopistolle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto#asia</t>
   </si>
   <si>
@@ -328,6 +406,9 @@
     <t xml:space="preserve">Asunnon hankin yliopiston kautta. Sähköpostiin tulleessa vahvistuksessa opiskelupaikasta tulee myös infoa kaikenlaisesta elämiseen liittyvästä Leuvenissa. Asunnon voi hankkia siis yksityiseltä puolelta tai Facebook-ilmoituksen kautta. Niitä löytyy kiitettävästi Erasmus ESN Leuven –sivustolta (Facebook). Itse kuitenkin hain hakuajan puitteissa yliopiston omiin ”residensseihin” ja pääsinkin ykkösvalintaani, joka oli vain 100 metriä Oude Marktilta, joka on Leuvenin ydintä, etenkin opiskelijoiden keskuudessa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Etukäteisjärjestelyt sujuivat ongelmitta ja oikestaan niitä ei olisi tarvinnut tehdä niin paljoa kuin kuvittelin ja mihin valmistauduin. Esimerkiksi kaikki paperityö Leuvenin päässä hoidetaan yhteisessä infotilaisuudessa (joita järjestetään useampia, jotta kaikki pääsevät sopivana ajankohtana), jolloin selviää kaikki olennainen. Tässä infotilaisuudessa käytiin kaikki läpi perinpohjaisesti, niin että Belgiaan olisi voinut lähteä melkeinpä valmistautumattakin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=73</t>
   </si>
   <si>
@@ -337,6 +418,9 @@
     <t xml:space="preserve">Asuminen Kentissä on järjestetty niin että paikalliset ekavuotiset ja vaihtarit asuvat kampuksen opiskelijakylässä tai collegeissa ja vanhemmat opiskelijat muuttavat lähemmäksi n. 5 kilometrin päässä sijaitsevaa Canterburyn kylää. Itse pääsin Parkwoodin opiskelijakylään, josta kävelymatka varsinaiselle kampukselle kirjastoineen ja luentosaleineen kesti n. 10-15 minuuttia. Uudenaikaisemmat colleget olisivat sijainneet lähempänä luentosaleja ja kampuksen muuta palvelutarjontaa, johon kuului: kirjakauppa, useita ravintoloita, kahviloita ja jopa pari kampuksen omaa yökerhoa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kentiin saapuvien yhteisen alkuorientaation tiimellyksessä tutustuin kämppäkaveriini ja useisiin muihin opiskelijoihin, joista kehittyikin mukavan kokoinen kaveriporukka opiskelijaelämän akateemista ja vähemmän akateemista puolta ajatellen. En osallistunut varsinaiseen tuutorointiin tai intensiivikursseille, mutta muistelen, että näitä olisi ollut tarjolla ja voinut etukäteen varata. Etukäteen varattavia ja maksettavia olivat myös useat Erasmus-vaihtareiden retket, joille en muistanut ilmoittautua enkä siksi päässyt mukaan - mm. Stonehenge jäi näkemättä. Kannattaa ilmoittautua ennakkoon jos vain mahdollista, liian moni muukin luotti siihen että kyllä joku aina aamulla jää nukkumaan. Tosin näiden muiden rannalle ruikuttamaan jääneiden kanssa meillä oli vähintään yhtä kivaa kun otimme asiaksemme järjestää oman kaupunkikierroksen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">järjestää</t>
   </si>
   <si>
@@ -349,6 +433,9 @@
     <t xml:space="preserve">Aloin jo loppukeväästä katsella asuntomahdollisuuksia Prahasta. Aiempien vaihtokertomusten perusteella arvioin, etteivät yliopiston tarjoamat asuntolat ole minulle sopivia ja päätin etsiä asuntoa yksityisiltä markkinoilta. Liityin Facebookissa muun muassa ”vuokra-asunnot Praha” -tyyppiseen ryhmään, jossa paikalliset etsivät ja tarjoavat asuntoja. Laitoin myös ilmoituksen kämppishausta myflatshare.com -sivustolle. Tätä kautta minuun otti yhteyttä  alkukesällä suomalainen tyttö, joka oli myös menossa Prahaan vaihtoon. Päätimme etsiä vielä kolmannen kämppiksen ja löysimme ranskalaisen tytön ”Erasmus in Prague 2015/2016” Facebook-ryhmän kautta. Koetimme tahoillamme katsoa mahdollisia asuntoja jo ennen Prahaan muuttoa, mutta päädyimme lopulta siihen, että yritämme etsiä asuntoa yhdessä paikanpäältä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Halusin vaihtoon Itä-Euroopan suuntaan ja valitsin Prahan, koska Kaarlen yliopisto tarjosi laajan ja monipuolisen valikoiman kursseja englanniksi. Edellisen lukuvuoden kurssitarjonta oli nähtävillä yliopiston nettisivuilla ja tämän perusteella tein Learning Agreementin. Lopullinen kurssitarjonta kuitenkin varmistui vasta kun ilmoittautumisaika kursseille alkoi ja ensimmäinen kurssisuunnitelmani muuttui melko paljon. Kursseja oli mahdollista valita myös muiden tiedekuntien tarjonnasta, kunhan vähintään puolet valituista kursseista oli oman tiedekunnan kursseja. Kaarlen yliopiston Student Information System (SIS) -sivustolla (samaa sivustoa tultiin myöhemmin käyttämään myös kursseille haettaessa, tentteihin ilmoittautuessa jne.) on kurssikuvauksen lisäksi kerrottu melko tarkasti kurssin vaatima työmäärä sekä lukemisto kursseille. Näihin kannattaa tutustua ajatuksella, sillä esimerkiksi sosiologian ja sosiaalipolitiikan kurssit ovat usein 7 - 9 opintopisteen arvoisia ja työmäärä on sen mukainen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto#mahdollisuus</t>
   </si>
   <si>
@@ -364,6 +451,9 @@
     <t xml:space="preserve">Olin löytänyt asunnon ensimmäiseksi kuukaudeksi Airbnb:n kautta ennen Italiaan saapumista. Loppujen lopuksi jäin samaan paikkaan asumaan lukuvuoden loppuun asti. Sivustolta löytyi yllättävän paljon kohteita, joita vuokrattiin pidemmiksi ajanjaksoiksi ja vuokraajilla oli yleensä hyvä kielitaito, sillä olihan tarjoukset huoneista ja asunnoista laitettu kanavalle, jota selailevat erittäin monet ulkomaalaiset. Asuntoni oli hieman syrjässä, juuri ensimmäisen keskustaa ympäröivän moottoritiekehän ulkopuolella, Conca d'oron alueella. Monet italialaiset asuvat hieman keskustan ulkopuolella, mutta lähes kaikki vaihtarit huomattavasti keskeisimmillä sijainnilla. Conca d'orossa on alueen nimeä kantava metroasema, joten siellä asui lisäkseni joitakin muitakin vaihtareita, sillä kulkeminen onnistui suhteellisen hyvin. Roomassa on vain kaksi metrolinjaa, koska ilmeisesti maan alle kaivaminen ei tahdo onnistua kaupungin alla olevien historiallisten jäänteiden takia. Uutta metroa kuitenkin rakennetaan. Useimmiten julkisista kulkuvälineistä tuli käytettyä siis joko bussia tai ratikkaa. Yliopiston lähistölle ei edes mene metroa, joten sinne saapumiseen menee maan päällä suhteessa hieman enemmän aikaa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaikki vaihtarit pystyivät etukäteen hakemaan paikallista tuutoria. Minäkin hain ja sain tuutorin, joka osoittautui myös poikkeuksellisen aktiiviseksi sellaiseksi. Kirjoittelimme ennen saapumistani ja kun saavuin, hän tuli minua asemalle vastaan. Suurin osa tuutoreista oli kuitenkin epäaktiivisia ja heistä oli hyvin vähän apua, jos heistä koskaan edes kuului mitään. Yliopistolla oli myös tandem-ohjelma eli kielivaihtoa paikallisten ja vaihtareiden välillä. Myös tässä projektissa oli omat aktiiviset osallistujansa, mutta heitä oli hyvin vähän. Omaa tandem-pariani en nähnyt koskaan eikä hän edes hyväksynyt kaveripyyntöäni Facebookissa. Tukea sain tarvittaessa erittäin hyvin kohdeyliopiston kv-toimistosta, josta pidettiin kovasti huolta esimerkiksi asuntoasiastani, koska huoneen vuokraaminen jäi minulla kovin viimetinkaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">löytää</t>
   </si>
   <si>
@@ -376,6 +466,9 @@
     <t xml:space="preserve">Hankin asunnon yksityisiltä markkinoilta. Löysin hyvän vuokranantajan opiskelijakunnan vinkkaamaan nettipalvelun kautta, jossa yksityiset vuokranantajat ilmoittivat kohteitaan. Kampuksella asuminen olisi ollut kohtuuttoman kallista. Siellä halvin ratkaisu, huone yhdellä työpöydällä, pesualtaalla ja jaetulla kylpy- ja keittiötiloilla olisi ollut lähemmäs 600 euroa per 4 vk, mikä on tamperelaisen keskustayksiön vuokra. Asuin alivuokralaisena eläkeläisnaisen luona, joka vuokrasi kahta ylimääräistä makuuhuonettaan opiskelijoille. Maksoin asumisesta hänen luonaan 430 e per 4 vk. Hän tarjosi myös lakanat, pyyhkeet, netin, sähkön ja veden samaan hintaan. Asunnossa kävi kerran viikossa vuokraemäntäni ystävätär siivoamassa. Suosittelen ehdottomasti muille opiskelijoille asumisen järjestämistä kampuksen ulkopuolelta, läheltä keskustaa. Bussit kulkevat hyvin ja halvalla, matka kampukselle keskustasta on n. 20 min bussilla. Bilettäjät viihtyvät varmasti paremmin kampuksella, koska kampusasuminen on sosiaalisempaa ja railakkaampaa, mutta vanhempana maisteriopiskelijana asuin mielelläni hieman rauhallisemmin. Kent Unionin sivuilta löytyi hyviä vinkkejä asunnon hankkimiseen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Olen suorittanut tutkintooni kuuluvia englannin kielen kursseja, mutta en käynyt vaihtoa varten erillistä kielikurssia, koska englannin kielen osaamiseni taso on korkea. Kielitesti arvioi kielitasoni jo ennen lähtöä korkeimmaksi, C2. Saavuttuani Canterburyn kampukselle meillä oli yksi pitkä perehdytyspäivä vaihto-opiskelijoille. Info oli kattava ja hyödyllinen. Tuutoreita emme saaneet, mikä oli harmi, sillä ajan myötä tuli esille pieniä, mutta tärkeitä asioita, jotka olisi ollut hyvä tietää. En osallistunut kielikursseille vaihdon aikana. Olin kiinnostunut Academic writing -työpajasta, mutta ilmoittautuminen ei onnistunut, ilmeisesti koska kurssi oli jo täynnä osallistujia.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=112</t>
   </si>
   <si>
@@ -385,6 +478,9 @@
     <t xml:space="preserve">Löysin asunnon SiO:n eli Oslon opiskelijasäätiön kautta. Sain avaimet heti Osloon saavuttuani ja asunto oli siistissä kunnossa. Jouduin tosin ostamaan muun muassa omat petivaatteet Osloon saavuttuani, koska valmiiksi kalustetussa kämpässä näitä ei ollut. Asuin huoneessa, jossa oli oma kylpyhuone, mutta yhteinen keittiö viiden muun opiskelijan kanssa. Järjestelmä oli mielestäni toimiva. Oma rauha, eikä vessaan jonottamista käytävillä, mutta sosiaalinen tila, jossa laittaa ruokaa ja jutustella muiden asukkaiden kanssa. Talo oli vasta remontoitu ja erittäin siistissä kunnossa. Asukkaiden käytössä oli ilmainen langaton internetyhteys. Yhteisasuminen näkyi vuokrassa positiivisella tavalla yksiöön asumiseen verrattuna. Itse asiassa maksoin Oslossa asumisesta vähemmän, kuin mitä vuokraan olisi mennyt Tampereella saati Helsingissä. Asuin Kringsjån opiskelijakylässä keskustasta ja yliopistosta pohjoiseen päin. Sijainti oli mielestäni loistava. Vaikka kartalla katsottuna näytti, että paikka olisi syrjäinen, teki lähelle tuleva metro liikkumisen keskustaan ja yliopistolle helpoksi ja nopeaksi. Lisäksi opiskelijakylässä oli oma ruokakauppa, joten ostoksille ei tarvinnut lähteä kauas. Sijainnin teki erityisen mainioksi se, että aivan lähellä avautui Nordmarkan metsäalue ulkoilureitteineen, joka todella teki vaihdostani täydellisen, sillä tykkään liikkua luonnossa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Osloon viikko ennen vaihto-oppilaiden orientaatioviikkoa, joten kerkesin tutustua kaupunkiin kaikessa rauhassa ennen opintojen aloittamista. Tämä oli hyvä päätös, sillä ensimmäinen viikko oli todella intensiivinen ja opinnot alkoivat heti sen jälkeen. Orientaatioviikko käsitti yleistä infoa opiskelusta Oslon yliopistossa ja runsaasti vapaamuotoista pienryhmissä. Vaihto-oppilaat otettiin lämpimästi vastaan ja ensimmäisen viikon aikana tutustui useisiin niihin ihmisiin, joiden kanssa vietin aikaa kevään aikana. Kävimme muun muassa yhdessä tutorien opastama tutustumassa paikallisiin nähtävyyksiin. Ilmapiiri oli todella kansainvälinen ja monikulttuurinen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=473</t>
   </si>
   <si>
@@ -394,6 +490,9 @@
     <t xml:space="preserve">Asunnon hankin yksityiseltä vuokranantajalta, ja se oli valmiina saapuessani. Asunto sijaitsi hyvien kulkuyhteyksien päässä lähellä keskustaa ja yliopistoa. Asuntoni vuokra oli halpa, mutta Leipzigissä vuokra-asuntojen hinnat ovat kuulemma kallistumassa huomattavasti. Leipzigissä kannattaa hankkia pyörä, koska julkinen liikenne ei ole kovin nopeaa ja lyhyiden välimatkojen takia pyörällä pääsee usein helpoiten ja nopeiten. Opiskeluvuotenani ylioppilaskuntamaksuun kuului automaattisesti julkisen liikenteen ilmainen käyttö viikonloppuisin ja iltaisin seitsemän jälkeen. Julkista liikennettä ei kuitenkaan usein tarvinnut käyttää, koska säänkin puolesta pyörällä pääsi kulkemaan koko vuoden.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tampereella osallistuin parille kielikurssille (Kommunikationstraining 2 ja Deutsch im alltag und Studium), joista sai apua esimerkiksi asunnon hankkimiseen ja vinkkejä saksalaista yliopistoelämää varten. En osallistunut Leipzigissä kieliorientaatiokurssille, jonka vuoksi uusiin ihmisiin, erityisesti muihin vaihtareihin tutustuminen oli hieman haastavaa. Leipzigissä Studienkolleg Sachsenin kielikurssit olivat ilmaisia ja niille sai osallistua rajattomasti alun lähtötasotestin suoritettuaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=670</t>
   </si>
   <si>
@@ -403,6 +502,12 @@
     <t xml:space="preserve">Aloin katsella asuntoilmoituksia Suomessa vähän ennen lähtöäni, mutten varannut vielä mitään. Erasmus-opiskelijoille on esimerkiksi useita facebook-ryhmiä, joihin tulee tiuhaan tahtiin ilmoituksia vapaista ja vapautuvista huoneista. Otin yhteyttä erääseen ilmoittajaan tämän ryhmän kautta ja kysyin, jos voisin tulla katsomaan huonetta kun saavun. Tästä sovittiin, ja varasin itselleni hotellin kahdeksi ensimmäiseksi yöksi. Kun saavuin perille ja otin yhteyttä asunnon omistajaan, huone olikin jo mennyt, mutta samalla henkilöllä oli vapaa huone toisessa asunnossa. Menin katsomaan kyseistä huonetta heti ensimmäisenä päivänä ja pidin siitä, joten sain heti avaimet käteen ja muutin seuraavana päivänä. Vuokra oli 200 euroa sisältäen nettiyhteyden, ja päälle maksettiin sähkö- ja vesimaksut, jotka olivat yhteensä keskimäärin noin 30 euroa kuukaudelta. Huoneita on tarjolla todella paljon ja edullisesti, joten asunnon löytämistä ei kannata stressata. Suosittelen tekemään valinnan vasta paikan päällä kun pääset ensin katsomaan ja vertailemaan huoneita (vaikka itse valitsinkin ensimmäisen löytämäni huoneen).</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen ja turvallisuus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asumisen ja ruoan hintataso on Espanjassa huomattavasti alhaisempi kuin Suomessa. Matkustaminen on yleensä ottaen hieman halvempaa kuin Suomessa, ja esimerkiksi busseihin voi olla todella hyviä tarjouksia, mutta junamatkustaminen saattaa olla opiskelijalle kalliimpaa kuin Suomessa riippuen hieman siitä milloin matkansa varaa. Espanjassa käytetään paljon myös BlaBlaCar-kimppakyytisivustoa, jota kokemukseni perusteella suosittelen - sen avulla voi tutustua uusiin ihmisiin, oppia kieltä ja säästää rahaa. Julkinen liikenne on Alicantessa suhteellisen edullinen ja toimii hyvin. Kaupungin alueella toimivan matkakortin saa kahdella eurolla, ja siihen ladattuna yhden matkan hinnaksi tulee muistaakseni 87 senttiä. Tätä halvemman nuorisokortin voi saada kaupungin toimistosta, mutta itse en tätä tullut hankkineeksi. Samaa korttia voi käyttää sekä bussissa että ratikassa. Keskustasta yliopistolle on matkaa noin 6 km, ja bussi kulkee päiväsaikaan noin 10 minuutin välein ja ratikka hieman harvemmin. Yliopiston lähellä oleva asuinalue on San Vicente, jossa on myös opiskelijoille tarkoitettuja asuntoja. Yöaikaan bussit ja ratikat San Vicenten ja keskustan välillä eivät kulje, paitsi ehkä poikkeustapauksissa kuten suurten juhlien aikaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto#ilmoitus</t>
   </si>
   <si>
@@ -415,6 +520,9 @@
     <t xml:space="preserve">Asuntoa oli hyvin vaikea saada vapailta markkinoilta etänä, sillä kukaan ei halunnut vuokrata minulle huonetta ainoastaan neljäksi kuukaudeksi tapaamatta kasvotusten. Carleton Universityn omaan asuntolaan on suhteellisen hankala päästä, jos opiskelee ainoastaan puolet lukukaudesta ja se oli myös huomattavasti kalliimpi asumismuoto kuin monet muut. Carleton University vaatii myös ei-palautettavan 100$ suuruisen maksun asuntohakemuksen sisäänlaittamisesta. Yritin hakea kampukselta asuntoa, mutta en saanut huonetta ja jouduin jonon hännille. Näiden syiden vuoksi päädyin asumaan 3,5 kilometrin päässä olevan St. Paul Universityn opiskelija-asuntolaan, joka osoittautui lopulta aika mukavaksi vaihtoehdoksi, sillä siellä asui paljon myös muita vaihto-opiskelijoita. Oli kiva kun kaverit asuivat samassa talossa ja yhdessä voitiin viettää illanistujaisia tai vaikka leffailtaa leffahuoneessa. Kanadan vuokrataso on suhteellisen korkea ja koko syksyn vuokrat piti maksaa ennakkoon ennen saapumista.</t>
   </si>
   <si>
+    <t xml:space="preserve">Jos opiskelee Ontarion alueella, opiskelijalta vaaditaan UHIP-vakuutus, joka korvaa jos Kanadassa sattuu jotakin ja hinta oli muistaakseni $200. Itselläni kuitenkin oli laaja matkavakuutus Suomesta enkä ollut kovin halukas maksamaan kahta vakuutusmaksua, joten sain pitkän vääntämisen jälkeen puhuttua itselleni vapautuksen UHIP-vakuutuksesta. Se ei kuitenkaan hoitunut kovin helposti, vaan jouduin lähettämään heille kaikki dokumentit oman vakuutukseni laajuudesta ja käymään vilkasta sähköpostikeskustelua asiasta. Carleton University vaatii myös kaikilta opiskelijoiltaan UPASS-matkakortin ennakkoon ostamista (arvo $200), jolla sai käyttää julkisia liikennevälineitä rajattomasti koko lukukauden ajan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">vaikea</t>
   </si>
   <si>
@@ -427,6 +535,12 @@
     <t xml:space="preserve">Yliopisto takaa asunnot kaikille vaihto-opiskelijoille. Suurin osa asunnoista on lähellä keskustaa ja yliopistoa (1-3km), mutta kohteita löytyy kauempaakin. Kohteet jaetaan käsittääkseni nopeusjärjestyksessä, eli kannattaa olla valppaana haun koittaessa. Itse en päässyt ykkösvaihtoehdokseni valitsemaan Ekebyhyn. Ekebyn asunnot ovat melko uusia käytäväasuntoja omalla suihkulla ja vessalla ja yhteisellä keittiöllä. Niiden sijainti oli omasta näkökulmastani hyvä (helposti keskustaan, Ekonomikumille jossa opiskelin ja metsään lenkille) ja ennen kaikkea kunto ja siisteys paras vierailemistani opiskelija-asunnoista. Toki sitten hintakin on korkeampi; kalustetusta huoneesta sai muistaakseni maksaa yli 500 euroa. Itse pääsin kakkosvaihtoehtooni Flogstaan, josta olin kuullut niin hyvää kuin pahaa. Hyvää bileistä ja tapahtumista, huonoa epäsiisteydestä ja meluisuudesta. Flogsta ja oma käytäväni osoittautui yhdeksi kevään parhaista jutuista. 12 vanhaa betonitaloa eivät ole mitenkään sympaattisia eikä siistiäkään aina ole, mutta hyvät käytävätoverit, sadat muut Flogstassa asuvat opiskelijat, Uppsalan halvin kauppa, lähellä olevat älyttömän hyvät lenkkimaastot, kerran viikossa yhteiset tilat eli keittiön ja käytävän siivoava siivooja, kohtuullinen etäisyys yliopistolle ja keskustaan (10-15 min pyörällä) sekä kohteista halvin vuokra (noin 450 e) teki Flogstasta lopulta minulle sittenkin parhaan vaihtoehdon. Muutamat kaverini valittelivat sotkuisista keittiöistä, ja joskus käytäväbileet saattoivat häiritä jonkun nukkumista, mutta yleisesti kaikki Flogstassa asuneet olisivat valinneet sen asunnokseen uudestaankin. Kantorsgatan toisella puolella kaupunkia oli pienempi ja yhteiset tilat kotoisammat. Sijainti eri puolella kuin muut sekä oman suihkun ja ulkopuolisen siivoojan puute ovat asioita, jotka kannattaa ottaa huomioon. Rackabergsgatanin sijainti on loistava ja yhteiset tilat viihtyisiä. Jos suihkun ja vessan jakaminen muiden kanssa ei haittaa, on tämä loisto vaihtoehto. Klostergatanin yksiöissä asuneet kaverini pitivät asunnoistaan ja sijainnistaan aivan keskustassa kovasti. Keittiö on näissä asunnoissa heikohko, mutta paikka muuten rauhallinen ja oiva valinta enemmän omaa rauhaa kaipaavalle. Loppuun täytyy vielä lisätä, että loppusiivouksen kanssa täytyy kuulemma olla erityisesti Flogstassa tarkkana, jottei kortilta veloiteta siivouskuluja!</t>
   </si>
   <si>
+    <t xml:space="preserve">Opetus 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uppsala ekonomernas eli kauppisopiskelijat pyörittävät buddy-systeemiä tarkoituksenaan helpottaa vaihtareita sopeutumaan uuteen. Oma buddyni oli innokas, varmaankin innokkaampi kuin minä itse. Häneltä ja ekojen viikkojen tapaamisista sain kaiken tarvittavan tiedon itselleni. Myös henkilökunta vastasi sähköposteihin aktiivisesti. Uppsala ekonomernien tapahtumissa pyöri alkuun muunkin alan opiskelijoita, sillä heillä vastaavaa systeemiä ei ollut. Hyvin mahtuivat kaikki mukaan!</t>
+  </si>
+  <si>
     <t xml:space="preserve">taata</t>
   </si>
   <si>
@@ -439,6 +553,9 @@
     <t xml:space="preserve">Asunnon sain jo ennen joulua, kun slovenialainen tyttö ilmoitti Facebookin Erasmus Ljubljana -ryhmässä lähtevänsä kevääksi vaihtoon ja vuokraavansa huoneensa täksi ajaksi. Jos asunnon haluaa saada varmistettua jo ennen lähtöä, on omieni ja vaihtoystävieni kokemusten perusteella Facebook yksi parhaista paikoista metsästykseen, vaikka myös paikan päällä asunnon löytäminen onnistuu kyllä. Kaikki sujui asuntoni kanssa mainiosti. Asunto sijaitsi loistavalla paikalla keskustassa, sain muuttaa jo tammikuun lopussa ja samassa asunnossa asui neljä slovenialaista tyttöä, joiden kanssa yhteiselo oli vaivatonta. Kuluineen maksoin omasta huoneestani 250 euroa, joka on keskivertohintatasoa Ljubljanassa. Yliopiston asuntoloista huoneen saisi alle sadalla eurolla, mutta huoneet ovat aina jaettuja toisen opiskelijan kanssa, mikä sai minut kallistumaan yksityiseltä vuokraamiseen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hakuprosessi sujui sutjakasti niin Tampereen kuin Ljubljanankin yliopiston osalta. Hain informaatiotieteiden yksikön kautta ensimmäisessä täydennyshaussa opiskelemaan sivuainettani tietojenkäsittelytiedettä, eikä sivuaineopiskelijuuteni haitannut hakemista, valituksi tulemista tai opiskelemista kohdeyliopistossa lainkaan. Ljubljanan yliopiston hyväksyntäkirjettä sain odottaa marraskuulle asti, ja sitä ennen rekisteröidyin sähköiseen opiskelijajärjestelmään ja lähetin ensimmäisen learning agreementin. Ennen ulkomaille lähtöä käytävä paperinpyöritys on tietenkin oma juttunsa, mutten kokenut sitä millään tavoin hankalana, ja sain hoidettua ja toimitettua kaiken stressittömästi ajallaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=710</t>
   </si>
   <si>
@@ -448,6 +565,9 @@
     <t xml:space="preserve">Saavuin Belgradiin hyvissä ajoin ennen harjoittelun alkua, jotta ehdin löytää asunnon. Suurlähetystö ei erityisemmin avustanut asunnon löytämisessä, mutta tämä ei tullut yllätyksenä, koska minulta oli kysytty jo haastattelussa, olenko valmis etsimään asunnon omatoimisesti. Asunnon etsiminen Belgradissa voi olla jossain määrin haastavaa, mutta ainakin alkusyksystä asuntoja oli varsin hyvin tarjolla. Haasteita loivat lähinnä se, että vuokrasopimukset tehdään usein yli kolmeksi kuukaudeksi sekä se, että vuokranantajat eivät aina puhuneet kovinkaan paljoa englantia, vaikka suuri osa serbialaisista puhuukin kieliä hyvin. Internetistä löytyy runsaasti asuntoilmoituksia eri sivuilta, mutta kannattaa käydä katsomassa asuntoa paikan päällä, mikäli vain mahdollista. Asuntojen kunto vaihtelee paljon ja on paikoitellen suomalaista tasoa selvästi alhaisempi. Itse olin onnekas ja sain asunnon kohtuullisen vähällä vaivalla kävelymatkan päästä edustustosta. Vuokrataso Serbiassa oli huomattavasti halvempi kuin Suomessa - maksoin omasta yksiöstäni 250 euroa kuussa sekä käyttömaksut. Kimppakämpässä olisi voinut asua vielä huomattavasti tätä halvemmalla. Uuteen asuntoon muuttaessa on hyvä pitää mielessä, että myös Belgradin sisällä asuinpaikkaa vaihtaessa täytyy rekisteröityä alueen poliisiasemalla.</t>
   </si>
   <si>
+    <t xml:space="preserve">Etukäteisjärjestelyt harjoittelua varten olivat varsin helpot hoitaa. Hain ja sain yksiköltäni harjoitteluapurahan, joka oli harjoittelupaikan myöntämisen edellytys. Yliopistolta hain matka-apurahaa ja Kelalta sain normaalisti opintotukea. Kelalle minun tuli tehdä ilmoitus väliaikaisesta ulkomaille muutosta ja matkavakuutuksen kestoa oli hieman pidennettävä tavallisesta. Työsopimuksen allekirjoitin vasta saavuttuani maahan ja aloitettuani harjoittelun. Saavuttuani maahan minun oli rekisteröidyttävä poliisiasemalla 24 tunnin sisällä, mutta hostellini hoiti rekisteröinnin puolestani. Serbiaan ei vaadita viisumia oleskelulta, joka ei ylitä 90 päivää. Omalla kohdallani tuo aika ylittyi, mutta hoidin väliaikaisviisumin hakemisen paikan päällä oleskeltuani maassa jo pidemmän aikaa. Viisumin hakemiseen kannattaa varata paljon aikaa ja hermoja, sillä se vaatii paljon paperityötä ja useamman käynnin viisumitoimistoon.</t>
+  </si>
+  <si>
     <t xml:space="preserve">saapua</t>
   </si>
   <si>
@@ -460,6 +580,9 @@
     <t xml:space="preserve">Asuntoa hain Studentendorfilta, joka tarjoaa Humboldtin opiskelijoille soluasuntoja sekä yksiöitä. Itse sain heidän kauttaan huoneen 13 hengen solusta, jossa kaikilla oli kuitenkin oma suihku ja wc. Huoneesta maksoin 390€/kk sisältäen sähkön, veden ja netin. Talon asukkaat saivat käyttää myös pientä kuntosalia ilmaiseksi. Talossa oli myös pesula, jonka käyttöä varten oli hommattava saksalainen pankkikortti. Talo oli vasta pari vuotta vanha, joten kaikki tilat olivat siistejä ja moderneja. Ainoa iso miinus oli sijainti. Asunto sijaitsi Adlershofissa, josta matka Mitteen (jossa kaikki luentoni olivat) vaihtojen kanssa kesti noin 45 minuuttia. Jos nyt saisin päättää, olisin etsinyt asunnon lähempää omaa kampustani.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Berliiniin jo maaliskuun alussa, koska sain Humboldtin yliopistoon tehtävästä pakollisesta kielitestistä sen verran vähän pisteitä, että jouduin osallistumaan heidän järjestämälleen kuukauden mittaiselle intensiivikielikurssille, josta joutui vielä maksamaan 400€. Mielestäni hinta oli todella kohtuuton kurssin laatuun verrattuna. Varsinainen lukukausi alkoi vasta huhtikuussa. Kurssien valinta Berliinissä osoittautui erittäin vaikeaksi, koska itseäni kiinnostavat ja hyödyttävät kurssit eivät soveltuneet heidän mukaansa vaihto-opiskelijoille tai sitten kursseilla ei ollut enää tilaa. Yliopiston henkilökunnalta sai vaihtelevaa informaatiota Learning Agreementin tekoon, eivätkä he olleet kovin innokkaita auttamaan. Lopulta valitsin vain yhden suoritettavan moduulin ja loput kurssit valitsin kielikeskuksen kielikursseista, jotka maksoivat kurssista riippuen 20 tai 40€.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=627</t>
   </si>
   <si>
@@ -469,6 +592,12 @@
     <t xml:space="preserve">Istanbulin teknillinen yliopisto ei pysty tarjoamaan asuntoa vaihto-opiskelijoille, eikä Istanbulissa ole yksittäistä organisaatiota, joka välittäisi asuntoja vaihtareille. Suurin osa opiskelijoita löytää asunnon Facebook-ryhmien kautta, joita myös yliopisto markkinoi. Myös Craigslistia käytetään paljon.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen Istanbulissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etukäteisjärjestelyjä Suomessa ennen vaihtoon lähtöä ei minulle juuri kertynyt. Viisumia haetaan vasta kohdemaassa, ja minulla oli jo voimassa oleva matkavakuutus. Kurssivalinnat olisi käytännön asioiden sujuvuuden kannalta ollut hyvä tehdä etukäteen, mutta tietoa niistä löytyi huonosti. Yliopiston verkossa toimiva järjestelmä oli vain osittain englanniksi ja siitä oli hankala saada selkoa. Kohdeyliopistosta hyväksymiskirje tuli kuitenkin ajallaan, vaikka lukukauden aikataulutieto tuli valitettavan myöhään. Esimerkiksi tarkka tieto orientaatioviikkojen alkamisesta julkaistiin noin viikkoa ennen niiden alkua, mistä johtuen saavuin Istanbuliin vasta niiden jälkeen. Orientaatiossa oli jaettu paljon hyödyllistä tietoa yliopiston käytännöistä ja Turkissa asumisesta, ja sen väliinjättö vaikeutti hieman opiskelua.</t>
+  </si>
+  <si>
     <t xml:space="preserve">pystyä</t>
   </si>
   <si>
@@ -481,6 +610,9 @@
     <t xml:space="preserve">Olin katsonut Couch Surfing palvelut Renting rooms in Madrid (tai jokin vastaavan niminen) -palstalta sopivan asunnon etukäteen ja jutellut omistajan kanssa netissä. Saavuttuani Madridiin kävin katsomassa asunnon ja tapaamassa vuokraemäntääni, joka oli myös kämppikseni. Suosittelen muillekin seuraamaan ainakin tuota asuntopalstaa, Idealista-nimisen verkkopalvelun tarjoamia asuntoja ja tarvittaessa myös milanuncios-palstaa. Madridissa on muutamakin firma, jotka välittävät asuntoja erityisesti opiskelijoille. Niillä siis vuokranantajat ovat yksityisiä. Itse maksoin pienestä mutta siististä huoneesta 400 euroa kuussa, vuokra sisälsi veden, sähkön netin ja kaikki muut kulut (gastos). Kannattaa katsoa, sisältyvätkö kulut vuokraan (gasto incluido(s). Niistä voi helposti tulla n. 50 € kuussa vuokran päälle.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tutortoiminta vaihtelee täysin tutorin mukaan. Omaa tutoriani en tavannut kertaakaan, vaikka yritin usein sopia tapaamista. Lopulta kyllästyin. Kaverini tutor pyysi ystävääni ja minuakin kotiinsa katsomaan jalkapalloa, lähetteli kutsuja bileisiin ja oli muutenkin mukava ja hyvin avulias. Toisen ystäväni tutor auttoi meitä kurssimuistiinpanojen kanssa ja hänkin ystävystyi kanssamme. Paikallinen ESN (Erasmus student network) järjestää paljon tekemistä. Niissä tosin tutustuu lähinnä vaihtareihin ja muutamaan ESN-aktiiviin. Jäin kaipaamaan Tampereelta tuttua opiskelijajärjestötoimintaa, jossa olisi päässyt tutustumaan paikallisiin oman alan opiskelijoihin. Jos sitä on olemassa, se on hyvin piilotettu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">katsoa</t>
   </si>
   <si>
@@ -493,6 +625,9 @@
     <t xml:space="preserve">Ennen Prahaan lähtöä etsimme ystäväni kanssa netistä vuokra-asuntoja. Melko nopeasti kävi ilmi, että jokainen sivusto, jossa oli mahdollista etsiä asuntoja myös englannin kielellä, tarjosi asuntoja huomattavasti korkeammilla hinnoilla. Lopulta löysimme asunnon Airbnb:n kautta. Mielestäni Airbnb:n kautta vuokraaminen oli todella hyvä vaihtoehto, koska ennen tuloamme asunto oli siivottu ja meillä oli valmiina siistit puhtaat lakanat, astiastot ym. Vuokra-asuntomme sijaitsi Praha 4:n alueella Podolissa, joen varressa. Praha 4 on yleisesti ottaen jo melko kaukana keskustasta, mutta asuimme juuri Praha 2:n ja Praha 4:n rajalla ja jopa kävelyetäisyyden päässä ydinkeskustasta. Asuntomme vuokra oli yhteensä 660€ sisältäen netin, sähkön ym. kulut.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopistona MUP oli melko pieni ja vaihto-oppilaidenkin määrä oli selvästi pienempi kuin kunnallisissa kouluissa. Kursseilla olimme yhdessä paikallisten international business -opiskelijoiden kanssa. Tämä oli mielestäni ainoa huono puoli yliopistossamme, sillä olisi ollut selvästi helpompi tutustua muihin vaihto-oppilaisiin, jos koulussamme olisi ollut enemmän vaihto-opiskelijoita.</t>
+  </si>
+  <si>
     <t xml:space="preserve">vuokra-asunto</t>
   </si>
   <si>
@@ -505,6 +640,9 @@
     <t xml:space="preserve">Yliopisto tarjosi majoitusvaihtoehdoiksi asuntolaa, perhemajoitusta sekä apua oman vuokra-asunnon etsimisessä. Minä valitsin asuntolan. Yliopisto sijoitti kaikki asuntolaan haluavat eurooppalaiset opiskelijat poikkeuksetta uuteen ylioppilaskylään (Деревня Универсиады - Universiade Village). Asuntolaan päästäkseen on ensin käytävä verikokeissa ja keuhkokuvissa opiskelijaterveydenhuollossa. Lääketieteelliset todistukset on mahdollista hankkia jo kotimaassa, mutta silloin ne on käännettävä venäjäksi. Kazanissa prosessi vaati yhden iltapäivän viettämistä opiskelijaklinikalla. Testit eivät maksaneet juuri mitään (alle 10 euroa). Terveyskeskuksen hygieniataso oli hyvä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaihto-opiskelijan vastaanottoprosessi alkoi yliopiston kansainvälisten asioiden toimistosta, jossa hoidetaan esimerkiksi asumiseen ja rekisteröitymiseen liittyvät asiat sekä ohjataan eteenpäin kursseja järjestäville laitoksille. Toimistoon mennessä kannattaa varautua jonoihin, byrokraattisuuteen ja ajoittain nuivaan palvelukulttuuriin. Kaikki asiat eivät selviä ensimmäisenä päivänä, vaan jouduit palaamaan samaan toimistoon vielä monen monta kertaa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">tarjota</t>
   </si>
   <si>
@@ -517,6 +655,9 @@
     <t xml:space="preserve">Itse löysin asunnon jo ennen vaihtoon lähtöä yliopiston sivujen vuokrailmoituksista, ja päätin luottaa siihen että perille päästyäni kaikki on niin kuin pitää. Suurin osa vaihtareista majoittui ensin hostelliin ja etsi asunnon vasta paikanpäällä. Voisin sanoa, että itselläni kävi erinomainen tuuri asunnon suhteen. Vuokraemäntäni haki minut rautatieasemalta ja huolehti ensimmäisen päivän syömisistäni. Seuraavana päivänä hän kuskasi minua kaupoille, jotta pääsisin alkuun. Jaoin asuntoni paikallisten kanssa, mikä auttoi sekä kielen että ympäristön haltuunotossa. Olin opiskellut espanjaa jo enemmän tai vähemmän satunnaisesti lukiosta asti, joten ymmärsin puhetta ja pystyin jo kommunikoimaan jotenkuten, mutta käytännössä puhuminen oli vielä erittäin väkinäistä. En kuitenkaan osallistunut ylimääräisille kielikursseille, sillä tunnit menivät usein päällekkäin muun opetuksen kanssa ja tietysti maksoivat melkoisesti. Muilta vaihtareilta kuulin myös, että eri tasojen ryhmiä opetettiin samaan aikaan, mikä haittasi oppimista.</t>
   </si>
   <si>
+    <t xml:space="preserve">Minulle oli alusta asti selvää, että yliopistossa opiskelun aikana haluan vaihtoon. Olin matkustellut jo paljon Espanjassa ja halusin oppia kielen kunnolla, joten maan valitseminen oli helppoa. Itselleni tuli kuitenkin yllätyksenä, että vaihtoon voi hakea jo toiselle opiskeluvuodelle. Hain vaihtoon kevään täydennyshakukierroksella, koska omalla yksikölläni oli Espanjassa paikka vain Granadassa, ja itse mielin pohjoiseen. Sain paikan kauppatieteiden yksikön kautta, vaikka en ollut koskaan opiskellut alan kursseja. Itselleni sijainti oli opetussuunnitelmaa tärkeämpi, joten päätin heittäytyä ja lukea kauppatieteitä valinnaisena aineena. Hakuprosessi oli sujuva Nettiopsun kautta. Kohdemaan yliopistolta sain varmistusviestin kesäkuun puolella perusinfon ja toimintaohjeiden kera. Learning Agreement piti täyttää etukäteen, mutta käytännössä kurssit valikoituivat vasta paikanpäällä. Opetusohjelma oli helposti löydettävissä yliopiston nettisivuilla ja tein alustavat valinnat yhden opintosuunnan pohjalta, kuitenkaan sen enempää kuvauksia lukematta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=215</t>
   </si>
   <si>
@@ -526,6 +667,12 @@
     <t xml:space="preserve">Hain asuntoa yliopistolta, mutta koska huomasin tarjouskirjeen vasta niin myöhään, myöhästyin yliopiston asuntolahakemusten deadlinesta. Näin ollen asuntolatarjouksen saaminen oli epävarmempaa. Lopulta sain asuntolatarjouksen, mutta sen saamisessa kesti kauan. Sain sen vasta syyskuun alkupuolella. Vuokrakausi alkoi syyskuun puolivälissä. Tätä ennen tiedustelin hakemuksen tilasta heiltä useampaan kertaan, mutta vastauksien saamisessa kesti kauan ja huoneen saaminen oli pitkään epävarmaa. Etsin myös yksityisiltä markkinoilta asuntoa ennen kuin sain viestiä siitä, että saisin huoneen yliopistolta.</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southamptonin opinto-oppaasta löytyi pääosin tarvittava tieto, mutta joitakin puutteita siellä oli. Esimerkiksi yhtä kurssia, johon olin ilmoittautunut, ei järjestetty ollenkaan, vaikka se oli merkitty opinto-oppaaseen. Opetusohjelmaa ei internetistä löydy. Kurssitarjonnasta otin selvää pelkästään Southamptonin nettisivujen kautta. Otin matkavakuutuksen varmuuden vuoksi. Minulla oli myös eurooppalainen sairausvakuutuskortti ja passikopioita kaksi kappaletta. Maksoin myös Tamyn jäsenmaksun koko lukuvuodelle, vaikka sitä ei vaadittu Southamptonin yliopiston puolesta. Passikuvaa tarvitsee ainakin ESN:n jäsenkorttia varten. Kannattaa ottaa varmuuden vuoksi useampi kappale mukaan. En osallistunut millekään erityisille kielikursseille ennen lähtöä, sillä koin, että englanninkielen taitoni olivat riittävällä tasolla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=151</t>
   </si>
   <si>
@@ -535,6 +682,9 @@
     <t xml:space="preserve">Asunnon olin katsonut jo etukäteen ja asuin kahden muun vaihtaritytön kanssa Sevillan keskustassa. Facebookissa on lukuisia ryhmiä Sevillan erasmus-opiskelijoille, joissa tulevat vaihtarit etsivät kämppäkavereita. Sevillassa on myös huoneen välitysfirmoja kuten Roommates Sevilla, jonka kautta hankin huoneen kevätlukukaudelle. Asuin molemmat lukukaudet Prado de San Sebastianissa. Voin suositella aluetta lämpimästi, se on vain muutaman askeleen päässä metrosta sekä ydinkeskustasta. Pyörää en tarvinnut koko vuotenani, koska asuinpaikkani oli niin keskeinen. Espanjalaiset asunnot eivät vastaa suomalaista tasoa ja kosteusongelmia on monissa huoneistoissa. Asunnoissa ei myöskään ole lämmitystä, joten talvikuukausina sisällä todellakin on kylmempi kuin ulkona. Monet vuokranantajat kuitenkin hankkivat erillisen lämmittimen pyydettäessä. Suosittelenkin asumaan asunnossa, jossa on ilmastointi, jonka saa kesällä viileälle ja talvella lämpöiselle! Syyslukukauden huoneesta maksoin 300e plus vesi ja sähkö, mikä on espanjan hintatasoon nähden aika paljon, mutta asunto oli erinomaisessa kunnossa. Kevätlukukauden huoneesta maksoin 280e.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen:</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=226</t>
   </si>
   <si>
@@ -544,6 +694,9 @@
     <t xml:space="preserve">Itse en saanut asuntoa Studierendenwerkiltä, joten jouduin etsimään sitä yksityisiltä markkinoilta, ja eniten tuli etsittyä asuntoa wg-gesucht –sivustolta. Etsiminen oli aika stressaavaa, laitoin monille sähköpostia, mutta vain osalta tuli vastaus ja usein aina kielteinen. Lopulta kuitenkin nappasi, kun ensin sovin skype”haastattelun” yhden soluasunnon kanssa, josta yksi asukas oli itse lähdössä vaihtoon samaksi ajaksi. Kämppikset lopulta valitsivat minut siihen asumaan. Asunto oli hiukan keskustan ulkopuolella (kuitenkin ratikalla n. 10-15 minuutin päässä keskustasta ja yliopistosta) ja olin loppujen lopuksi todella tyytyväinen asuntoon. Minulla oli kaksi saksalaista kämppistä, jotka olivat todella ihania ihmisiä ja tulimme hyvin toimeen. Vietimme paljonkin aikaa yhdessä, ja koin, että tämä ratkaisu oli lopulta paljon parempi kuin opiskelija-asuntolassa asuminen. Asunto oli huomattavasti siistimpi kuin opiskelija-asuntolat, huone oli iso ja rakennus rauhallinen. Tietysti välillä oli hiukan ulkopuolinen olo ja olisin ehkä tutustunut enemmän muihin vaihtareihin, jos olisin päässyt Studierendenwerkin asuntolaan. Vuokrataso oli mielestäni alhainen, itse maksoin koko asumisesta (vuokra, sähkö, vesi ja netti) 340 e/kk.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hakuprosessi Mannheimin yliopistoon oli melko yksinkertainen. Sain syksyllä sähköpostissa linkin hakuportaaliin, ja myöhemmin haun sulkeuduttua sain vielä postia hyväksymisestä sekä tietoa tulevasta. Mannheimin yliopistolla on vaihto-opiskelijoille vielä oma portaali MyUniMa, jota kautta saa tärkeää tietoa yliopiston käytännöistä sekä lisäksi sieltä löytyy lista asioista, jotka pitää järjestää vielä ennen vaihtoa. Portaali oli todella kätevä ja helpotti asioita huomattavasti. Sen kautta myöskin ilmoittauduttiin kansainvälisen toimiston järjestämille kielikursseille ja haettiin asuntoa Studierendenwerkiltä (vähän niin kuin TOAS).</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=676</t>
   </si>
   <si>
@@ -553,6 +706,9 @@
     <t xml:space="preserve">Itse hankin asunnon jo etukäteen, ja paikallinen kaverini kävi sitä katsomassa ja hakemassa avaimen jo etukäteen. Asuin kimppakämpässä 20 minuutin kävelymatkan päässä yliopistolta ja maksoin 440e/kk yhteensä kaikesta. Asuntoa hankkiessa kannattaa huomioida, kuuluuko lämmitys, vesi ja internet vuokraan. Paljoa enempää ei Wienissä kannata huoneesta maksaa, ja opiskelija-asuntolasta huoneen olisi saanut halvemmalla. Itse katsoin asuntoja erilaisilta sivustoilta, joita löytyy suhteellisen paljon. Kimppakämpässä eli WG:ssä asuminen oli yleistä. Monet kaverini olivat myös tulleet kaupunkiin ilman asuntoa, ja kiersivät ensimmäisen viikon asuntoja katsomassa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaassa olisi ollut tuutoritoimintaa ulkomaalaisille opiskelijoille. Ilmoittauduin jo Suomessa ollessani paikalliseen Buddy -järjestelmään, jonka kautta olisi pitänyt saada avukseni tuutor. Omani ei kuitenkaan koskaan vastannut koko ryhmäni yhteydenottoihin, joten tuutoritoiminta jäi kohdallani etäiseksi. Muutenkin mielestäni tuutor on lähinnä hyvä tukihenkilö auttamaan alkuun uudessa maassa, kunnes löytää oman porukkansa. En siis kuitenkaan koe erityisesti jääneeni mistään paitsi, sillä tutustuin ihmisiin tervetuloviikkojen aikana, ja kyselin tarvittaessa neuvoa uusilta tutuilta ja paikalliselta kaveriltani. ESN järjesti myös Itävallassa bileitä ja retkiä koko lukukauden ajan. Niihin osallistui niin valtavan paljon ihmisiä, että itse reissasimme ja vietimme aikaa mieluummin kavereiden kanssa keskenämme.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=314</t>
   </si>
   <si>
@@ -562,6 +718,9 @@
     <t xml:space="preserve">Asuntoa minulla ei vielä ennen Brysseliin saapumista ollut, mutta olin sopinut muutamia näyttöjä jo etukäteen. Ensimmäiset päivät vietin ystävälläni näytöissä käyden ja jo muutaman päivän jälkeen olinkin saanut oman kämpän.</t>
   </si>
   <si>
+    <t xml:space="preserve">Harjoittelupaikastani sain tarvittavat infopaketit ja ohjeet harjoittelua varten, sekä neuvoja asunnon hankkimisesta. Tapasin myös edeltäjäni ennen Brysseliin menoa, joten minulla oli hyvä kuva siitä, mitä harjoitteluni tulisi sisältämään.</t>
+  </si>
+  <si>
     <t xml:space="preserve">olla</t>
   </si>
   <si>
@@ -574,6 +733,12 @@
     <t xml:space="preserve">Vaihtoon haettaessa hain myös asuntolapaikkaa, ja sain valita itse mieluisimman asuntolan (tästä myöhemmin lisää). Itse asuntolapaikan haku sujui sen suuremmitta ongelmitta, mutta kannattaa asumisessa ottaa huomioon, että se voi olla aika kallista: 9 kuukautta asuntolassa maksoi noin £6,000, ja tämä oli siis yksi halvimmista tarjolla olleista asuntoloista.</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opiskelen Tampereella englantia, mutta tein vaihdossa vuoden verran politiikan opintoja, eli omalla kohdallani haku oli ehkä hieman erilainen tämän vuoksi – lähinnä yritin siis hakukirjeessä demonstroida suurensuurta kiinnostustani ainetta kohtaan, jota aineen omien opiskelijoiden ei luultavasti tarvitse tehdä. Olen itse asunut Englannissa jo vuoden aiemminkin (au pairina), joten toin kirjeessä esille myös tätä kiinnostustani. Sen ihmeellisempiä vinkkejä siihen ei minulla ole: persoonallinen ja motivaatiota demonstroiva hakukirje vie varmastikin pitkälle. Muu hakuprosessi oli varsin yksinkertainen, byrokratia vain ahdisti. Mutta sen yli kun jaksaa tsempata, on kokemus ihan varmasti sen arvoinen!</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=144</t>
   </si>
   <si>
@@ -583,6 +748,9 @@
     <t xml:space="preserve">Asunnon löysin sattuman kautta Facebookista. Asuin U8-linjan varrella keskustan pohjoispuolella. Asunto sijaitsi 10min kävelymatkan päässä metroasemalta, mikä tuntui joskus turhauttavalta, koska keskustassa asuvilla kavereillani oli metroasemille vain muutaman minuutin kävelymatka.  Maahanmuuttajavaltaisessa ”lähiössä” asuminen oli kuitenkin omalla tavallaan mielenkiintoista. Pidin myös kotiseutuni rauhallisuudesta ydinkeskustan vilinään verrattuna. Berliiniin vaihtoon lähteville opiskelijoille suosittelen WG-gesucht.de –nettisivua. Sivulle voi jättää oman asunnonhakuilmoituksen. Kimppakämpässä asuminen on saksalaisten opiskelijoiden kesken yleistä ja vaihtareille paras tapa tutustua paikallisiin. Berliinin vuokrataso on suhteellisen edullinen (n.270-350e /huone) ja asunnot ovat yleensä kauniita korkeine kattoineen ja avarine huoneineen. Monia huoneita vuokrataan kalustettuina, mikä on vaihtarille kaikista kätevin vaihtoehto. Yliopiston asuntolassa asunut kaverini ei suositellut asuntola-asumista ”yhtään kenellekään”. Hänen solunsa oli likainen ja porukkaa ramppasi sisään ja ulos jatkuvasti. Muutaman hengen kimppakämpässä asuminen on omaa rauhaa kaipaavalle paras vaihtoehto. Asuntoa etsiessä kannattaa vilkaista metrokarttaa. Berliini on todella suuri kaupunki ja melkein mihin tahansa matkaan kuluu helposti 40 minuuttia. Oma ”koulumatkani” kesti yhteensä tunnin, mikä tuntui välillä puuduttavalta. Berliinin julkinen liikenne on onneksi erittäin toimiva.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennen vaihtoon lähtemistä tuli hoitaa vaihtoyliopiston ja vaihto-ohjelman edellyttämiä virallisia asioita. Siinä suureksi avuksi oli Freie Universitätin ylläpitämä vaihto-opiskelijoille suunnattu Distributed Campus –sivusto. Distributed Campusista löytyi ohjeet mm. sairausvakuutusasioiden hoitoon (Saksassa vaihto-opiskelija saa yliopistolta todistuksen ”sairausvakuutusvapautuksesta”, jota tulee näyttää lääkärissä asioidessa kansainvälisen Kela-kortin kanssa) ja Learning Agreementin laadintaan. Sivulta löytää myös tietoa käytännön asioista, kuten Berliinin joukkoliikenteestä tai lääkärissä käynnistä. Learning Agreementin laatiminen oli hankalaa, sillä Freie Universitätin kurssikatalogissa näkyi ainoastaan edellisen lukuvuoden opetusohjelma. Oman yksikköni Erasmus-koordinaattori onneksi sanoi, että Learning Agreementin voi palauttaa Tampereen yliopistoon vasta vaihdosta palatessa. Käytäntö oli kätevä, sillä omat kurssivalintani muuttuivat vaihdon aikana useaan kertaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=625</t>
   </si>
   <si>
@@ -592,6 +760,9 @@
     <t xml:space="preserve">Asuntoa minulla ei ollut valmiiksi, mutta kämppäkaverit olivat. Suosittelen kämppien katselua etukäteen ja ottamista yhteyttä vaikkapa Roommates Sevillaan. Se on hieman kalliimpi kuin yksityinen, mutta varma ja helppo tapa järjestää asuminen. Voit myös kommunikoida englanniksi, mikäli et osaa espanjaa. Monet yksityiset vuokranantajat eivät puhu englantia juurikaan. Jos etsit asuntoa vasta kun saavut paikalle, niin mieluisaa kämppää saat jo etsimällä etsiä. Vuokrataso on edullinen, mutta asumisen taso erittäin vaihteleva. Jotkin asunnot ovat todella murjuja ja jotkin ihan siistejä, vaikka hinta on sama. Neuvon kuitenkin, että ei kannata hirveän kauaksi metroa mennä, mikäli aikoo opiskella paljon ja kuljet päivittäin yliopistolle. Muutoin hyviä alueita on paljon, Amate–nimistä aluetta välttäisin. Itse asuin Macarenan lähellä San Julianin kaupunginosassa siistissä yksityiseltä vuokratussa edullisessa asunnossa. Panosta myös lämpimiin vaatteisiin. Sisätiloissa on kylmä – villasukat mukaan! Varaudu myös puutteisiin varustetasossa, meillä ei ollut esimerkiksi uunia. Kuitenkin kämppä ja kämppikset olivat tosi mukavia!</t>
   </si>
   <si>
+    <t xml:space="preserve">Lensin Norwegianilla Malagaan, josta matkustin ALSA–bussilla Sevillaan. UPO:lla ei ole kummempaa tuutoritoimintaa, joskus näin jonkun listan, jossa oli joidenkin yhteystiedot, mutta ko. ihmiset eivät koskaan laittaneet spostia tai en nähnyt heitä vaihdon aikana lainkaan. Itse en osallistunut Suomessa kielikurssille, mutta omalla yliopistolla otin kielikurssin. Se oli 4 ETCS:n arvoinen, ja siten pidempi ja parempi kuin esimerkiksi intensiivikurssit. Suosittelen tällaisen pidemmän ja paremman kurssin ottamista. Espanjan kielessä pääsee nopeasti alkuun, vaikka alussa voi tuntua vaikealta. Siellä tapaa myös ensimmäisiä kavereita, joiden kanssa voi viettää aikaa ennen ensimmäisiä Erasmus–tapaamisia, joista saat tietoa esim. Facebookin kautta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=220</t>
   </si>
   <si>
@@ -601,6 +772,9 @@
     <t xml:space="preserve">Päätimme vaihtoon lähtiessämme, ettemme halua asuntolamajoitusta, vaan hoidamme itsenäisesti välittäjäfirman kautta itsellemme asunnon. Tässä kannattaa olla varovainen, sillä silloin tällöin kuulee tarinoita, joissa uuteen maahan muuttavaa opiskelijaa on huijattu tavalla tai toisella.</t>
   </si>
   <si>
+    <t xml:space="preserve">Minä ja ystäväni puntaroimme vaihtoon lähdöstä päätettyämme Prahan ja Budapestin välillä, mutta lähinnä tutuilta kuultujen juttujen perusteella päädyimme valitsemaan Prahan. Hakuprosessi oli yksinkertainen, joskin se sisältää jonkin verran kirjoitettavaa, eli hieman vaivaa on nähtävä - ei kuitenkaan mitenkään liikaa. Päätösten saaminen kesti tovin, mutta kokonaisuudessaan homma sujui helposti.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asun#tola#majoitus</t>
   </si>
   <si>
@@ -616,6 +790,9 @@
     <t xml:space="preserve">Asuin yliopiston asuntolassa, Shaw collegessa. Jaoin pienen huoneen kiinalaisen tytön kanssa ja meillä kaikki sujui hyvin eli huoneen jakaminen ei ollut minkäänlainen ongelma. Vessa ja keittiö jaettiin koko kerroksen kanssa. Varsinaisesti tämän puolen vuoden aikana ei tullut juurikaan kokkailtua, vaan lounas ja päivällinen syötiin usein koulun kanttiinissa, jossa oli tarjolla paljon perinteistä hongkongilaista ruokaa eli lyhyesti riisiä ja nuudelia erilaisilla lisukkeilla muutaman euron hintaan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuttuamme Hong Kongiin paikallinen yliopisto oli järjestänyt kaikille 500 vaihto-opiskelijalle orientaatioviikon, jossa käytiin lävitse niin koulun käytäntöjä kuin tutustuttiin kaupunkiinkin esim. kiertoajelun merkeissä. Orientaatioviikon aikana tutustui hyvin muihin vaihtareihin ja sai hetken ihmetellä valtavaa kampusta rauhassa ennen paikallisten opiskelijoiden saapumista. Kampus itsessään sijaitsee melko kaukana, noin tunnin metromatkan päässä keskustassa. Toisaalta taas kampus oli vehreä ja kaunis kaikessa suuruudessaan ja kampuksen sisällä paikasta toiseen pääsi koulubusseilla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">root</t>
   </si>
   <si>
@@ -628,6 +805,9 @@
     <t xml:space="preserve">Asuin kevään The Student Hotellissa (thestudenthotel.com) lähellä keskustaa. Hotellilta pyöräili noin 25 minuuttia yliopistolle, metrolla aikaa meni reilut 20 minuuttia. Suurin osa vaihtareista majoittui yliopiston kautta saatavissa opiskelija-asunnoissa lähempänä yliopistoa Uilenstedessä. Näistä asunnoista suurin osa on aika huono kuntoisia, monessa jaetaan sekä vessa että keittiö kymmenen hengen kanssa ja itsekin olin muutamissa kerrosbileissä, joiden jälkeen yhteiset tilat olivat varmasti kaameassa kunnossa. The Student Hotel oli huomattavasti kalliimpi, mutta hotelli on rakennettu vasta pari vuotta sitten, huoneissa on omat kylpyhuoneet ja jaetut keittiöt ovat suuret. Huoneita on myös omalla keittiöllä, mutta nämä huoneet varataan todella nopeasti. Vuokraan kuuluu hyvä polkupyörä ja sen saa heti käyttöönsä. Student Hotellilta pääsee pyörällä tai ratikalla vartissa keskustaan, kun taas Uilenstedestä keskustaan kestää puoli tuntia.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen ja eläminen</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=5</t>
   </si>
   <si>
@@ -637,6 +817,9 @@
     <t xml:space="preserve">Vaihtoni ajan en asunut yliopiston asuntoloissa, vaan vuokrasin huoneen Augsburgin yliopiston opiskelijalta, joka lähti suorittamaan omaa vaihtolukukauttaan ja täten hyödyimme kumpikin vuokrajärjestelyistä. Löysin ilmoituksen Augsburgin yliopiston nettisivuilta, ERASMUS 4 ERASMUS- palvelusta, jonka kautta vaihtoon lähtevät ilmoittivat vuokrahuoneistaan. Asunto oli iso ja hyväkuntoinen, tosin sinne saavuttuani käytin muutaman iltapäivän siivoukseen. Asuin yhden kämppäkaverin kanssa, joka oli Augsburgiin saapuessani vierailemassa sukulaisillaan ulkomailla, joten tapasin hänet vasta kaksi viikkoa saapumiseni jälkeen. Olin jännittänyt kämppäkaverin kanssa asumista, sillä olen tottunut asumaan yksiöissä ja nautin omasta rauhastani, mutta kämppäkaverini oli todella huomaavainen, kohtelias ja avulias, joten jännittämiseni osoittautui turhaksi. Asunnossa oli käytössäni oman huoneeni lisäksi hyvä keittiö, tilava olohuone ja pesuhuone ja maksoin vuokraa 270e kuussa. Mielestäni vuokrataso oli oikein sopiva. Pesukonetta asunnossa ei ollut ja jouduin pesemään pyykkini maksullisessa pesulassa, mutta tämä oli vain pieni puute.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennen Saksaan lähtöäni oli minuun ottanut yhteyttä henkilökohtainen tuutorini Augsburgista. Tuutorini vaikutti alusta alkaen oikein mukavalta ja auttoi minua innokkaasti saapumisjärjestelyissä sähköpostitse ja Augsburgiin saavuttuani oli myös mukanani alkujärjestelyissä. Alkujärjestelyiden jälkeen kuitenkin en usein nähnyt häntä, mutta pidimme yhteyttä internetin välityksellä. Oli suuri helpotus saada tuutori, jolta saatoin saada apua mihin asiaan vain, hän huolehti hyvinvoinnistani myös yliopiston ulkopuolella, mm. olemalla valmis ostamaa minulle lääkkeitä kun sairastuin flunssaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=620</t>
   </si>
   <si>
@@ -646,6 +829,9 @@
     <t xml:space="preserve">Asuin OeAD:n soluasunnossa kiinalaisen kämppikseni kanssa koko vaihdon ajan. Sitä kautta asunto oli helppo saada, mutta vuokra oli varsin korkea. Suosittelen etsimään asuntoa yksityiseltä puolelta, mikäli aika ja viitseliäisyys vain suinkin riittävät. Paitsi että vuokra oli sijaintiin nähden ylimitoitettu, oli talossa monia mielestäni kummallisia sääntöjä. Asunnossamme kävi myös siivooja viikoittain, mitä itse hieman oudoksuin. Käytäntö on kuitenkin varsin yleinen Itävallassa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Osallistuin vaihtoni alussa kampuskierrokselle, joka oli yhteinen kaikkien alojen vaihtareille. Kansainvälisten asioiden toimisto järjesti hyvin informatiivisen orientaatiotilaisuuden, joka oli pakollinen. Meille oli tarjolla myös jonkinlaista tuutortoimintaa, mutta en ilmoittautunut siihen riittävän ajoissa. Wienin yliopisto on saksankielisen alueen suurin, joten alussa kannattaa varmasti ottaa vastaan kaikki mahdollinen orientaatio ja opastus.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=306</t>
   </si>
   <si>
@@ -655,6 +841,9 @@
     <t xml:space="preserve">Asuin kansainvälisten opiskelijoiden asuntolassa, joka oli vain parin sadan metrin päässä omasta koulurakennuksestani. Jaoin pienen huoneen vietnamilaisen tutkinto-opiskelijan kanssa. Suihkut ja wct sekä keittiö jaettiin koko kerroksen asukkaiden kesken. Huoneessa oli valmiina peitot ja tyynyt, sekä petivaatteet, jotka voi itse vaihtaa puhtaisiin maanantaisin. Monet lyhytaikaiset vaihto-opiskelijat asuivat asuntolan hieman kalliimmassa ja hienommassa osassa. Sielläkin huoneet jaetaan, mutta ne ovat isompia ja uudempia ja jokaisessa huoneessa on oma kylpyhuone. Huone kannattaa tarkistaa muuttaessaan sisään, itse jouduin korvaamaan pöytälampun lähtiessäni, vaikka sellaista en ollut huoneessa ikinä nähnytkään. Henkilökunnan mukaan sellainen kuitenkin pitäisi olla jokaisella, enkä ollut ilmoittanut sen puuttuvan, joten jouduin antamaan siitä pienen rahallisen korvauksen. Kansainvälisten opiskelijoiden asuntolassa asuminen vaikutti tietenkin siihen, että paikallisiin opiskelijoihin oli vaikeampi tutustua, lähes kaikki lähimmät ystäväni olivat toisia kansainvälisiä opiskelijoita.</t>
   </si>
   <si>
+    <t xml:space="preserve">Opiskelin siis Chinese Language Training –kurssilla pelkkää kiinan kieltä. Kursseja ja opettajia oli kolme erilaista: kielioppi, puhuminen ja kuunteleminen. Tunnit sijoittuivat yleensä aamupäivään ja iltapäivät olivat vapaita. Mielestäni opetuksen taso oli erittäin hyvä, ryhmät olivat todella pieniä, joten jokaisen täytyi osallistua. Eri opettajat toivat myös vaihtelua, vaikka aine olikin sinällään sama. Opiskelu oli aika koulumaista – välituntikelloa myöten. Toisaalta kielten opiskelu näin intesiivisesti on ehkä ainoa tapa todella oppia jotakin niin lyhyessä ajassa. Kotitehtäviä annettiin myös joka päivä ja opettaja tarkisti ne seuraavalla tunnilla. Jokaisella kolmella kurssilla pidettiin loppukoe, sekä välikokeet, kuuntelemista lukuunottamatta. Kaikista kokeista tuli saada hyväksytty tulos saadakseen lopputodistuksen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=378</t>
   </si>
   <si>
@@ -673,6 +862,9 @@
     <t xml:space="preserve">Asuin Julius Raab Heimissä 10 minuutin kävelymatkan päässä kampuksesta. Raab Heimissa asuu myös suurin osa kaikista vaihto-opiskelijoista, joten tuttuihin naamoihin törmää käytävillä. Lisäksi Raabin "common roomeissa" tuli istuttua monia iltoja juttelemassa ja pitämässä hauskaa. Asuin keittiöllisessä yksiössä jonka vuokra oli n. 350 euroa. Saapuminen oli helppoa. Raab Heim toimii myös kesähotellina joten alakerrassa on 24h respa. JKU:n kansainvälinen toimisto varaa huoneet Online-hakemusten perusteella, joten saavuttuani respaan sain papereiden allekirjoitusten jälkeen avaimen käteen ja huone oli valmiina. Asuntopuolen hoitaminen on tehty siis erittäin helpoksi.</t>
   </si>
   <si>
+    <t xml:space="preserve">Paikan päällä Linzissä tutor tuli hakemaan minua juna-asemalta ja opasti parin ensimmäisen päivän aikana käytännön asioissa. Tutortoiminta on Linzissä hyvin organisoitua, järjestö on nimeltään REFI Linz. Kaikkien vaihtareiden tutorit eivät olleet tarpeeksi aktiivisia, mutta apua saa aina kysymällä: joku REFIstä auttaa sinua varmasti :) Yliopiston puolesta järjestettiin orientoitumiskuukausi, joka sisälsi käytännön asioiden läpikäyntiä, Saksan intensiivikurssin, kulttuurikurssin sekä muutamia excursioita lähialueille. REFI järjestää myös saman kuukauden aikana useita tapahtumia ja bileitä, jossa tutustuu helposti muihin vaihtareihin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=293</t>
   </si>
   <si>
@@ -682,6 +874,9 @@
     <t xml:space="preserve">Asuin koko vaihtoni ajan Raatuse 22 opiskelijasuntolan solussa. Omassa solussani oli kolme huonetta, keittiö, wc ja suihku. Soluhuoneet on tarkoitettu jaettavaksi kahdelle henkilölle, mutta itse kaipasin omaa rauhaa ja vuokrasin koko huoneen itselleni. Muuten jaoin asunnon neljän virolaisen kanssa, joiden kanssa tulimme hyvin toimeen. Asunnossa on "peruskalusteet" eli sänky, vaatekaappi, kirjoituspöytä ja tuoli, joilla pärjäsi hyvin. Omia astioitakaan ei tarvinnut ostaa, sillä sain käyttää kämppisten ja edellisiltä asukkailta jääneitä astioita ja ruoanlaittovälineitä. Keittiön varustus oli melko heikko, joten hirveästi ruokaa ei tullut laitettua. Yleisesti vuokrataso Virossa on edullisempi kuin Suomessa, mutta huoneen vuokraaminen kokonaan itselleni nosti luonnollisesti hintaa. Vuokraan lisätään myös kuukausittain erikseen jäte-, vesi-, lämmitys- yms. maksut, joten vuokra saattoi kuukaudesta riippuen vaihdella kymmenenkin euroa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ensimmäisinä päivinä järjestelin myös käytännön asioita. Yli 3 kuukautta Tartossa asuvan täytyy hankkia virolainen ID-kortti ja ilmoittautua Tarton asukkaaksi. ID-kortin sai haettua poliisilaitokselta ja ilmottautuminen asukkaaksi tapahtui kaupungin registration officessa. Molemmissa kannattaa kuulemma varautua siihen, että palvelua ei saa kuin viroksi tai venäjäksi, mutta itse pärjäsin ainakin hyvin englannin kielellä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=835</t>
   </si>
   <si>
@@ -691,6 +886,9 @@
     <t xml:space="preserve">Asuin yliopiston kampuksella ja asunnon olin hankkinut jo etukäteen yliopiston nettisivuilta, mikä oli suhteellisen helppoa. Asuntoni sijaitsi Darwinissa, joka sijaitsi hyvällä paikalla kampuksella lähellä kaikkia palveluita. Jaoin asunnon neljän muun ihmisen kanssa ja keittiön yhteensä yhdeksän ihmisen kanssa. Vuokran suuruus todellakin yllätti. Yliopiston asuntolassa asuminen on varmasti helpoin ja luotettavin tapa asua, mutta mielikuvat halvasta asumisesta voi unohtaa jo heti alkuunsa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Varsinainen lähiopetus kesti tammikuusta huhtikuun puoliväliin saakka, jonka jälkeen alkoi spring break ja valmistautuminen tentteihin. Itselläni oli kaksi tenttiä aivan toukokuun loppupuolella, ja käytin tentteihin lukemiseen ehkä noin viikon. Varsinkin koko tutkintoaan Canterburyssa suorittaville tentit olivat selkeästi suurempi juttu ja ihmiset stressasivat tenteistä paljon etukäteen. Varsinaiset tenttitilanteet muistuttivat Suomen ylioppilaskirjoituksia, mutta kestivät vain pari tuntia.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=120</t>
   </si>
   <si>
@@ -700,6 +898,9 @@
     <t xml:space="preserve">Asuin vaihtoni ajan North Park Universityn kampuksella, Ohlson-asuntolassa. Tämä asuntola oli tarkoitettu vain tytöille. Muissa asuntoloissa kerrokset olivat jaettu sukupuolittain. En erityisesti hakenut majoitusta tyttöjen asuntolasta, vaan vaihto-opiskelijat jaetaan automaattisesti asuntoloihin. Ohlsonissa huoneet ovat hyvin erikokoisia ja ne jaetaan vähintään yhden muun opiskelijan kanssa. 26-vuotiaalle tämä asumismuoto vaati totuttelua, mutta lopulta yhteisasuminen sujui mutkattomasti. Asuntoloissa on tarkat vierailuajat ja säännöt asumiselle. Sääntöjen noudattamisen valvomisesta vastaavat kerrosvastaavat ja asuntolan ohjaaja. Asuntoloissa oli maksuton pyykinpesu ja kuivausmahdollisuus. Ohlson oli muihin asuntoloihin verrattuna huomattavasti rauhallisempi. Wc- ja suihkutilat jaetaan koko kerroksen kanssa. Niitä oli kuitenkin useita per kerros.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Chicagoon päivää ennen vaadittua ajankohtaa ja vietin yhden yön lentokenttähotellilla. Yhteyshenkilöni North Parkista tuli hakemaan minut sieltä seuraavana aamuna. North Park University järjesti kaikille vaihto-opiskelijoille orientaatioviikon ennen paikallisten opiskelijoiden saapumista kampukselle. Orientaatioviikon aikana tutustuttiin kampukseen, asuntoloihin, muihin vaihto-opiskelijoihin, ruokalaan, naapurustoon ja tehtiin retkiä keskustaan. Ensimmäisellä viikolla käytiin myös yhdessä Targetissa ostosretkellä, jolloin hankittiin asumista varten kaikki oleellinen. Ensimmäinen viikko oli ohjelmaa täynnä ja sitä seurasi toinen yhtä ohjelmantäyteinen orientaatioviikko paikallisten opiskelijoiden kanssa. Orientaatio tapahtuu hyvin amerikkalaiseen tapaan, äänekkäästi, leikiten, pelaten ja paljon ilmaista ruokaa. Hämmentävin hetki orientaatioviikolla oli väkivalta-/turvallisuuskoulutus. Oli hyödyllistä saapua paikalle ajoissa ihan vain senkin takia, että sai rauhassa tottua aikaeroon. Orientaatioviikolla järjestetiin myös kielitasotesti, jonka mukaan tarkistettiin, tarvitseeko vaihto-opiskelija tukea englannin kielessä vai ei.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=850</t>
   </si>
   <si>
@@ -709,6 +910,9 @@
     <t xml:space="preserve">Suurinosa vaihtareista asuu guest houseissa, jotka vapautuvat turistikauden päätyttyä 1.9. Yliopisto lähettää listan eri guest houseista, jotka majoittavat vaihtareita ja itse aloin kontaktoida niitä noin kaksi tuntia listan saavuttua ja kaikki guest houset olivat jo täynnä. Tässä on oltava siis erittäin nopea ja suosittelenkin hankkimaan majoituksen ennen tämän listan saapumista! Facebook-ryhmästä kävi ilmi, että hyvin moni muukin oli jäänyt ilman majoitusta ja monet muodostivatkin ryhmiä ja alkoivat yhdessä etsiä mm. Airbnb-majoitusratkaisuja. Eli jos guest houset ehtivät menemään täyteen, hätä ei ole tämän näköinen!  Itse löysin vapaan huoneen yksityisen vuokraamasta omakotitalosta aivan Reykjavikin keskustasta. Asuin 7 muun vaihto-opiskelijan kanssa ja huoneestani maksoin 80 000 ISK kuussa, mikä on normaali hintataso keskustan alueen huoneista. Tämä sisälsi veden, sähkön ja netin eli kaiken. Hintataso on todella korkea myös Reykjavikin ulkopuolellakin. Hintataso on ylipäätään kalliimpi kuin Suomessa kaikessa elämisessä. Liha ja juusto ovat melko kalliita Suomeen verrattuna ja jotkut vaihtarit elivät pelkällä pastalla ja riisillä suurimmaksi osaksi. Itse en tähän kuitenkaan lähtenyt mukaan vaan ostin suosiolla lihaa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennen vaihdon alkua yliopisto lähetti listan, johon laitetaan omia mielenkiinnon kohteita ja niiden perusteella valitaan yliopistosta buddy jokaiselle uudelle vaihto-oppilaalle. Buddy auttaa tarvittaessa käytännön asioiden hoitamisessa, kun maahan saavutaan. Oma buddyni kierrätti minua saapumispäivänäni ympäri kaupunkia ja auttoi liittymän jne hankkimisessa. Islantilainen kennitala, joka vastaa Suomen sotua, ei ole pakollinen, jos maassa viettää vain yhden lukukauden. Jos kuitenkin mielii kuntosalille liittyä kannattaa kennitala hankkia, koska silloin jäsenmaksu on paljon pienempi. Kennitalan saa helposti hankittua yliopiston kautta. Millekkään islannin kielen kurssille en osallistunut ja käsittääkseni meidän yliopisto ei edes sellaista tarjonnut.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=260</t>
   </si>
   <si>
@@ -727,6 +931,9 @@
     <t xml:space="preserve">Asuin yliopiston asuntolassa, jonka olin varannut ja maksanut etukäteen. Huone, jossa asuin oli Park Woodissa, viiden hengen talossa. Park Wood on asuntola-alue yliopiston kampusalueella ja noin 10 minuutin kävelymatkan päässä keskeisimmistä opetusrakennuksista. Park Wood on halvin yliopiston asumisvaihtoehdoista, vaikka sekin oli melko kallis. Vuokra on noin 500-600 euroa kuukaudessa ja tämä sisältää veden, sähkön, netin sekä yhteisten tilojen viikoittaisen siivouksen. Asunnon hankkiminen yksityisiltä vuokraajilta saattaa olla halvempaa, mutta itse koin yliopiston asuntolan helpommaksi ratkaisuksi. Yliopiston asuntolat ovat myös lähellä yliopistoa ja niissä tutustuu hyvin muihin opiskelijoihin. Itselläni oli vain positiivisia kokemuksia Park Woodissa asumisesta, lieviä homeongelmia lukuun ottamatta. Muiden asunnoissa en kuitenkaan kuullut juurikaan olevan homeongelmia, joten minulla saattoi vain olla huono tuuri tämän asian suhteen. Lisäksi haluan mainita, että ainakin Park Woodissa asui paljon eri-ikäisiä vaihto-opiskelijoita, joten esimerkiksi vanhempien opiskelijoiden on turha jännittää, että kaikki olisivat kovin nuoria. Omat kämppikseni olivat iältään aina päälle kaksikymmentä vuotiaasta kolmekymmentä vuotiaaseen. Ainakin oman kokemukseni mukaan saman ikäiset opiskelijat oli usein laitettu samoihin taloihin keskenään.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaahan saapuminen oli helppoa ja Kentin yliopisto järjestää myös kuljetuksia joiltakin suurimmilta lentokentiltä yliopistolle saapumispäivänä. Itse lensin London Stanstedin lentokentälle, eikä sieltä ollut kuljetusta, joten en sellaista ottanut. Juna- ja bussiyhteydet ovat kuitenkin hyvät, ja ainakin bussi saattaa olla halvempi vaihtoehto kuin yliopiston järjestämä yhteiskuljetus. Lisäksi Canterburyn keskustassa linja-autot kulkevat myös yöllä keskustasta yliopistolle. Saapumisessa kannattaa kuitenkin huomioida yliopiston asuntoloiden vastaanottojen aukioloajat. Itse yövyin ensimmäisen yön hotellissa Canterburyn keskustassa juuri siitä syystä, että saavuin myöhään Canterburyyn, eikä avaimia asuntoon ollut mahdollista saada enää siihen aikaan asuntolan vastaanotosta. Myös yliopistoon saapuminen oli helppoa ja yliopiston käytännöt ja paikat esiteltiin aluksi. Erilaista toimintaa oli järjestetty aluksi, mutta tammikuussa saapuville sitä oli ainakin kuulemani mukaan järjestetty vähemmän kuin syksyllä saapuville. Alun tapahtumiin ja retkille kannattaa muistaa ilmoittautua, sillä muuten niille ei pääse ellei paikkoja vapaudu ilmoittautuneiden peruessa omansa. Itse unohdin näihin tapahtumiin ilmoittautua, mutta pääsin sitten jonottamalla peruneiden tilalle. Osa ilmoittautumatta jättäneistä opiskelijoista ei kuitenkaan päässyt ollenkaan mukaan. Parin ensimmäisen viikon aikana oli siis tapahtumia, vaikka varsinaista tutor-toimintaa yliopistossa ei ollutkaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=116</t>
   </si>
   <si>
@@ -736,6 +943,9 @@
     <t xml:space="preserve">Asuin suomalaisen ystäväni kanssa kampuksella yliopiston asuntolassa eli dormissa. Vaihtoehtona oli myös URSeoul-niminen yksityinen asuntola kampuksen ulkopuolella, mutta hinnan (noin 2 100 e/hlö/lukukausi) ja sijainnin vuoksi emme nähneet sitä dormia parempana vaihtoehtona. Mahdollista on toki myös vuokrata asunto yksityiseltä, mutta tämä oli vaikeutensa vuoksi harvinaista. Jälkeenpäin ajateltuna olimmekin hyvin tyytyväisiä, että valitsimme nimenomaan yliopiston oman dormin, sillä muuten olisimme jääneet paitsi sen tarjoamasta yhteisöllisyydestä ja hyvistä etäisyyksistä. Huoneet olivat kompakteja kahden hengen huoneita ja tytöt ja pojat oli eroteltu eri siipiin. Petivaatteet ja muut yleistarvikkeet tilasin etukäteen TOWNUS-nimisestä palvelusta, jota meille yliopiston puolesta sähköpostitse tarjottiin. Palvelun kautta voi hankkia myös paikallisen puhelinliittymän, mutta ainakaan oma liittymäni ei tukenut suurinta osaa kaupungin julkisista wifi-verkoista (joita on kaupunkialueella kaikkialla), joten suosittelen hankkimaan paremman liittymän vasta saavuttua Souliin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin lopulta Souliin kuulemma loppukesän kuumimpana päivänä, jolloin koin kevyen alkushokin paikallisesta lähes trooppisesta ilmastosta johtuen. Sää kuitenkin tasaantui nopeasti suomalaiselle oikein sopivaksi ja myös sadekausi oli juuri päättynyt. Sateenvarjoa ei koko syksynä tarvittukaan kuin muutamana päivänä, mikä taisi olla hieman poikkeuksellista. Lentokentällä meitä vastassa olivat paikalliset tutorit eli buddyt, jotka tulivat pyydettäessä noutamaan vaihto-opiskelijat ja opastamaan meidät yliopistolle. Buddy-toiminta olikin koko syksyn erittäin aktiivista ja erilaisia tapahtumia oli jatkuvasti. Suosittelenkin lämpimästi lähtemään toimintaan heti alussa mukaan. Heti ensimmäisinä päivinä on myös tärkeää jättää Alien Registration Card (ARC) -hakemus, joka on paikallinen henkilöllisyystodistus. Hakemuksen käsittely kestää noin 1,5 kuukautta ja ilman sitä ei ole mahdollista palata maahan, mikäli Etelä-Koreasta poistuu. Mahdollista on myös avata pankkitili paikallisessa konttorissa, mutta se ei ole kovin tarpeellista, mikäli asuntolamaksun maksaa käteisellä. Suomalaiset pankkikortit toimivat maassa pääosin hyvin, eikä tilisiirrolla maksaminen ole myöskään käteismaksua halvempaa, vaan kulut nousevat loppujen lopuksi hyvin lähelle toisiaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=434</t>
   </si>
   <si>
@@ -745,6 +955,9 @@
     <t xml:space="preserve">Sairastelun lisäksi vaihtovuoden negatiivisin asia oli ehdottomasti asuminen. Meillä oli jokaisella omat huoneet, mutta yhteinen keittiö. Huoneet olivat melko pienet ja aika huonossa kunnossa. Minun huoneessani alkoi keväällä myös haista homeelta ja toukokuussa homeongelma oli jo niin paha, että yksi seinistä oli aivan homeen peitossa. Maksoimme vuokraa 1800 yuania kuukaudessa. Vuokra oli aivan liian korkea paikalliseen vuokratasoon ja huoneiden kuntoon nähden. Keväällä olisimme halunneet muuttaa kampuksen ulkopuolelle, mutta vuokrasopimuksen saaminen vain pariksi kuukaudeksi olisi ollut lähes mahdotonta. Suosittelen asunnon etsimistä kampuksen ulkopuolelta tai sitten tinkaamaan asuntoa halvemmaksi.</t>
   </si>
   <si>
+    <t xml:space="preserve">Syyskuun lopulla minulla alkoi terveys reistailla saasteiden takia. Vaikkei Nanjing ole mikään Peking, on sielläkin saastetilanne erittäin vakava ja haitallinen terveydelle. Minulla oli jatkuvaa päänsärkyä, huonovointisuutta ja pientä lämpöä lähes kaksi kuukautta putkeen. Kävin useaan kertaan lääkärissä, mutta oireet vain jatkuivat. Kuitenkin keväällä palattuani joululomalta, olin sairaana ainoastaan yhden viikon ja päänsärkyjäkin oli vähemmän. Kehoni selkeästi tottui saasteisiin. Lisäksi mahani oli alkuun usein kipeä. Tajusin lopulta pyytää, etteivät lisää ravintoloissa natrium glutamaattia tai tulisuutta ruokaan, ja se helpotti mahakipuja. Minä ja toinen suomalainen vaihto-oppilas olemme vegaaneja, eikä se tuottanut suurempia ongelmia kuin paljon ihmetystä kiinalaisten osalta. Piti vaan joka kerta ravintolassa muistaa pyytää, etteivät laita lihaa tai kananmunaa ruokaan. Useimmista ravintoloista löytyi useita vegaanisia vaihtoehtoja.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=409</t>
   </si>
   <si>
@@ -754,6 +967,9 @@
     <t xml:space="preserve">Hain asuntoa vaihto-opiskelijoille asuntoja järjestävän OeADin kautta varsin myöhään, kesäkuun puolivälissä. Olisi kannattanut hakea jo aiemmin keväällä! OeADille pitää maksaa 750e vakuusmaksu ja vasta kun se näkyy heidän tilillään, he alkavat etsiä asuntoa. Hain yhden hengen huonetta, mutta ne olivat jo täynnä. Asuntoloita on eripuolilla kaupunkia ja osassa on kahden hengen huoneita ja myös yhden hengen huoneita, joissa keittiö ja wc jaetaan 1-3 muun asukkaan kanssa. Katselin asuntoa myös yksityisiltä, esim. http://www.schwarzesbrett-oeh.at/wohnen/ -sivuston kautta opiskelijat voivat tarjota asuntoaan/huonettaan vuokralle.</t>
   </si>
   <si>
+    <t xml:space="preserve">Uniparkissa on Unikum-kahvila, josta saa lounasta ja myös pikkusyötävää. Erona Suomeen on se, että keittäjä laittaa valitsemasi annoksen valmiiksi lautasellesi. Ruokailu maksaa opiskelijakortilla 4,5e ja wokkiannokset 5,9e-7,9e. Jos hankkii ilmaisen Unikum mensa  –kortin, ruokailu maksaa 3,9e/kerta. Alkusyksystä pieni salaattiannos vielä kuului hintaan, mutta marraskuusta alkaen siitä piti maksaa erikseen. Kampusten lähellä on myös kebab-paikkoja, joista saa annoksia 3,5-4 eurolla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=302</t>
   </si>
   <si>
@@ -763,6 +979,9 @@
     <t xml:space="preserve">Lähes kaikki Bratislavan kauppakorkeakoulun vaihto-opiskelijat asuivat Ekonom-nimisessä dormitoryssa. Asuntola sijaitsee kaukana keskustasta, mutta itse yliopistoon matkaa oli vain vajaa kymmenen minuuttia bussilla. Vuokrataso oli jälleen edullinen, noin 70 euroa kuussa. Matalan vuokran kyljessä tulikin sitten myös negatiiviset asiat. Keittiössä ei ollut juurikaan ruoanlaittomahdollisuuksia, esimerkiksi uunia ei ollut lainkaan. Jääkaappi jaettiin useiden kymmenien ihmisten kanssa joka luonnollisesti tarkoitti sitä, että ruokaa ei voinut sinne jättää kovinkaan pitkäksi aikaa. Tästä huolimatta asuminen dormitoryssa oli hyvä ratkaisu, sillä juuri siellä tutustui useimpiin ihmisiin ja sai tietoa aktiviteeteista. Asuminen omassa huoneistossa voi pahimmassa tapauksessa eristää muista vaihto-opiskelijoista.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Bratislavaan junalla helmikuun alussa. Vastassa oli jälleen paikallinen tuutori, joka otti minuun yhteyttä noin kuukautta ennen vaihtoa. Hän auttoi minua lähes kaikessa missä vain satuin tarvitsemaan apua ja toimi tulkkina, koska esimerkiksi asuntolan henkilökunta ei puhunut ollenkaan englantia. Tämä buddy-järjestelmä on erittäin hyödyllinen, ja kehottaisinkin kaikkia vaihtoon lähtijöitä ottamaan itselleen tuutorin. Sen ansiosta alku on huomattavasti pehmeämpi ja saatat saada jopa elinikäisen ystävän.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plur.3</t>
   </si>
   <si>
@@ -775,6 +994,9 @@
     <t xml:space="preserve">Asuminen, tai siis lähinnä asunnon hankkiminen, oli varmaankin vaihdon hankalin juttu. Astonista tulleessa info-paketissa todettiin, että yliopistokampuksen asunnot on tarkoitettu vain EU-alueen ulkopuolisista maista tuleville tai koko vuoden yliopistolla viettäville opiskelijoille, joten etsin alusta asti asuntoa muualta kuin yliopiston kautta. Täytyy tosin sanoa että useampia vaihtarikavereita asui kyllä yliopiston asuntoloissa, joten kovin tiukkoja noiden sääntöjen kanssa ei siis varmaan olla. Kampusasuminen on kallista (muistaakseni n. 600e/kk), mutta toisaalta yliopiston palveluiden käyttö on siellä ollessa niin helppoa ja silloin asuu käytännössä kaupungin keskustassa, joten julkisilla kulkemiseen ei kulu rahaa ja yöllä on esimerkiksi paljon helpompi päästä keskustasta kotiin. Itse hankin oman asuntolahuoneeni yksityisestä asuntolasta (Hamstead Campus eli HamCam), joka oli 5-6 kilometriä keskustasta poispäin, joten bussilla kulkeminen oli kätevin vaihtoehto. Tähän väliin lisättäköön että paikallisbussilla kulkeminen on todella kallista Birminghamissa, yhdensuuntainen matka maksaa n. 3 euroa ja päivälippu n. 5 euroa, joten vaikka maksoin asumisestani sijainnin vuoksi paljon vähemmän (n. 400e/kk), loppujen lopuksi asumiskustannukset nousivat melko paljon bussilla kulkemisen takia. Muuten olin kyllä melko tyytyväinen asuntolaan, mukavaa henkilökuntaa, kohtuullisen siistit ja toimivat tilat ja kotoisan vehreä lähiympäristö. Huonoiksi puoliksi sijainnin lisäksi voidaan sanoa ehkä yhteiset wc- ja suihkutilat ja ajoittaiset äänekkäät bileet käytävillä. Koska olin hakuprosessin venymisen takia melko myöhässä asunnon etsimisen kanssa, asuntolasta oli tarjolla huoneita vasta helmikuun alusta eteenpäin, joten asuin siihen asti ensimmäiset kolme viikkoa suomalaisen kaverini kanssa hotellissa, joka tuli kyllä yllättävän halvaksi, joten aivan paniikissa ei tarvitse olla vaikka asuntoa ei saisikaan vielä heti saapumispäivästä eteenpäin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Astonissa ei ollut lukukauden alussa sen ihmeemmin tutorointia, ainakaan jos vertaa suomalaiseen käsitykseen tutoroinnista. Oman henkilökohtaisen tutorin olisi voinut saada, siihen tarjottiin mahdollisuutta sähköposti-infon kautta ennen lukukauden alkua, mutta itse jätin kyseisen mahdollisuuden käyttämättä, enkä itse asiassa tiedä ketään vaihtaria jolla olisi turor ollut, joten minun on mahdotonta arvioida toimiiko systeemi. Opiskelijaksi rekistöityminen oli ohjattua ja tehty helpoksi, ja ensimmäisellä viikolla tutustutettiin kyllä kampusalueeseen, kirjastoon, LSS:n toimistoon ja yleisiin toimintakäytäntöihin, sekä jossain määrin myös muihin vaihtareihin, mutta siihen se hyvin pitkälti jäikin. Astonin International Society järjesti parin ensimmäisen viikon aikana joitakin tapahtumia ja bileitä, mutta tämän jälkeen ajanvietteen keksiminen oli opiskelijoiden itsensä käsissä – Suomen kaltaista erittäin aktiivista ainejärjestötoimintaa ei ole oikeastaan ollenkaan. Retkiä muihin kaupunkeihin ja eri nähtävyyksiin järjestettiin esimerkiksi VisitUK:n ja yhden vaihtarijärjestön kautta, mutta itse en näille retkille ihmeemmin osallistunut, lähinnä siksi että aikataulut eivät sopineet yhteen. Näiden retkien laadustakin oltiin montaa mieltä niiden keskuudessa jotka niille osallistuivat, mutta kannattaa toki kokeilla jos ne omaan makuun sopivat – yksi parhaita asioita vaihto-opiskelijana olemisessahan on myös uusiin paikkoihin tutustuminen, jota itse olisin toivonut pääseväni tekemään vieläkin enemmän.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=107</t>
   </si>
   <si>
@@ -784,6 +1006,9 @@
     <t xml:space="preserve">Asuin aluksi halvassa hotellissa yliopiston lähellä. Asunnon etsiminen osoittautui avusta huolimatta hieman vaikeammaksi urakaksi kuin olin kuvitellut. Olisin halunnut asumaan jonkun brasilialaisen kanssa, mutta en löytänyt mieleistä ilmoitusta, joten aloimme sitten etsiä kämppää yhdessä italialaisen vaihtarin kanssa. Etsimme asuntoa tietynlaiselta alueelta ja halusin siltä melko hyvät ominaisuudet, minkä takia suurimman osan asuntoilmoituksista sivuutin heti. Asuminen yliopiston lähellä esimerkiksi Várzean kaupunginosassa saattaa olla kätevää, mutta alueen rajallisten palveluiden takia suosittelen asumaan lähempänä Boa Vistaa tai Boa Viagemia (Boa Viagemilta tosin on melko pitkä matka yliopistolle). Itse asuin Torren kaupunginosassa ja olin hyvin tyytyväinen valintaani. Recifessä asuntoja saattaa löytää helposti erilaisten Facebook-ryhmien kautta. On myös joitakin nettisivuja, joilta löytyy ilmoituksia. Tarvittaessa kannattaa kysyä asunnon etsimiseen apua esimerkiksi omalta tutorilta tai opintotukitoimistosta. Kaiken kaikkiaan Brasilian vuokrataso on edullinen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vielä Suomessa ollessani minuun otti sähköpostilla yhteyttä paikallinen tutor, joka tarjosi hyviä vinkkejä ja paljon apua järjestelyissä. Hän tuli myös minua vastaan lentokentälle Recifessä sekä auttoi alkuajan sähellyksessä paljon niin kännykkäliittymän kuin asunnonkin kanssa. Vaihtotukitoimistosta otettiin myös yhteyttä ennen opintojen alkua. He järjestivät uusille vaihtareille orientaatioviikon, johon kuului avausinfo, Recifen kaupungin museoihin tutustuminen sekä retki maaseudulle pariin muuhun museoon. Suosittelen olemaan aktiivisesti mukana näissä alun tapahtumissa. Niissä pääsee viettämään aikaa muiden vaihtareiden ja heidän tutoreiden kanssa ja tutustumaan paikallisten opastuksella kulttuuriin. Itse sain hyviä kavereita näillä retkillä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=82</t>
   </si>
   <si>
@@ -793,6 +1018,9 @@
     <t xml:space="preserve">Asuin yliopiston asuntolassa, kuten lähes kaikki muutkin vaihtarit. Asunto oli järjestetty minulle etukäteen, joten minun ei tarvinnut kuin ilmestyä paikalle ja kertoa, kuka olen. Vuokra oli halpa, muistaakseni noin 90 euroa kuussa. Asunnossamme asui kuusi tyttöä, ja jokaisella oli huonekaveri. Kannattaa siis varautua siihen, että suomalaisille tuttu yksityisyys voi olla vaihtomaassa hiukan koetuksella.</t>
   </si>
   <si>
+    <t xml:space="preserve">Eniten hyötyä oli kuitenkin muista vaihto-opiskelijoista ja kv-politiikan laitoksen koordinaattorista. Venäjällä asiat selviävät yleensä kysymällä kasvotusten. Sähköpostin lähettelyyn ei kannata tuhlata aikaa, sillä paikan päällä asiat selviävät parhaiten.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=829</t>
   </si>
   <si>
@@ -802,6 +1030,9 @@
     <t xml:space="preserve">Asuin omassa asunnossa asuntolan sijaan, koska menin vaihtoon vaimoni kanssa. Asuntoloissa asuessaan toki tapaa reippaasti enemmän kanssa opiskelijoita, mutta jos kaipaa enemmän omaa rauhaa tai hiljaisuutta suosittelen tarkastamaan yksityiset asuntovaihtoehdot. Omassa tapauksessani kahden ihmisen asumistuilla (420€) löytyi erinomainen valmiiksi sisustettu asunto kohtuullisen matkan päässä keskustasta (10 minuuttia ratikalla). Yhdenkin ihmisen tuilla löytynee mukava huone jaetusta kämpästä. Asuntoja ilman välittäjää voi katsella sivustolta bezrealitky. Ilman välittäjää tosin voi olla hankalaa kommunikoida sillä suuri osa vuokranantajista puhuu englantia huonosti tai ei lainkaan. Välittäjän käyttäminen maksaa yleensä n. 1kk vuokran verran. Hinta saattaa kuulostaa kovalta, mutta toisaalta asiointi sujuu hyvin englanniksi ja asunnosta saa kyseltyä tarpeelliset tiedot helposti. Esimerkiksi city real estate tarjoaa myös apua koko asumisen ajaksi niin asuntoon liittyvissä ongelmissa kuin muissakin asioissa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaryk yliopisto tarjoaa myös kahdeksan opintopisteen Tsekin kursseja (4 op keskustelu/sanasto ja 4 op kielioppi), joita lämpimästi suosittelen. Tentit näille kursseille ovat kuitenkin haastavia, joten niihin kannattaa ehdottomasti lukea hyvin. Nämä kielikurssit ovat maksullisia (2200 czk eli reilu 80€), ellet opiskele Tsekin kieltä tai jos kurssi on pakollinen opinnoissasi. Tsekin kurssikirjan joutuu ostamaan itse, mutta hinnasta en osaa sanoa, koska itselläni oli jo kyseinen kirja. Muiden kurssien materiaalit löytyvät kirjastosta tai yliopiston sähköisestä järjestelmästä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=754</t>
   </si>
   <si>
@@ -811,12 +1042,18 @@
     <t xml:space="preserve">Asuimme kaikki kuusi Avantgarde-opiskelija-asuntolassa noin 10-15min pyörämatkan päässä yliopistolta. Meillä oli omat huoneet ja jaoimme keittiön n. 20 muun kerroksessa asuvan henkilön kanssa. Asuntolassa tapasimme paljon eri puolilta maailmaa olevia opiskelijoita ja vaikka eriävät siisteyskäsitykset harmittivat aika ajoin, olin iloinen, että olimme valinneet tämän paikan, sillä tunnelma oli rento. Hinta oli 350e/kk sisältäen veden, sähkön ja netin. Luksusta ei tarjolla ollut, mutta kolmen kuukauden asumiseen lyhyellä varoitusajalla paikka oli mielestäni sopiva. Opin joustavuutta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuntojärjestelyt</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=24</t>
   </si>
   <si>
     <t xml:space="preserve">Asuin omassa asunnossa asuntolan sijaan, koska menin vaihtoon vaimoni kanssa. Asuntoloissa asuessaan toki tapaa reippaasti enemmän kanssa opiskelijoita, mutta jos kaipaa enemmän omaa rauhaa ja hiljaisuutta suosittelen tarkastamaan yksityiset asuntovaihtoehdot. Omassa tapauksessani kahden ihmisen asumistuilla (420€) ja muutamalla kympin omalla panostuksella löytyi erinomainen valmiiksi sisustettu asunto Spilberkin linnan alta 5 minuutin kävelymatkan päässä keskustasta. Yhdenkin ihmisen tuilla löytynee esim. mukava huone jaetusta kämpästä keskusta. Asuntoja ilman välittäjää voi katsella sivustolta bezrealitky (bezrealitky.cz). Sivusto on tšekin kielinen, mutta esimerkiksi Google translaten avulla sen käyttäminen onnistuu mukavasti. Ilman välittäjää tosin voi olla hankalaa kommunikoida sillä suuri osa vuokranantajista puhuu englantia huonosti tai ei lainkaan. Lisäksi kannattaa olla varuillaan sivulla tarjottujen asuntojen suhteen sillä liikkeellä on jonkin verran huijauksiakin. Huijaukset paljastuu usein helposti tekemällä googlehaun (reverse image search) asunnonkuvilla. Huijarit saattavat myös pyytää maksamaan etukäteen jonkin summan ennen kuin asuntoa pääsee edes näkemään. Näiden seikkojen vuoksi suosittelenkin välittäjän käyttämistä. Välittäjän käyttäminen maksaa yleensä n. 1kk vuokran verran. Hinta saattaa kuulostaa kovalta, mutta toisaalta asiointi sujuu hyvin englanniksi ja asunnosta saa kyseltyä tarpeelliset tiedot helposti. Esimerkiksi city real estate tarjoaa myös apua koko asumisen ajaksi niin asuntoon liittyvissä ongelmissa kuin muissakin asioissa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaryk-yliopisto tarjoaa myös kahdeksan opintopisteen tšekin kielen kursseja (4 op keskustelu/sanasto ja 4 op kielioppi), joita lämpimästi suosittelen, mikäli tahtoo tšekin kieltä opiskella. Osallistuin kurssille edellisellä vaihtokerralla ja olin kovin tyytyväinen kurssiin. Opetus on keskustelupainotteista. Tentit näille kursseille ovat kuitenkin haastavia, joten niihin kannattaa ehdottomasti lukea hyvin ja toki osallistua aktiivisesti kurssin aikana. Nämä kielikurssit ovat maksullisia (viime vuonna hinta oli 2200 czk eli reilu 80€), ellet opiskele tšekin kieltä tai jos kurssi on pakollinen opinnoissasi. Tämän lisäksi kurssikirjan joutuu ostamaan itse, mutta sen hinnasta en osaa sanoa, koska itselläni oli jo kyseinen kirja. Muiden kurssien materiaalit löytyvät kirjastosta tai yliopiston sähköisestä järjestelmästä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=752</t>
   </si>
   <si>
@@ -826,6 +1063,9 @@
     <t xml:space="preserve">Asuimme kaupungin laidalla vaihtaritalossa nimeltä Avant Garde, jossa asui pari sataa vaihtaria ympäri maailmaa. Rakennus itsessään odotteli purkutuomiota, vaikka lähes viikottain rakennuksessa maalailtiin seiniä tai ovia tai jotain muuta. Tämä tuntui toisaalta olevan vain paikan pahimpien puolten piilottelua. Huoneet olivat kuitenkin siedettävät omine vessoineen ja suihkuineen ja lisäksi paikan muihin vaihtareihin oli helppo tutustua ja kavereita sai nopeasti. Vuokra oli 350 euroa, joka ei ole erityisen halpa ainakaan paikallisten mukaan. Keskustan läheltäkin voisi saada samaan hintaan huoneen, mutta ongelma meidän kohdallamme oli vain kolmen kuukauden vaihtoaika.</t>
   </si>
   <si>
+    <t xml:space="preserve">Jaksot, joille osallistuimme olivat Thinking and Doing II sekä Infectious Diseases/Tumor Microenvironment Principles and Personalized Medicine. Ensimmäinen jakso piti sisällään hieman erikoisen yhdistelmän selän ja olkapään anatomiaa ja patofysiologiaa sekä keskushermoston anatomiaa ja yleisimpiä psykiatrisia sairauksia, kuten dementia ja masennus. Tämä jakso oli yhdeksän viikkoa ja työtaakaltaan leppoinen. Toinen jakso (minulla Infectious Diseases) olikin työläämpi, joskin lyhyt, vain neljä viikkoa. Jakson aikana opeteltiin syvällisesti kourallinen yleisimpiä infektiotauteja etiologineen+hoitoineen sekä pinnallisesti iso läjä muita hieman harvinaisempia tauteja. Lisäksi tentissä piti hallita antibiootit sekä sieni- ja viruslääkkeet. Jakson aikana kaikki opetus oli pakollista ja hommia sai todellakin tehdä varsinkin, jos ei ollut aiempaa tietämystä antibiooteista. Lisäksi jaksolla pidettiin pareittain 15 minuutin esitys jostakin taudista/taudinaiheuttajasta noin 40 hengelle. Molempien jaksojen tentti oli monivalintatentti, jossa läpipääsyyn riitti 60 % maksimipistemäärästä. Opiskelimme koko reissun ajan vain sähköisistä lähteistä, mikä riitti vallan hyvin kun latasi muutaman perusopuksen läppärille.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=31</t>
   </si>
   <si>
@@ -844,6 +1084,9 @@
     <t xml:space="preserve">Asuin yliopiston legendaarisen päärakennuksen V-siivessä, kansainvälisille opiskelijoille tarkoitetussa asuntolassa. Asuntola oli maksuton, mikä auttoi vaihdon raha-asioiden järjestelyssä paljon. Nettiyhteys asuntolassa toimi vaihtelevasti, ja yhteyden nopeudesta riippuen sen hinta oli parista eurosta noin kymmeneen euroon. Vaikka asuntolan kunto ja siisteys olivat suomalaisiin standardeihin verrattuna vaatimattomat, asuminen oli kuitenkin loppujen lopuksi ihan mukavaa. Minulla oli oma huone, johon kuului seinänaapurin kanssa yhteinen kylpyhuone sekä useamman naapurin kanssa yhteinen kerroskeittiö. Keittiössä laitoin kuitenkin vain satunnaisesti ruokaa, sillä alakerran ruokalaista sai ympäri vuorokauden kokonaisia aterioita aika edullisesti. Vaikka asuinrakennuksesta löytyi monenlaisia käteviä palveluita kuten elintarvikekioskeja, kampaaja ja kirjakauppa, oli isompien ostosten tekeminen edullisempaa parin kilometrin päässä sijaitsevassa marketissa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Moskovaan saapuessani minua oli rautatieasemalla vastassa tuutori, joka saattoi minut asuntolalle ja auttoi ensimmäisenä päivänä yliopiston rekisteröinneissä, sekä opiskelijakortin ja puhelimen sim-kortin hankinnassa. Muuten varsinaista tuutoritoimintaa ei ollut, vaan historian tiedekunnan kansainvälisten asioiden vastaava ja koko yliopiston vaihdoista vastaava henkilö auttoivat byrokratian kanssa. Kansainvälisille opiskelijoille järjesti toimintaa Msu International Student Club, jonka illanvietoissa, tapahtumissa ja retkillä sai tavata muita vaihto-opiskelijoita. Ehkäpä jo ennen vaihtoa kannattaa liittyä kerhon Facebook-ryhmään koska se on ainut kanava, jota pitkin he tiedottavat tapahtumistaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=812</t>
   </si>
   <si>
@@ -853,6 +1096,9 @@
     <t xml:space="preserve">Asuminen: Vuokrasin huoneen yliopiston omista asuntoloista. Jokaisella oli oma vessa ja suihku, mutta keittiö oli yhteinen. Huone oli kooltaan 15 neliömetriä, vuokra 407 euroa kuussa (siihen sisältyi vesi ja sähkö). Tykkäsin kyseisestä asumismuodosta paljon, sain parhaimmat ystävät juuri sen kautta. Asuntolat ovat suunnattuja vaihto-opiskelijoille ja oman kerroksen ja muidenkin rakennusten ihmisistä saa oikeasti todella hyviä kavereita ympäri maailmaa, etenkin kun keittiö on yhteinen ja siellä tulee hengailtua monet illat. Asuntolat ovat myös hyvällä sijainnilla, viiden minuutin kävelymatkan päässä mm. leffateatterista, ruokakaupasta ja salista, pyörällä pääsee reilussa kymmenessä minuutissa keskustaan. Ainoa haittapuoli (mutta toisaalta myös ihan positiivinen juttu) on se, että asuntolat sijaitsevat todella lähellä myös katua, joka on täynnä baareja ja muita illanviettopaikkoja, ja viikonloppuisin ihmisten pitämä melu voi tuntua häiritsevältä (mutta ei suinkaan ylitsepääsemättömältä ja itse olen aika herkkä metelille, korvatulpat pelastavat pahimmilta kerroilta!) Suosittelen siis ehdottomasti asumista yliopiston asuntoloissa, kannattaa varmistaa paikka nopeasti, sillä kysyntä on suuri.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaahan saapuminen: Kohdeyliopisto oli järjestänyt tutortoimintaa ulkomaalaisille opiskelijoille, mutta vain opiskelijan sitä halutessa. Ennen lähtöä pitää siis yhdessä kohdeyliopiston lomakkeissa ilmoittaa, että haluaa tutorin (sitä kysytään erikseen). Itse sain tosi kivan tutorin, joka auttoi todella mielellään ja josta oli ihan oikeasti hyötyä monessa jutussa. Tutorit ovat myös hyviä potentiaalisia kavereita, joiden kanssa voi viettää aikaa ja tutustua muihin paikallisiin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=71</t>
   </si>
   <si>
@@ -862,6 +1108,9 @@
     <t xml:space="preserve">Vaihtoni aikana asuin Grandmontin asuntolassa. Asuntolasta jäi erittäin positiivinen kokemus, suosittelen! 9 neliön huoneeseeni mahtui sängyn ja kirjoituspöydän lisäksi oma jääkaappi, oma suihku ja oma vessa. Nuo vähäiset neliöt oli erinomaisesti järjestetty, ja kaappitilaakin oli enemmän kuin tarvitsin. Ainoastaan keittiö jaettiin 11 asunnon kesken. Ranskalaiset kämppikseni tykkäsivät laittaa ruokaa, mutteivät olleet kovin siistejä. Kuulemma samaa ongelmaa ei ollut kaikilla käytävillä... Hinta–laatu-suhde oli siis oikein hyvä: vajaan 250 € vuokraan kuuluivat myös sähkö, vesi ja internet sekä 24/7 päivystys A-rakennuksessa (mm. ilmainen ovenavauspalvelu: kerran onnistuin jättämään avaimeni huoneeseeni kokkaillessani keittiössä, kun tuulenpuuska paiskasi raollaan olleen oveni kiinni).</t>
   </si>
   <si>
+    <t xml:space="preserve">Olin illalla perillä Toursissa ja vietin ensimmäisen yöni hotellissa aseman vieressä. Seuraavana aamuna tutorini tuli hakemaan minut hotellilta, ja kävimme yhdessä hankkimassa minulle kotivakuutuksen, hoitamassa paperiasiat kuntoon asuntolalla sekä supermarketissa ostamassa ruokaa ja esimerkiksi sänkyvaatteet. Seuraavina päivinä tutorini auttoi myös avaamaan pankkitilin sekä puhelinliittymän. Olen tyytyväinen tutorien apuun erityisesti ensimmäisinä viikkoina. Meitä vaihtareita oli auttamassa neljä tutoria, ja he pystyivät auttaman meitä myös englanniksi (mikä ei ollut ollenkaan itsestäänselvyys). Tosin olisin toivonut, että he olisivat järjestäneet meille jotain ohjelmaa tai olleet enemmän mukana elämässämme tammikuun jälkeenkin, mutta verrattuna monen muun suomalaisen kaverini vaihtokokemukseen Ranskassa tajuan, että minulla tutortoiminta on ollut oikein hyvää. Pääsin esimerkiksi tutorini luokse näkemään kunnon ranskalaiset bileet, jossa punaviini virtasi ja miehet lauloivat jo iltayhdeltätoista samalla tavalla kuin suomalaismiehet aamuneljältä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=557</t>
   </si>
   <si>
@@ -880,6 +1129,9 @@
     <t xml:space="preserve">Asuin kymmenen neliömetrin asunnossa, jossa oli oma vessa. Keittiö oli kuitenkin jaettava viiden muun henkilön kesken. Asunnon suurin etu oli se, että se sijaitsi aivan yliopiston vieressä. Kuitenkin esimerkiksi keittiön siisteystasossa oli parantamisen varaa. Voisin sanoa, että asunto palveli hyvin yhden lukukauden ajan, sillä vuokra oli myös kohtuullinen. Suosittelen soluasumista jokaiselle vaihtoon lähtevälle, sillä silloin asunnot sijaitsevat yleensä yliopiston lähellä ja tapahtumista pysyy hyvin perillä, kun vieressä asuu sekä paikallisia opiskelijoita että muita vaihtareita.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saksalainen ”buddy” otti minuun yhteyttä kuukausi pari ennen Saksaan saapumista, jolloin sain jo etukäteistietoa kaupungista ja yliopistosta. Buddyni oli hakenut asuntoni avaimen jo valmiiksi, joten muuttaminen helpottui huomattavasti. Lisäksi kiersimme yliopiston kampuksen ympäri ensimmäisenä päivänä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=688</t>
   </si>
   <si>
@@ -889,6 +1141,9 @@
     <t xml:space="preserve">Asuntolakseni määräytyi JC, eli kampuksen perimmäisessä nurkassa oleva 7-10 hengen asunnoista koostuvat rakennus. Jaoin kämppäni ja sähkölaskuni siis yhdeksän muun naisopiskelijan kanssa. Huoneessanikin oli toinen tyttö, jonka kanssa elo sujui suhteellisen vaivattomasti melko erilaisista vuorokausirytmeistä ja kielimuurista huolimatta. Asuminen oli todella edullista verrattuna Suomen hintatasoon, vaikka yksityisyydestä joutuikin tinkimään. Vaikka ensin ajatus yhdeksästä kämppäkaverista kauhistutti, loppupeleissä ratkaisu oli kuitenkin enemmän positiivinen kuin negatiivinen. Paikallisiin pääsi tutustumaan eri tavalla kuin muissa asuntoloissa olleiden kahden hengen huoneiden kautta, yhteisistä pelisäännöistä (mm. siivousvuoroista) onnistuttiin pitämään melko hyvin kiinni ja lähes aina oli seuraa, jos sitä tarvitsi. Sain muutamasta kämppiksestäni todella hyviä ystäviä, ja olemmekin nähneet myös vaihtovuoteni jälkeen, vaikka asummekin eri maissa. Asunnon plussaksi täytyy sanoa myös iso parveke ja keittiö, sekä pyykinpesumahdollisuudet. Miinusta taas tulee todella kylmästä ilmasta talvisin, sillä lämmitystä ei ole erillistä patteria lukuun ottamatta, ja yksinkertaiset ikkunat pitävät huolta siitä, ettei sisälämpötila pääse nousemaan ulkoilman lämpötilaa korkeammaksi. Nukuinkin kylmimpinä kuukausina kuumavesipullo peiton alla.</t>
   </si>
   <si>
+    <t xml:space="preserve">Osallistuin myös host family-toimintaan, ja parin muun suomalaisopiskelijan kanssa pääsimme näkemään kaupunkia ja kulttuuria myös ”oman” perheemme kanssa. Jos joku paikallinen opiskelija kutsuu vierailulle kotiinsa, kannattaa ottaa kutsu vastaan: hongkongilaisen perheen asuminen poikkeaa omastamme jo tilanpuutteen vuoksi! Vierailuja, tuutoreita yms. varten kannattaa ottaa Suomesta mukaan jotain pieniä tuliaisia.</t>
+  </si>
+  <si>
     <t xml:space="preserve">nmod</t>
   </si>
   <si>
@@ -904,6 +1159,9 @@
     <t xml:space="preserve">Jos asunnonhausta haluaa päästä helpolla, voi asuntoa hakea Studentenwerk Potsdamin kautta. Itse harkitsin myös muuttoa Berliiniin, mutta päädyin lopulta lähettämään asuntohakemuksen Studentenwerkille. Asunnon sai melko nopeasti hakuajan päätyttyä. Asuntotoimistolla pyritään myös ottamaan huomioon millä yliopiston kolmesta kampuksesta opiskelet, jotta asunto olisi mahdollisimman lähellä kyseistä kampusta. Kauppa- ja hallintotieteet sijaitsevat Babelsbergin eli toisin sanoen Griebnitzseen kampuksella aivan Berliinin länsirajalla. Itse sainkin asuntoni aivan kampuksen läheltä Park Babelsbergistä. Jos aikoo kuitenkin tehdä pääasiassa saksan kielen kursseja, kannattaa asuntoa katsella Neues Palaisin pääkampuksen läheltä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saksassa ei järjestetä EILC-kielikursseja, mutta osallistuin Potsdamin yliopiston järjestämälle vapaaehtoiselle kahden viikon orientoivalle kieli- ja kulttuurikurssille, jonka nimi oli Deutsch(land)kurs willkommen. Kurssi on maksullinen ja se järjestetään ennen varsinaisten kurssien alkua. Kielikurssi ei itsessään ollut kummoinen, mutta kurssilla pääsi kuitenkin tutustumaan muihin vaihtareihin ja hoitamaan kaikki käytännön järjestelyt valmiiksi ennen varsinaisten kurssien alkamista.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto#haku</t>
   </si>
   <si>
@@ -916,6 +1174,9 @@
     <t xml:space="preserve">Olisin saanut paikalliselta opiskelija-asuntosäätiöltä asunnon, mutta sain siitä tiedon niin myöhään, että olin jo ehtinyt hankkia huoneen kimppakämpästä yksityisiltä vuokramarkkinoilta. Löysin kimppakämpän Facebook-ryhmän kautta selailemalla useita eri asuntoilmoituksia. Asuin kahden ranskalaisen kanssa. Loppujen lopuksi asunto oli helppo löytää, mutta en vuokraisi enää asuntoa näkemättä sitä etukäteen. Asunto oli nimittäin homeessa, mikä on Keski-Euroopassa hyvin yleistä. Asuin siinä kuukauden ja hankin sitten uuden asunnon, jälleen yksityisiltä markkinoilta. Uusi asuntonikin oli kimppakämppä ranskalaisten kanssa. Toisen asunnon hankkiminen oli helpompaa, kun olin jo paikan päällä. Kimppakämpässä asuminen sujui hyvin, ja oli mukavaa päästä puhumaan ranskaa kotonakin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopistossa oli kansainvälisten opiskelijoiden järjestö, joka järjesti ohjelmaa vaihto-oppilaille. Ensimmäisellä viikolla ohjelmaa oli järjestettynä lähes jokaiselle päivälle, mikä auttoi muihin vaihtareihin tutustumisessa. Järjestön aktiivit olivat ranskalaisia opiskelijoita, joten heiltä saattoi myös kysyä neuvoa käytännön asioissa. Noin kuukausi saapumisen jälkeen oli myös mahdollista saada oma ranskalainen tutor. Tutor-toiminnan ideana oli enemmänkin kielivaihto, mutta tietysti ranskalaiselta opiskelijalta saattoi myös pyytää apua. Lisäksi yliopistolla järjestettiin opintopiirejä, joissa ranskalaiset opiskelijat auttoivat vaihtareita, mutta en ollut niissä itse mukana. Apua oli siis saatavilla, mutta ei aivan alkuvaiheessa. Asuntoon täytyi osata itse, ja pankkitili- ja puhelinliittymäasiat täytyi hoitaa itse ilman apua. Muista vaihtareista oli kuitenkin seuraa ja apua näiden askareiden selvittämisessä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">opiskelija-asunto#säätiö</t>
   </si>
   <si>
@@ -928,6 +1189,9 @@
     <t xml:space="preserve">Yksi Namurin vahvuuksia vaihtokohteena on ehdottomasti se, että lähes poikkeuksetta Erasmus-opiskelijoille järjestetään huone paikallisista opiskelija-asunnoista, joista Belgialaiset käyttävät nimitystä ”kot”. Kot’eja sijaitsee ympäri Namuria, mutta suurin osa niistä on yliopiston välittömässä läheisyydessä. Koko asuntosysteemin nimi on ’Kot á Projet’ ja siihen kuuluu 7-10 hengen kimppakämppiä, joissa jokaisella on oma huone mutta wc, suihku ja keittiö ovat yhteiset. Nimitys juontaa siitä, että jokaisella kot’lla on oma ”projekti” tai tehtävä ja sen mukainen nimi. Oma kot’ni esimerkiksi oli Eurokot ja sen jäsenten vastuulla oli juurikin Erasmus-opiskelijoista huolehtiminen. Asunnon saamisesta Namurissa ei siis tarvitse murehtia! Yhteisessä keittiössä on käytettävissä kaikki perustarvikkeet ja astiat. Huone, josta löytyy sänky, kirjahylly, työpöytä sekä lavuaari ja pieni peili maksaa opiskelijaystävälliseti noin 250-260 euroa kuukaudessa ja sisältää Internet-yhteyden. Oma kaapeli kannattaa ottaa mukaan! Suomalaista terveysviranomaista saattaisi ainakin Eurokotin suihkutilan tai keittiön kunto hirvittää, mutta belgialaiset eivät ole siisteyden (tai kosteusvaurioiden) suhteen turhan tarkkoja.. Itse suhteellisen siistinä ihmisenä jaksoin kauhistella asiaa aikani, mutta tilanteeseen tottui tai ainakin sitä oppi sietämään. Kannattaa keskittyä positiivisiin puoliin! Muutoin elinkustannukset, ruoka ym. ovat samaa hintatasoa kuin Suomessa. Yksi kuluerä on pyykkien peseminen, jonka joutuu tekemään itsepalvelupesuloissa. Vain olut on halpaa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ensimmäiset päivät olivat luonnollisesti hieman sekavia. Suurin osa yliopiston ja asuntolan työntekijöistä oli vielä lomalla, sillä lukukausi alkoi vasta helmikuun alussa. Paikalla olevat puolestaan antoivat välillä ristiriitaista informaatiota liittyen esim. asunnon Internet-yhteyden avaamiseen tai takuuvuokran maksamiseen. Pieni kielimuuri hidasti kommunikointia ajoittain.</t>
+  </si>
+  <si>
     <t xml:space="preserve">opiskelija-asunto</t>
   </si>
   <si>
@@ -943,6 +1207,9 @@
     <t xml:space="preserve">Minulla kävi hyvä tuuri asumisen kanssa, sillä minua odotti asunto valmiina Sevillassa. Löysin muutaman tytön, jotka olivat olleet Sevillassa jo ensimmäisen lukukauden ja he etsivät uutta kämppistä. Kannattaa siis liittyä Facebookin Erasmus Sevilla ryhmiin jo hyvissä ajoin ja seurata ilmoituksia. Vuokrataso on Sevillassa erittäin edullinen. Vertailun vuoksi, asuin itse neljän makuuhuoneen tilavassa asunnossa hyvällä sijainnilla lähellä metroa ja vuokramme oli 225e per asukas. Toki kannattaa ottaa huomioon, että sähkö ja kaasu ovat todella kalliita Espanjassa ja niihin saattoikin mennä n. 40e kuussa. Toinen hyvä tapa löytää asunto on vierailla Roommates Sevilla organisaation toimistossa ja hakea asuntoa sieltä. Usein asunnon saa jo samana päivänä. Toinen organisaatio on Roomsevilla, jolla on myös paljon asuntoja tarjolla, mutta monilla on ollut ongelmia saada takuuvuokra takaisin, joten suosittelen hankkimaan asunnon jotakin muuta kautta. Kaupungissa on todella paljon tyhjillään olevia asuntoja, joista ilmoitetaan parvekkeilla olevin kyltein. Jos kielitaitosi on tarpeeksi hyvä, voit soitella suoraan ilmoituksissa oleviin numeroihin ja kysellä näyttöä. Kaikilla kavereillani onnistui asunnon saanti kuitenkin erittäin hyvin, joten siitä ei kannata stressata.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Sevillaan junalla Malagasta, jonne lensin Norwegianin lennolla. Sevillan päädyssä olin täysin omalla vastuullani, sillä koulussa ei ole tutortoimintaa. Ensimmäisenä orientaatiopäivänä kiersimme ryhmässä muutaman paikallisen oppilaan kanssa kampuksella ja saimme kysellä asioita, mutta maan ollessa Espanja ei mikään ole täysin päivänselvää tai yksinkertaista. Paras asenne vaihtoon lähdössä on se, ettei stressaa liikaa ja luottaa siihen, että kyllä kaikki asiat selviävät ennemmin tai myöhemmin. Alkuun kannattaa sopia vaikkapa Facebookin kautta tapaamisia muiden uusien opiskelijoiden kanssa, niin ei tule yksinäinen olo!</t>
+  </si>
+  <si>
     <t xml:space="preserve">käydä</t>
   </si>
   <si>
@@ -955,6 +1222,9 @@
     <t xml:space="preserve">Monet Dameissa olevat vaihtarit varmasti kertovat asumiskokemuksistaan Uilenstede:n kampuksella, mutta minä vuorostani asuin vaihto kevääni The Student Hotellissa, ja voin suositella tätä paikkaa todella lämpimästi (lisä infoa siitä haluaville; http://www.thestudenthotel.com/amsterdam). Paikka sijaitsee lähellä keskustaa, huoneet ovat uusia, siistejä ja kaikilla mukavuuksilla varustettu, ainoastaan keittiö jaetaan samalla käytävällä asuvien kanssa. Lisäksi saat käyttöösi oman pyörän, ja ”hotelissa” on myös oma baari/ravintola, kirjasto ja kuntosali sekä iso ”olohuone” mistä löytyy biljardipöydät ym. ja nämä ovat kaikki asukkaiden vapaassa käytössä. The Student Hotellilla on todella rento meininki, paljon nuoria, aina vaihtareista paikallisiin opiskelijoihin, sekä paljon internshippiä tekeviä. Mahtava mahdollisuus siis tutustua muihinkin kun omiin koulu/vaihtari tyyppeihin. :) Vaikka vuokra hinta onkin melko suolainen kyseisessä paikassa, koin itse saavani rahalleni paljon vastinetta. Asuminen siellä oli todella helppoa ja vaivatonta. Verraten siihen mitä näin, kuulin ja itse koin, niin asunnot yliopiston kautta eivät myöskään ole mitään super edullisia ja niiden kuntokin nyt oli mitä oli, lisäksi itselleni jäi todella huono ja epämiellyttävä kuva DUWO:sta, tämä organisaatio vastaa yliopiston kautta hankituista asuntojärjestelyistä. Asiat eivät toimineet mitenkään helpolla ja tuntui, että kaikesta yritettiin vetää rahaa välistä. Itse asuin nimittäin ensimmäisen kuukauteni DUWON tarjoamassa asunnossa, joka oli täynnä hometta, pölyä, käytännössä mikään asunnossa ei toiminut mm. kaasulämmitys oli pahasti rikki ja sieltä vuosi kaasua huoneistoon… Monen väännön jälkeen, sain irtisanottua tämän DUWON kautta saaman asunnon ja muutin The Student Hotelliin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mikä tässä upeassa kanaalikaupungissa erityisesti minuun upposi oli se, että Amsterdam oli riittävän suuri asukasmäärältään, mutta kuitenkin kaupunki itsessään on kooltaan kompakti. Tässä pyörienpääkaupungissa pyörällä – jonka hankkimista muuten suosittelen jokaiselle tähän kaupunkiin tulijalle  – pääsee nopeasti ja kätevästi vaikka toiselle puolelle kaupunkia. Varsinkin keväällä Amsterdam on eloisa ja melkeinpä uskallan luvata, että joka viikonlopulle riittää moneen makuun tekemistä ja ohjelmaa tässä multikulttuurikeitaassa. Itse ihastuin Amsterdamin monipuolisuuteen ja damilaisten rentoon elämäntyyliin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asua#kokemus</t>
   </si>
   <si>
@@ -970,6 +1240,9 @@
     <t xml:space="preserve">Olimme jo Suomessa päättäneet olevamme hieman liian mukavuudenhaluisia ja suoraan sanottuna vanhoja jenkkien opiskelija-asuntoloihin. Riippuu tietenkin mitä lähtee vaihtokokemukseltaan hakemaan, mutta ajatus 19-vuotiaista, juuri äidin helmoista poismuuttaneista ja omia siipiään kokeilevista kämppiksistä, ei kumpaakaan meistä houkuttanut, joten päätimme etsiä asunnon vapailta markkinoilta. Kampusalueelta ja aivan sen lähimaastosta löytyy lukemattomia erilaisia asumisvaihtoehtoja, mutta omasta jakamattomasta huoneesta ja etenkin omasta kylpyhuoneesta, saa kustantaa pitkälti yli 1000 dollaria kuussa. Me valitsimme asuinalueeksi vielä muutama vuosi sitten aika huonomaineisen, mutta nykyään jo opiskelijoiden suosiossa olevan East River Siden, jossa vuokrat ovat halvempia, ja josta yliopiston bussit kulkevat suoraan kampusalueelle nopeimmillaan vartissa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sanonta ”Amerikassa kaikki on suurempaa” pitää paikkaansa. Lisäksi Texas haluaa tehdä kaiken vielä pikkuisen suuremmin. Kongressitalosta ja autojen ”Texas-edition” mallistoista lähtien, kaikki on isoa. Välimatkat, kampusalue, lämpötilat, ruoka-annokset ja loputtomat santsilimsat ottavat aikansa ennen kuin tuntuvat tutuilta ja kotoisilta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">opiskelija-asuntola</t>
   </si>
   <si>
@@ -982,6 +1255,12 @@
     <t xml:space="preserve">Mielestäni asuntolassa asuminen oli ihan viihtyisää. Jokaisella on oma huone, jossa on erillinen pieni suihkuhuone ja vessa. Huoneesta löytyi myös jääkaappi ja ilmastointilaite, josta sai sekä kylmää ja kuumaa ilmaa. Vuokra oli noin 300 euroa kuukaudessa. Jokaisessa kerroksessa oli myös yhteinen keittiö ja pesu- ja kuivauskone. Huoneessa on mahdollisuus langalliseen nettiyhteyteen, johdon saa ostettua Japanista. Asuntolan aulassa oli myös Wi-Fi- yhteys. Ainut haittapuoli asuntolassa asumisessa oli se, että talvella huoneessa ja yleisissä tiloissa oli kylmä. Vieraiden tuominen huoneisiin on kielletty. Perheenjäsenten vieraillessa oli käytössä kuitenkin erillinen asuntola, joka on aivan opiskelijoiden asuntolan vieressä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen asuntolassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suoria lentoja Helsinki-Vantaalta Fukuokaan ei ole, mutta kuitenkin Tokioon ja Osakaan on suora lentoyhteys. Vaihtoehtona on esimerkiksi lentää Osakaan, ja sieltä jatkaa junalla Fukuokaan. Junat Japanissa ovat kuitenkin melko kalliita. Itselläni oli välilasku Shanghaissa, ja sieltä lensin Fukuokaan. Lentokentältä tuutorit tulivat vastaan ja ohjasivat taksiin, joka vei asuntolalle. Siellä meidät otettiin myös hyvin vastaan, saimme avaimen ja joitakin dokumentteja esim. asuntolan säännöistä. Samana päivänä menimme tuutoreiden ja muiden vaihto-oppilaiden kanssa kauppareissulle. Tuutorit auttoivat myös muissa käytännön asioissa, kuten pankkitilin avaamisessa, puhelin hankinnassa jne.</t>
+  </si>
+  <si>
     <t xml:space="preserve">viihtyisä</t>
   </si>
   <si>
@@ -994,6 +1273,12 @@
     <t xml:space="preserve">Olin saanut huoneen yliopiston kampuksen asuntolasta Egilolfstraßelta neljän hengen solusta. Paikalla minua odotti 13 neliön huone jaetulla keittiöllä, WC:llä ja kylpyhuoneella. Asuntohakemuksen yhteydessä sai toivoa itselleen starttipaketin, johon kuului peitto, tyyny ja lakanat, jotka odottivat huoneessa saapumispäivänä. Näin ei tarvinnut heti ensimmäisenä päivänä rynnätä vuodevaateostoksille. Matkaa yliopistolle asunnolta oli kävellen noin viisi minuuttia, joten sijainti oli loistava. Hohenheimissa ei ole tapana erottaa vaihtareita ja saksalaisia opiskelijoita eri asuntoloihin, esimerkiksi meidän asunnossamme (WG) oli kaksi saksalaista ja minun lisäkseni yksi toinen vaihtari. Yliopiston verkko asuntolassa toimii VPN-yhteyden kautta, sen asentamiseen saa kyllä apua yliopistolta ensimmäisinä päivinä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saapuminen ja asuminen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO Hohenheim järjestää kaikille halukkaille vaihtareille tuutorin (buddy) henkiseksi tueksi ja käytännön avuksi. Oma buddyni Chris tuli minua vastaan lentokentälle, ja otimme siitä bussin Hohenheimin kampukselle. Lentokenttä sijaitsee lähellä Hohenheimia, bussilla matka taittuu noin vartissa. Buddyni ja muutaman muun vaihtarin kanssa kävimme ensimmäisinä päivinä yhdessä ilmoittautumassa Bürgerbürossa kaupungin asukkaaksi ja avaamassa pankkitili BW-Bankiin. Monet hankkivat puhelinliittymän jo ensimmäisinä päivinä (esim. O2, Vodafone, blau.de), itse tilasin netistä liittymän Simyo-nimiseltä operaattorilta vähän myöhemmin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=694</t>
   </si>
   <si>
@@ -1003,6 +1288,9 @@
     <t xml:space="preserve">Asuntoloista valitsin Julius Raab Heimin vanhojen matkakertomusten perusteella. Vaikka asuntolaan saapuessa neuvostoliittotyylinen rakennus ja ei niin kauniit, mutta silti siistit huoneet eivät antaneet parasta ensivaikutelmaa, voin suoraan sanoa sen olleen paras vaihtoehto, sillä siellä asuu suurin osa kaikista vaihto-oppilaista. Haimme poikaystäväni kanssa tuplahuonetta yhteisellä keittiöllä, mutta Itävalta on katolilainen maa ja meitä ei suostuttu laittamaan samaan huoneeseen sillä emme olleet naimisissa, niin saimme oman asunnon kahdella huoneella ja omalla keittiöllä. Oma keittiö oli mieluinen aina aamuisin aamupalalla, mutta toisinaan olisin toivonut yhteistä keittiötä, sillä siellä olisi päässyt vielä enemmän sosialisoitumaan ja tutustumaan muihin vaihtareihin. Raab Heim sijaitsee kätevästi noin 10 minuutin kävelymatkan päässä yliopistolta ja noin 20 minuutin ratikkamatkan päässä Linzin keskustasta. Asuntola toimii myös hotellina, joten siellä on 24/7 vastaanotto ja säännöllisesti vierailevat siivojat.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tampereen päässä hakuprosessi sujui ongelmitta ja apua valinnassa ja hakuprosessissa sai niin opintokoordinaattorilta kuin vanhoista matkakertomuksistakin. Hyväksytyn päätöksen saatuani sain odotella suunnilleen lokakuuhun asti ennen kuin vaihtokohteen yliopistosta JKU:sta tuli viestiä ja ohjeet kuinka hakuprosessi jatkuisi heidän puolestaan. Ohjeet olivat hyvin selkeät ja apua sai nopeasti JKU:n kansainvälisestä toimistosta sähköpostin välityksellä. JKU huolehti erinomaisesti kaikista vaihto-oppilaista ja siitä, että kaikilla on kaikki paperit kunnossa. Jopa asunnon haku sujui kätevästi samassa yliopistoon haun yhteydessä. Lomakkeelle tuli vain ilmoittaa oma toive mihin opiskelija-asuntolaan halusi majoittua ja minkälaiseen huoneeseen. Näistä asuntoloista ja vaihtoehdoista oli tullut tietoa aiemmin ja sitä löysi helposti myös heidän omilta nettisivuiltaan. Toki oli mahdollista myös etsiä itse asunto yksityiseltä, mutta tämä järjestelmä oli monin verroin helpompi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto#loka</t>
   </si>
   <si>
@@ -1018,6 +1306,9 @@
     <t xml:space="preserve">Valitsin kolmesta hakuprosessin aikana tarjotuista asumisvaihtoehdosta I-Housen. Päädyin lopulta Shaw Collegeen kuuluvaan Student Hostel 2-nimiseen asuntolaan, joka oli tyyliltään hyvin vastaavanlainen, kun varsinaiset I-House asuntolat kampuksella. Olin hyvin tyytyväinen todella edulliseen asuntooni Shawssa, mutta joidenkin vaihtareiden kokemus samasta asuntolasta oli huomattavasti huonompi. Jos haluat varmistaa uudemman ja freshimmän asumismuodon, suosittelen valitsemaan jomman kumman communal dinnerin sisältävästä vaihtoehdosta. Oman kokemukseni mukaan asunnostaan lisähintaa maksaneet saivat hyvin vastinetta rahoilleen. Jos kampusasuminen mietityttää, kannattaa vähän googlailla etukäteen, millaisia CUHKin eri colleget ovat.</t>
   </si>
   <si>
+    <t xml:space="preserve">CUHKissa on valtava määrä vaihto-oppilaita. Alun pienestä kaoottisuudesta huolimatta yliopisto tarjosi paljon apua alkujärjestelyistä selviämiseen. Orientaatioviikossa erityisen hermostuttavaa oli väliaikaismajoittuminen erillisessä hostellissa. Varsinainen asettuminen tapahtuikin vasta toisella viikolla, kun pääsimme muuttamaan varsinaisiin asuntoloihimme. Olin hakuprosessin aikana ilmoittautunut myös paikalliseen buddy-ohjelmaan, jonka kautta saamaltani tuutorilta sain myös paljon korvaamatonta apua alkujärjestelyissä. Tuutoristani tuli myöhemmin yksi parhaista paikallisista kavereistani, joten suosittelen buddy-ohjelmaan ilmoittautumista siinäkin mielessä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=391</t>
   </si>
   <si>
@@ -1027,6 +1318,9 @@
     <t xml:space="preserve">Sitten pari sanaa asumisesta. Helpoin tapa saada katto pään päälle on hakea huonetta opiskelija-asuntolasta, joista suurin osa sijaitsee Salzburg Südissä noin 10-15 minuutin bussimatkan päässä keskustasta.  Asuntolat täyttyvät nopeasti, joten huonehakemus kannattaa lähettää heti, kun tieto opiskelupaikasta on varmistunut. Joissain asuntoloissa ei ole mahdollista saada omaa huonetta, vaan huone jaetaan toisen opiskelijan kanssa, jolloin yksityisyyttä ei juuri ole. Kannattaa olla tarkkana mihin asuntolaan laittaa hakemuksen, jos huoneen jakaminen ei innosta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Proseminaareista saa kuusi ja seminaareista yhdeksän opintopistettä. Nämä järjestetään pienryhmissä, ja kurssilla keskustellaan paljon, poissaoloja saa olla vain muutama ja kokeen sijaan arvosana määräytyy kurssin aikana kirjoitettavien noin 20-sivuisten esseiden perusteella.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=298</t>
   </si>
   <si>
@@ -1036,6 +1330,9 @@
     <t xml:space="preserve">Oli tehnyt varauksen opiskelija-asuntolaan saatuani varmistuksen vaihtopaikasta. Kävi kuitenkin ilmi, että yliopiston uusi opiskelija-asuntola ei ollut vielä valmistunut ja meidät laitettiin kuukaudeksi asumaan parin kilometrin päässä sijaitsevaan hotelliin. Hotellissa viipymisestä maksoimme kuitenkin vain saman vuokran, minkä olisimme maksaneet asuntolastakin ja yliopisto kattoi loput. Hotellissa viipymisen lähestyessä loppuaan meille kerrottiin, että osa varauksen tehneistä ei välttämättä saakkaan paikkaa uudesta asuntolasta, koska varauksia on niin paljon. Yliopistolla oli myös hieman vanhempia asuntoloita, mutta tässä vaiheessa olin jo niin kyllästynyt jatkuvaan säätämiseen, että päätin vuokrata asunnon yksityiseltä uuden vaihtariystäväni kanssa. Pitempään Pekingissä opiskelleen Korealaisen ystävämme avustuksella löysimme aivan koulun vieressä sijaitsevan asunnon kahdella makuuhuoneella, olohuoneella, keittiöllä ja vieläpä parvekkeella. Vuokrakin oli suurinpiirtein uuden asuntolan tasolla lukuunottamatta välityspalkkiota. Vaikka omassa asunnossa asuminen oli kohdallani erittäin hyvä päätös, oli siinä onnea mukana melkoisesti. Uusille saapujille suosittelisin uutta opiskelija-asuntolaa ainakin ensimmäiseksi asuinsijaksi. Sieltä voi sitten katsella jos haluaa lähteä muualle. Opiskelija-asuntojen vuokrat on kerrottu varauslappusessa. Ympäröivien asuntojen vuokrat ovat pääasiassa niitä korkeampia ja saatavuus sekä asuntojen taso on yleensä heikko.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiinaan saapuminen sujui melko hyvin. Yliopistolta oli muutama opiskelija kentällä vastassa ja koululle oli kuljetus bussilla. Yliopistolle saapumisen jälkeen alkoi rekisteröityminen, joka oli varmastikkin sekavimpia kokemuksiani Kiinassa. Sadat ulkomaiset opiskelijat kiersivät jonossa kymmenkuntaa eri tiskiä, joiden takana oleva koulun henkilökunta ja avuksi värvätyt opiskelijat eivät puhuneet sanaakaan englantia. Tiskeillä hoidettiin kaikki opiskelijakortista vuokran maksamiseen. Tässä vaiheessa oli hyvä olla kaikki lippuset ja lappuset käsillä ja auttoi jos onnistui lyöttäytymään vierekkäin jonkun kiinaa vähän puhuvan kanssa. Kohdeyliopistossa ei ollut tuutortoimintaa. Lukuvuoden lähdettyä käyntiin järjestettiin muutamia tapahtumia, joissa etsittiin kielikavereita. Näistä kavereista saattaa tyypistä riippuen saada apua opiskeluun, lounasseuraa tai ihan oikean kaverin. Lisäksi jokaiselle luokalle valitaan luokkavastaava, jonka puoleen voi kääntyä ongelmatilanteissa. Myös jotkut opettajat ovat erittäin avuliaita. En osallistunut EILC-kielikurssille.</t>
+  </si>
+  <si>
     <t xml:space="preserve">tehdä</t>
   </si>
   <si>
@@ -1048,6 +1345,9 @@
     <t xml:space="preserve">Suurin osa Pietarin vaihtareista majoittuu samaan asuntolaan, legendaariseen ”kapitanskayaan”, joka siis sijaitsee sen nimisellä kadulla, Vasilin saarella. Asuntola järjestetään yliopiston toimesta 4-7 hengen soluasunnoissa, joissa yleensä myös huone jaetaan toisen henkilön kanssa. Sopu sijaa antaa, vai mitä?</t>
   </si>
   <si>
+    <t xml:space="preserve">Minä hain Pietariin vaihtoon, sillä koin, että oma kielitaitoni ei ollut vielä riittävä alan opinnoille. Ja voin jo raporttini aluksi paljastaa, että vuoden vaihto on tuonut rutkasti itseluottamusta ja laajentanut sanavarastoani. Tärkeintä on, että uskaltaa puhua venäjää ja hankkia myös venäläisiä tovereita, eikä viettää aikaansa ainoastaan vaihtareiden kanssa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">majoittua</t>
   </si>
   <si>
@@ -1060,6 +1360,9 @@
     <t xml:space="preserve">Asunnon ja erityisesti vuokranantajan suhteen minulla kävi tuuri. Olin tuolloisena kesänä kiireinen kesätyöni johdosta, joten pyysin saksantaitoiselta isältäni apua asunnon etsimisen suhteen. Hän löysi minulle yksiön trendikkäästä Kreuzbergin kaupunginosasta, josta matka yliopistolle metrolla kesti n. 45 minuuttia. Berliini on tunnettu edullisesti vuokra-asunnoista, mutta ehkä jälkikäteen ajatellen suosittelisin silti soluasumista, koska sitä kautta saa paremmin kontaktia saksalaisiin. Vuokranantajani oli tunnettu nuori muotibloggaaja ja vietin hänen ja hänen poikaystävän kanssa paljon aikaa yhdessä koko Berliini-vuoteni aikana. Ajallisesti pitkät matkan Berliinin sisällä ovat normaalia, mutta niihin tottuu eikä potentiaalisen asunnon kaukaistakaan sijaintia yliopistolta kannata pelätä. Vuokrataso on tosin ollut Berliinissä nousussa, mutta ainakin toistaiseksi tilanne on varsin hyvä. Berliinissä myös sattuu ja tapahtuu kaikenlaista! Suuria katujuhlia, kulkueita, mielenosoituksia, kalenterijuhlat yms. Henkilökohtaisesti suurin tapahtuma oli varmaankin Saksan MM-voitto jalkapallossa, jota todistin Branburgin Torilla yhdessä 20000-300000 muun kiivaan fanin kanssa!</t>
   </si>
   <si>
+    <t xml:space="preserve">Etukäteisjärjestelyjen suhteen kaikki onnistui varsin helposti ja ymmärtääkseni Erasmus-vaihto on muutenkin byrokratian ja opiskelijoiden kannalta kaikkein helpoin vaihto-ohjelma. Suurimpana ”etukäteisjärjestelynäni” voisin pitää varmaankin saksan kielen monivuotista opiskelua, joka oli kehittynyt jo aika hyvällä tasolla Berliinin lähdettäessä. Kielikeskuksen saksan opettajat ovat huippuja! Kesän aikana selailin ahkerasti Frei Universitätin nettisivuja, joista löysin oikeastaan kaiken tarvitsemani. Pienehkön ongelman kohtasin siinä, miten Learning Agreement edellytti kurssisuunnitelmaa koko vuodeksi, vaikka yliopiston nettisivuilta löytyi tuolloin kurssitarjonta vain alkavalle Winter Semesterille. Freie Universität lähetti minulle ajoittain sähköpostia mm. erilaisista sähköisistä tunnustuksistani, tulevista orientoitavista opinnoistani yms. Etukäteisjärjestelyjen suhteen haluaisin kuitenkin painottaa opiskelijan omaa aktiivisuutta! Kielikursseilla käyntien lisäksi kieltä on aidosti harrastettava vapaa-ajalla, esimerkiksi keskustelukerhojen, radion kuuntelun, yms. kautta. Frei Universitätin nettisivut olivat myös hyvin informatiiviset, tietoa on vain itsenäisesti osattava hakea!</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=624</t>
   </si>
   <si>
@@ -1069,6 +1372,9 @@
     <t xml:space="preserve">Saavuin Ljubljanaan kielikurssin alkua edeltävällä viikolla, joten pääsin suoraan muuttamaan asuntolaan. Ne, jotka saapuivat syyskuun ensimmäisenä maanantaina, joutuivat jonottamaan asuntolapaikkaa tuntitolkulla. Toisaalta monet ystävyyssuhteet syntyivät toimistoon jonottaessa. Vuokrani oli ensin 86 euroa kuussa, myöhemmin se nostettiin 115 euroon, mutta vaihtareiden ja heidän kotiyliopistojensa valitusten ansiosta vuokra laskettiin 100 euroon. Yksityiseltä oman huoneen saa 250:llä eurolla ja jaetun 150-200:lla eurolla kuussa. Opiskelijajärjestö Sou auttaa asunnon etsimisessä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Osallistuin syyskuussa EILC-kielikurssille, ja voin vain suositella kielikurssia kaikille. Sloveniassa puhutaan erittäin hyvää englantia, joten sloveenia ei tarvitse osata. On kuitenkin hauska tietää jotain paikallisesta kielestä. Mutta vielä suurempi hyöty kielikurssista on ystävyyssuhteiden kannalta. Oma ystäväporukkani muotoutui jo syyskuun ensimmäisillä viikoilla. Lisäksi syyskuu on vielä täyttä kesää, ja kielikurssin aikana ehtii hyvin matkustella.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=722</t>
   </si>
   <si>
@@ -1078,6 +1384,9 @@
     <t xml:space="preserve">Yliopisto ei juurikaan auta asumisjärjestelyissä eikä siellä muutenkaan vaihtareita avustettu samalla tavalla kuin Suomessa (tuutorin nimen sai 2 viikkoa vaihdon alun jälkeen, ja siihen sai ottaa yhteyttä itse, jos halusi). Lyonin asuntotilanne syyskuussa oli paha, ja joillakin meni koko syyskuu asunnon etsintään. Kannattaa yrittää järjestää asunto jo ennen maahan saapumista. Opiskelija-asuntolat ovat suhteellisen kalliita ja kolkkoja, mutta kuulemani perusteella ainakin käytännön järjestelyt pelaavat. Suosittelen, jos olet vain muutaman kuukauden.</t>
   </si>
   <si>
+    <t xml:space="preserve">Aikatauluista: Rankassa tuntuu, että toimistot ovat enemmän kiinni, kun auki. Esim. kv-toimisto oli auki kello 10-12 ja 14-16, jotkut toimistot vaan kaksi tuntia aamupäivällä. Tarkista ajat aina etukäteen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asua#järjestely</t>
   </si>
   <si>
@@ -1093,6 +1402,9 @@
     <t xml:space="preserve">Yliopisto tarjosi kaikille vaihto-oppilaille paikan asuntolasta, joka oli aika kaukana keskusta. Huoneet olivat hieman huonokuntoisia, vaikkakin erittäin halpoja. Suurin osa vaihto-oppilaista asuivat asuntolassa, jossa piti jakaa huone toisen kanssa. Asuntolalla oli myös muutamia yhden hengen huoneita, jotka menivät kuitenkin hyvin nopeasti. Kannattaa olla siis ajoissa liikkeellä, jos haluaa sellaisen. Itse en ollut ajoissa, enkä halunnut jakaa huonetta, minkä takia asuin vaihdon ajan keskustassa sijaitsevassa vuokra-asunnossa kolmen muun vaihto-opiskelijan kanssa. Itse pidin keskustasijainnista, koska joka paikkaan oli lyhyt matka ja myös mahdollista kävellä. Vuokrasimme asunnon paikalliselta välittäjältä, koska kaupungin asuntomarkkinoilla on liikkeellä paljon huijareita. Löysimme toisemme Facebookin kautta ja etsimme asunnon jo ennen Prahaan tuloa. Vaikka emme tunteneet toisiamme etukäteen, tulimme erittäin hyvin toimeen keskenämme. Voinkin suositella ratkaisua, jos yliopiston tarjoama asuntola ei innosta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kävin maisterikursseja, jotka koin hieman työläiksi. Kurssit olivat luonteeltaan hyvin erilaisia. Monet kursseista olivat kolmen opintopisteen arvoisia, mutta saattoivat silti sisältää pari tenttiä, esseen ja läsnäolopakon. Kurssit myös kestivät koko lukukauden alusta loppuun asti, mikä eroaa hieman oman yliopistoni järjestelystä. Vaihtoyliopisto tarjosi myös useita intensiivikursseja, joita oli vetämässä vierailevia professoreita naapurimaista. Arvostelu oli kuitenkin aika löysää, joten jos vain jaksoi edes yrittää, kaikista oli mahdollista päästä läpi tai saada hyvä arvosana. Kaikki käymäni kurssit opetettiin englanniksi. Opetuksen taso vaihteli kurssien kesken, muutaman professorin englannista oli melkein mahdotonta saada selvää, mutta toiset hyvin innostavia natiivipuhujia. Yliopisto antoi myös vaihto-opiskelijoille mahdollisuuden tehdä kaikki tentit viimeisellä kouluviikolla ennen joulua, vaikka virallisesti tenttiviikot olivat paikallisille opiskelijoille vasta tammikuussa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=774</t>
   </si>
   <si>
@@ -1102,6 +1414,9 @@
     <t xml:space="preserve">Asunnosta muodostui kriittisin osa koko vaihtoa. Päätimme heti alussa etsiä yhden kämpän kaikille neljälle, sillä silloin olisi hieman halvempaa asua. Maastricht on erittäin opiskelijakaupunki, joten asuntoja tulee ja menee, mutta ulkopuoliselle sen hankkiminen on vaikeaa, saatikaan sitten asunnon hankkiminen neljälle hengelle. Saimme vinkin edellisvuonna olleilta edullisesta asuntolasta, mutta tämä oli jo marraskuussa varattu täyteen vaihtomme ajaksi. Kymmenien ja kymmenien sähköpostien jälkeen saimme kiinteistövälitysfirman kautta kiinni asunnosta, jossa olisi sängyt neljälle ja joka olisi sopiva vaihtomme ajaksi. Jippii! Kunnes lopulta kävi ilmi, että tämä asunto ei olisikaan saatavilla huhtikuun alusta, vaan meidän olisi asuttava ensimmäiset 3 viikkoa jossain muualla. Hätäratkaisuna löysimme airBnB:stä edullisen, mutta erittäin pienen kämpän aivan Maastrichtin historiallisesta keskustasta. Kolmen yllättävän lyhyen viikon kuluttua saimme muuttaa viralliseen kämppään Sint-Pietersbergin kaupungiosaan, joka oli lähellä keskustaa ja hieman lähempänä sairaalaa. Asunto oli hieno ja siisti kolmessa kerroksessa osana isoa taloa. Landlordimme asui viereisessä asunnossa, joten kommunikaatio onnistui helposti, jos ilmeni jokin ongelma. Alue, jolla asuimme, oli selvästi rikkaampaa seutua ja turvallisen oloista, isoja taloja, Porscheja pihoissa ja lapset kadulla leikkimässä. Mikäs sen parempaa. Lähikirkon kellotkin kilkuttivat joka tasatunti, mikä toisaalta lähinnä alkoi ärsyttämään ensimmäisten viikkojen jälkeen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaikka ensimmäisen opiskelupäivän iltapäivälle oltiin merkattu tapaaminen paikallisen lääketieteen tiedekunnan vaihto-koordinaattorin kanssa, niin sitä ennen piti löytää jo aamulla itsensä jakson ensimmäiseen tutor-istuntoon. Ryhmässäni oli 2 vaihtaria Italiasta, 1 Sudanista ja lopuista kahdeksasta varsinaisesta opiskelijasta vain kolme olivat hollantilaisia. Kansainvälistä menoa. Iltapäivällä koordinaattorin infotilaisuudessa saimme selville, että meidän neljän suomalaisen lisäksi samana päivänä vaihtoon oli tullut samalle jaksolle peräti 12 italialaista, 1 itävaltalainen ja 7 saudi-arabialaista (joista itse asiassa kukaan ei ollut kotoisin Saudi-Arabiasta). Yhteinen sävel löytyi nopeasti vaihtareiden kesken, vaikkakin saudit jäivät jossain vaiheessa jostain syystä matkan varrelle. Koska maa on Alankomaat niin polkupyörien hankkiminen on erittäin tärkeää. Facebookissa on monta ryhmää pyörien myymiseen ja ostamiseen, joten hankimme ensimmäisellä viikolla omat polkupyörät tätä kautta, mikä osoittautui tärkeimmäksi sijoitukseksi. Hieman harmittaa Tampereelle palattua, että täältä puuttuu pyöräilyinfrastruktuuri lähes kokonaan verrattuna Alankomaihin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">muodostua</t>
   </si>
   <si>
@@ -1114,6 +1429,9 @@
     <t xml:space="preserve">Sain itselleni huoneen Kotmerckx-asuntolasta yliopiston kautta aivan keskuskampukselta, jossa kurssini järjestettiin. Asuntoon sain heti avaimen seuraavana päivänä saapumisestani, koska saavuin toimistoaikojen jälkeen. Asuntola oli aika epäsiisti, jaoin kaksi suihkua ja kaksi WC:tä kahdenkymmenen muun kanssa. Paikallinen erikoisuus on, että vaikka omassa huoneessa ei olekaan kylpyhuonetta, niin käsienpesuallas ja kylmä juokseva vesi kyllä löytyy. Huoneeni oli valmiiksi kalustettu, ja siellä oli kokolattiamatto sekä sänky, jonka pohja saattoi tippua keskellä yötä nukkuessa. Asuntolassa oli myös hiiriä, jonka ratkaisuksi talonmies toi meille muutaman hiirenloukun. Sähköt myös saattoivat katketa parhaimmillaan kolme kertaa päivässä sulakevian vuoksi. Yhteiset tilat siivooja kävi siivoamassa kerran viikossa. Huoneeni vuokra oli noin 300 euroa, johon kuului sähkö, vesi, netti ja palovakuutus. Kaiken kaikkiaan monet keskuskampuksen läheisyydessä sijaitsevat asuntolat ovat Suomen asuntojen tasoon nähden todella vanhoja ja huonossa kunnossa. Muutaman kuukauden tuolla kyllä eleli, mutta vuoden kestävän vaihdon ajaksi suosittelen etsimään sellaista huonetta, jossa on oma kylpyhuone.</t>
   </si>
   <si>
+    <t xml:space="preserve">Varsinaista tuutoritoimintaa ei yliopisto tarjonnut, mutta paikallinen ESN (Erasmus Student Network) tarjosi mahdollisuuden hankkia itselle paikallinen ”buddy”, jonka kautta pääsi tutustumaan paikalliseen kulttuuriin. Sain itselleni buddyn, joka käytti minua Ikeassa, mutta sen syvempää suhdetta ei syntynyt, enkä nähnyt häntä sitten kuin kaksi kertaa. ESN järjesti paljon tapahtumia ja retkiä vaihto-opiskelijoille, joilla pääsi tutustumaan mm. paikalliseen ”sitsi”-kulttuuriin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kotmerckx-asuntolasta</t>
   </si>
   <si>
@@ -1126,6 +1444,9 @@
     <t xml:space="preserve">Orientation weekin lopussa muutettiin lopulliseen asuntolaan. Minä päädyin ennalta tekemieni valintojen pohjalta (no mandatory meal etc.) Shaw Collegen I-house 2:seen, johon liittyy paljon hyviä ja huonoja puolia. Ensinäkin yliopistolla asuminen on ylivoimaisen käytännöllistä ja halpaa yksityisen asunnon vuokraamiseen verrattuna. Maksoin neljästä kuukaudesta vain noin 600€, ja koska yliopisto sijaitsee New Territoriessilla kaukana keskustasta, voi yksityisen asunnon mahdollinen huono sijainti alkaa kismittämään todella paljon lukukauden aikana. I-house 2 ei kuitenkaan ole asuntolana siitä parhaimmasta päästä. Talo on todella huonossa kunnossa ja sijaitsee lähestulkoon kampuksen kaukaisimmassa nurkassa. Huoneet luonnollisesti jaetaan 1-2 henkilön kanssa, ja vessat ja keittiö koko kerroksen kanssa. Yhteisasumisessa siis voi olla vähän pureskeltavaa joillekin vaihtareille.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hong Kongiin saavuttuani kaikki sujui täysin mutkattomasti ja haluan antaa CUHK:lle täyden kympin vaihtaritoiminnan hyvästä hoitamisesta. Saapuessani yliopistolle kaikki vaihtarit majoitettiin ensimmäisen viikon ajaksi samaan collegeen, jotta meidän olisi mahdollisimman helppo tutustua toisiimme ja jotta vaihtarien tapahtumien koordinointi olisi mahdollisimman helppoa. Ensimmäinen viikko oli niin kutsuttu Orientation week, joka oli täynnä kevyitä luentoja koskien mm. yliopiston tai asuntolan ”pelisääntöjä” tai kuinka selvitä hengissä Hong Kongissa. Lisäksi kv-toimisto oli järjestänyt meille joinain iltoina ohjelmaa, kuten esimerkiksi Tervetuliaisillallisen. Ensimmäinen viikko on siis täydellinen tilaisuus tutustua uusiin vaihtareihin ja päästä nauttimaan vaihtokokemuksesta jo heti ensimmäisestä päivästä lähtien.</t>
+  </si>
+  <si>
     <t xml:space="preserve">muuttaa</t>
   </si>
   <si>
@@ -1138,6 +1459,12 @@
     <t xml:space="preserve">Sain noin viikon sisällä siitä kun olin laittanut hakemuksen yliopiston asuntopalveluihin tarjouksen soluasunnosta. Valitettavaa oli kuitenkin se, että lähes koko vuoden vuokra tuli maksaa kerralla siinä yhteydessä kun otti asunnon vastaan. Maksua oli mahdollisuus hieman jakaa pienempii eriin, mutta suurin osa tuli maksaa kerralla. Toisaalta se oli hyvä, että vuokrasta ei tarvinnut enää huolehtia vuoden aikana.</t>
   </si>
   <si>
+    <t xml:space="preserve">2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientaatioviikolla mainostettiin myös englannin kielikursseja. Ilmoittauduin muutamalle ja minut valittiin akateemisen kirjoittamisen ryhmään. En lähtisi suomalaisille opiskelijoille englannin kielen kursseja kuitenkaan suosittelemaan, sillä niiden taso on helpohko. Cultural awareness-kurssista kuulin monelta varsin hyvää palautetta. Jos haluaa parantaa kielitaitoa, suosittelen ehdottomasti vapaaehtoistyötä. Briteissä vapaaehtoistyö on kova sana ja erilaisia kohteita on paljon. Etenkin jos vaihdon jälkeen kiinnostaa työskentely paikan päällä vaikka kesän aikana, vapaaehtoistyöstä saa paikallisilta työnantajilta lisäpisteitä työnhakua ajatellen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asunto#palvelu</t>
   </si>
   <si>
@@ -1150,6 +1477,12 @@
     <t xml:space="preserve">Lensin Wieniin sunnuntaina ja lento-kentältä suuntasin suoraan asunnolleni. Asuntoni olin vuokrannut yksityiseltä toisen suomalaisen vaihto-oppilaan kanssa, koska olin kuullut paljon Wienin huonosta opiskelija-asuntojen hinta-laatusuhteesta. Kämppä löytyi Facebookin vaihto-oppilasyhteisöstä ja vuokranantajalla oli hyviä kokemuksia suomalaisista, joten sen vuoksi onnistuimme saamaan asunnon jo ennen Wieniin saapumista. Wienissä ainakin keväällä on hyvin myös yksityisellä puolella asuntoja saatavilla, vaikka osalla asunnon saaminen tällöin kesti muutaman viikon.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaahan saapuminen ja asuminen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakuprosessi Erasmus-vaihtoon oli yksinkertainen. Wieniin hakijoita oli enemmän kuin tarjolla olevia paikkoja, mutta onnekseni pääsin juuri Wieniin, sillä haaveenani oli viettää vaihtolukukausi saksankielisessä suurkaupungissa. Wienin yliopisto oli myös koko hakuprosessin suhteen joustava ja tarvittavat lomakkeet pystyi täyttämään helposti netissä. Kurssitarjonnasta oli tosin hieman hankalaa saada tietoja ennen lähtöä ja opinto-oppaasta löytyvät kurssikuvaukset olivat pääosin saksaksi. Käytännössä valitsin kurssit niiden nimien perusteella. Ilmoittauduin myös ESN:n kautta buddy-verkostoon, jonka kautta onnistuin saamaan mukavan, kauppatieteitä opiskelevan tytön tutorikseni.</t>
+  </si>
+  <si>
     <t xml:space="preserve">lentää</t>
   </si>
   <si>
@@ -1162,6 +1495,9 @@
     <t xml:space="preserve">Itselläni kävi tuuri asunnon suhteen löytäessäni edullisen huoneen Chelseasta aivan Manhattanin keskeltä. Sijainti oli täydellinen, naapurusto rauhallinen ja paloportailla istuessa näki sekä Times Squaren valot että Empire State Buildingin. Viikonloput kuluivat eri kaupunginosiin tutustuessa muiden harjoittelijoiden kanssa ja tekemistä olisi ollut enemmän kuin mihin aika lopulta riitti. Rahaa New Yorkissa kuluu Suomessa elämiseen verrattuna paljon, mutta itse pärjäsin hyvin harjoittelutuen, opintotuen ja yliopiston myöntämän matka-apurahan ansiosta, minkä lisäksi nostin hieman opintolainaa ennen lähtöäni. Voikin sanoa, että elämä New Yorkissa on hektistä ja kallista, mutta ehdottomasti kokemisen arvoista.</t>
   </si>
   <si>
+    <t xml:space="preserve">Jatkuvasta kiireestä huolimatta harjoittelu Suomen YK-edustustossa ja eläminen New Yorkissa olivat kokemuksina ainutkertaisia.  Monikulttuurisuus ja erilaisuuden päivittäinen kohtaaminen kuvaavat hyvin sekä työskentelyä YK:lla että elämistä New Yorkissa ylipäätään. Kaupungin väestö koostuu mitä erilaisimmista taustoista tulevista ihmisistä ja englannin kieli on vain yksi muista, joita kaupungilla kävellessä kuulee. Syksy 2016 oli lisäksi poikkeuksellisen mielenkiintoista aikaa asua New Yorkissa ja työskennellä YK:lla. Kolmen kuukauden harjoitteluni ajalle osuivat niin Yhdysvaltojen presidentinvaalit ja Donald Trumpin voitto, YK:n uuden pääsihteeri António Guterresin valinta ja Syyrian väkivaltaisuuksien aiheuttamat jännitteet turvallisuusneuvoston jäsenten välillä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=839</t>
   </si>
   <si>
@@ -1171,6 +1507,9 @@
     <t xml:space="preserve">Asunnonhaussa olin hyvissä ajoin liikkeellä (laitoin paperit eteenpäin ehkä päivä pari sen jälkeen, kun ne täytettäviksi sain) ja sain soluhuoneen Apartiksen kautta. Apartis on paikallinen opiskelija-asuntoyhdistys ja todennäköisesti helpoin ratkaisu vaihto-opiskelijalle. Meitä oli soluasunnossa yhteensä viisi opiskelijaa, kolme tyttöä ja kaksi poikaa. Asuin Bellevuessa, noin parin kilometrin päässä keskustasta. Viihdyin hyvin, vaikka asumisjärjestely olikin opiskelijasoluksi melko kallis.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaihdossa kävin ranskan kielen kursseja, yhden englanninkielisen maisteritason kurssin sekä muutaman ranskankielisen kandikurssin. Otin tietoisen riskin opintopisteiden kartuttamisen kannalta päättäessäni opiskella pääosin ranskan kielellä. Halusin kuitenkin kehittää kielitaitoani, eikä se varmasti olisi kehittynyt yhtä paljon, jos olisin opiskellut vain englanniksi. Fribourgin yliopisto on kaksikielinen (ranska ja saksa, sekä tietysti lisäksi englanti) ja Sveitsin monikielisyyden erityisjärjestelyt siellä arkipäivää. Vaikka meitä oli yleensä vain muutama vaihtari ranskankielisillä kursseilla, oli mukana monia sveitsiläisiä, joiden äidinkielenä oli ranskan sijaan italia tai saksa. Tämä oli mukavasti huomioitu myös tenteissä, sillä niihin oli lupa tuoda mukana oma paperinen sanakirja. Vielä en tiedä, olenko saamassa opintopisteitä näistä kursseista, mutta ainakin saatoin olla itseeni tyytyväinen pystyttyäni tenttimään ranskaksi. Tentit eivät olleet mahdottomia, mutta 60% tenttivastauksista tulee olla oikein, jotta tentin läpäisee. Arvosteluasteikko on paremmuusjärjestyksessä numeroiden kuusi ja yksi välillä. Arvosanalla neljä on läpäissyt kurssin. Lukukauden aikana käymäni ranskan kielen kurssin taso tuntui suomalaiseen verraten melko korkealta. Toisaalta mukana oli monia sveitsiläisiä, jotka olivat jo tavalla tai toisella tulleet arjessa tutummaksi ranskan kielen kanssa kuin esimerkiksi minä. Tällä oli varmasti vaikutusta vaatimustasoon etenkin suullisessa ilmaisussa. Yleisesti ottaen suosittelen Sveitsiä vaihtokohteeksi myös niille, jotka ovat ranskan kielitaidostaan hieman epävarmoja, mutta haluavat kuitenkin kehittää sitä. Sveitsissä käytetään niin useita eri kieliä, jolloin virheitä suvaitaan ehkä hieman paremmin kuin esimerkiksi naapurimaa Ranskassa. Kiitosta antaisin myös Fribourgin yliopiston erityisen mukaville ja helposti lähestyttäville kauppatieteiden professoreille.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=731</t>
   </si>
   <si>
@@ -1180,6 +1519,9 @@
     <t xml:space="preserve">Asunnon löytämisessä oli itselläni hieman ongelmia. Aloitin etsimisen vasta, kun sain virallisen vahvistuksen siitä, että saisin huoneen opiskelija-asuntolasta vasta helmikuun alusta. Moni teki niin, että hankkiutui hostelliin ensimmäiseksi kuukaudeksi muiden kanssa, joilla oli samoja ongelmia. Itse halusin välttämättä löytää kimppakämpän ranskalaisten kanssa, jotta oppisin kieltä. Löysin googlettamalla omakotitalon, jossa asui viisi opiskelijaa. Ranskassa on myös monia sivustoja, joilta voi melko helposti löytää erilaisia ”colocation” -asumismuodon kämppiä keskustasta kohtuuhintaan. Itse asuin melko kaukana melko kalliilla. Kannattaa etsiä asuntoa Tram -linjan varrelta, jotta on helppo kulkea. Jälkeenpäin myös opiskelija-asuntolat vaikuttivat hyvältä, varsinkin remontoidut. Ja ne ovat tietenkin halvempia. Myös yöbussi kulkee aina näille ”Villageille” asti ja on aina varmasti paluuseuraa. Tätä yksityistä asuntoa varten jouduin tekemään kovan työn, kun jouduin hankkimaan jos jonkinlaista paperia ja dokumenttia. Noin parikymmentä omalta osaltani ja takaajan osalta. Ja en ollut saanut kunnollista varmistusta koko asunnon olemassaolosta muuten kuin vasta paikanpäälle saavuttuani. Myös yliopistolle ilmoittautuminen vaati jälleen paljon papereita. Ranskassa kaikki vaatii melko paljon papereita, mutta siitä ei kannata turhaan huolehtia.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennen lähtöä olin opiskellut ranskaa lukion ja ylioppilaskirjoitusten verran sekä yliopistossa muutaman kurssin. Yliopisto Ranskassa järjesti kuitenkin oman kielikurssin ennen opiskelun alkua, joka kesti noin kolme viikkoa intensiivisesti joka päivä ja sen jälkeen muutaman kerran viikossa. Itse olen erittäin tyytyväinen tähän kurssiin sekä kielen opiskelun että muihin vaihto-opiskelijoihin tutustumisen kannalta. Yliopisto järjesti ennen varsinaisten kurssien alkua myös esittelypäivän, jossa sai yleistä hyödyllistä infoa opiskelusta ja opiskeluelämästä Bordeaux’ssa sekä tehtiin kierros yliopistolla. Kuulin, että joillakin vaihtareilla oli tuutoreita tai ”erasmus buddy” -henkilöitä, mutta en tiedä miten he ovat ne saaneet. Ilmeisesti se hoituu täysin vapaaehtoistyönä ja siksi ei ole kovin järjestelmällistä tuutorointia. Itse ilmottauduin vielä ranskankurssilla kielitandem -toimintaan, jossa erän ranskalainen oli kiinnostunut Pohjoismaisista kulttuureista ja minä halusin oppia ranskaa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">nmod:gobj</t>
   </si>
   <si>
@@ -1192,6 +1534,9 @@
     <t xml:space="preserve">Asunnon hankkimiseen liittyen yliopisto tarjosi palvelua, jossa paikallinen toimisto hankkii vaihtareille asuntoja paikallisilta. Minulle tarjottiin palvelun kautta huonetta asunnosta, jossa asui lisäkseni 4 muuta ihmistä. Vieraaseen maahan lähtevälle tämä saattaa kuulostaa hyvältä vaihtoehdolta, mutta todellisuudessa asunto oli todella huonokuntoinen, eikä kämppiksistä voinut tietää mitään etukäteen. Asuttuani 3 viikkoa kyseisessä asunnossa, kyselin facebookin kautta asunnoista, ja muutinkin pian keskustassa sijaitsevaan, todella upeaan kahden hengen tilavaan asuntoon ranskalaisen opiskelijan kanssa. Vuokra oli 360 euroa kuukaudessa, jonka päälle maksettiin vielä kuukausittain kaasu, sähkö ja vesi. Hintaa asumiselle tuli noin 400 euroa kuukaudessa. Tämä oli yleiseen tasoon nähden hiukan korkea, mutta asunto oli lähes ylellinen yleiseen tasoon nähden. Paviassa on tarjolla vuokra-asuntoja todella paljon, ja monet paikalliset opiskelijat hakevat alivuokralaisia asuntoihinsa. Kannattaa kuitenkin pitää mielessä epäviralliseten vuokrasuhteiden riskit. Tuleviin kämppiksiin on myös hyvä tutustua hiukan etukäteen. Etenkin Keski-Eurooppalaiset miehet saattavat olla todella sotkuisia ja välinpitämättömiä kanssa-asujia kohtaan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lähtiessäni vaihtoon, en puhunut lainkaan italiaa, mutta olin ilmoittautunut heti saapuessani alkavalle maksulliselle intensiivikurssille, jossa opiskeltiin kielen perusteita noin kuukauden ajan 20 tuntia viikossa. Tämän jälkeen oli mahdollisuus jatkaa iltakursseilla, joita pidettiin kolmena iltana viikossa 2 tuntia kerrallaan. Yleisesti ottaen kurssien taso oli todella huono, enkä suosittelisi kursseille osallistumista intensiivikurssia lukuunottamatta. Paras tapa oppia kieltä on käytännössä, puhumalla paikallisten, tai muiden opiskelijoiden kanssa. Yleisesti ottaen italialaiset puhuvat englantia todella huonosti isoja kaupunkeja lukuunottamatta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=270</t>
   </si>
   <si>
@@ -1201,6 +1546,9 @@
     <t xml:space="preserve">Asunnon hankkiminen oli ainoa vähänkään hankala tai työläs tehtävä ennen lähtöä tapahtuneista etukäteisjärjestelyistä, kaikki muu oli hyvin helppoa. Minun täytyy myöntää, että olin asian kanssa hieman myöhässä. Merkittävä osa opiskelija-asuntoloiden huoneista oli jo varattu loppuun siinä vaiheessa kesää, kun aloin hankkia asuntoa. Kokeilin myös kimppa-asunnon hankkimista (erilaisten kimppa-asuntosivustojen kautta, sillä ainoana Tampereen yliopistosta syyslukukaudeksi Montpellier’n kauppakorkeakouluun lähtevänä en tuntenut etukäteen ketään koko kaupungista), mutta se osoittautui hankalaksi, sillä lähes kaikki etsivät jotakuta, joka sitoutuisi vuokralle vähintään lukuvuodeksi.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kurssivalintojen jälkeen sain odotella alkukesään asti, jolloin aloin ihmetellä, miksi Ranskasta ei ollut kuulunut mitään. Touko- ja kesäkuun vaihteessa lähetin sähköpostia Montpellier’n koulun koordinaattorille tiedustellakseni käytännön asioita. Hän sanoi, että infoviesti oli jo lähtenyt ja ilmeisesti inhimillisen virheen tai teknisen vian takia jäänyt tulematta minulle. Häneltä sain tässä vaiheessa tarvittavat käytännön tiedot (opetuksen aloitusajankohta, lomien ajankohdat yms), jotka saatuani aloitin asunnon hakemisen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ainoa</t>
   </si>
   <si>
@@ -1213,6 +1561,9 @@
     <t xml:space="preserve">Muiden lomakkeiden lisäksi lähetin kesäkuussa vaihtoyliopistolta saamieni ohjeiden mukaisesti myös hakemuksen opiskelija-asuntolahuoneen saamiseksi. Koska vaihtoyliopistolta saamassani kirjeessä oli painotettu sitä, ettei paikallisella Studentenwerkillä ole mahdollisuutta tarjota kaikille vaihto-opiskelijoille asuntoa, päädyin etsiskelemään asuntoja kesän mittaan itse netistä (http://www.wg-gesucht.de/). Löysin itselleni sopivan asunnon kyseiseltä sivustolta jo heinäkuussa ja päädyin näin ollen hylkäämään Goethe-yliopiston kansainvälisten asioiden toimiston minulle heinäkuun lopulla tarjoaman asuntolahuoneen. Asuin vaihtolukukauden ajan opiskelijayksiössä alivuokralaisena; minulle asuntonsa vuokrannut opiskelija lähti itse vaihtoon lukukaudeksi Itävaltaan. Maksoin Bockenheimin kampuksen vieressä sijaitsevasta n. 20 neliön asunnostani 400 €/kk, joka sisälsi asunnon ja käyttötavaroiden (mm. astiat ja polkupyörä) lisäksi netin, sähkön ja veden.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopistoon rekisteröitymispäivänä paikallisen ESN -järjestön (http://unifrankfurt.esngermany.org/) aktiivit olivat suunnitelleet vaihto-opiskelijoille ohjelmaa (mm. kaupunkikierros). Kyseinen järjestö oli koko lukukauden (erityisesti syyskuun) ajan aktiivinen retkien ja muun ohjelman järjestäjä ja järjestön toimintaan osallistuminen olikin erinomainen tapa tutustua muihin vaihto-opiskelijoihin. Saksaan saapumisen jälkeen hoidin yliopistolle rekisteröitymisen lisäksi myös kaupungin asukkaaksi ilmoittautumisen Bürgeramtissa sekä saksalaisen pankkitilin avaamisen. Asukkaaksi ilmoittautuminen sujui nopeasti; tätä varten piti olla mukana passi ja Frankfurtin asunnon osoitetiedot. Suurin osa vaihto-opiskelijoista tarvitsi saksalaisen pankkitilin jo vuokrasopimusta tehdessään, sillä vuokra veloitetaan opiskelija-asuntoloissa asuvilta suoraan tililtä. Itse hankin pankkitilin vasta hieman myöhemmin. Tilin avaaminen on kuitenkin kannattavaa, sillä Saksassa monikaan kauppa tai ravintola ei hyväksy esim. Visa Electron -korttia ja pankit veloittavat käteisen nostamisesta n. 3 €/nosto.</t>
+  </si>
+  <si>
     <t xml:space="preserve">opiskelija-asuntola#huone</t>
   </si>
   <si>
@@ -1225,6 +1576,9 @@
     <t xml:space="preserve">Asunnon hankkiminen oli helppoa vaihtareille tarkoitetun StayInAthens -järjestön kautta. Asuntoja pystyi selaamaan netissä ja valitsemaan mieluisensa suhteellisen laajasta tarjonnasta. Hyvänä puolena StayInAthensissa on sen helppous ja ehdottomasti sen asuntojen keskeiset sijainnit yliopistojen lähellä sekä niiden keskittyminen muiden erasmus-asuntojen kanssa. StayInAthensin kämpät muodostivatkin vaihtarikommuuneja, joissa suurin osa illanvietoista tapahtui. Miinuspuolena voidaan katsoa niiden korkeaa hintaa sekä huonoa kuntoa. Asunnon suhteen annan kuitenkin kaksi tärkeää vinkkiä, hanki asunto, jossa on ilmastiointi ja parveke/kattoterassi. Jos et halua paleltua talvella ja hikoilla kesää on ilmastointi ehdottoman tärkeä miellyttävän elämän kannalta. Parveke tai kattoterassi on taas eritäin hyödyllinen auringonottoon ja muuhun hengailuun kämppiksien kanssa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Helmikuun puolessa välissä saapuessani Ateenaan kelit olivat jo kohdillaan ja oli hienoa päästä Suomen hyytävästä talvesta  keskelle kesää. ”Perehdytys” -viikko tai oikeastaan viikot olivat hyvin organisoitu ja ohjelmaa riitti. Paikalliset Erasmus- tutor aktiivit olivat nähneet paljon vaivaa järjestäessään kaupunkisuunnistuksia, kreikkailtoja, rauniokierroksia sekä kosteita klubi-iltoja meille sosiaalisia tapahtumia janoaville tuoreille vaihtareille. Yliopistoni noin 80-90:n vaihto-oppilaan porukasta hioituikin varsin tiivis jo ensimmäisillä viikoilla ja lähes kaikki oppivat tuntemaan toisensa ainakin jollakin tasolla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">helppo</t>
   </si>
   <si>
@@ -1237,6 +1591,9 @@
     <t xml:space="preserve">Asunnon hankkiminen Kööpenhaminassa on erittäin hankalaa ja vuokrataso on hyvin korkea. Suurin osa vaihto-opiskelijoista tyytyi yliopiston tarjoamiin opiskelija-asuntoloihin, ellei heillä ollut kontakteja jo valmiiksi paikan päällä. Ilmoittautuminen asuntoloihin alkoi ilmoitettuna päivänä kello 10 aamulla. Linkki hakusivustolle lähetettiin kaikille opiskelijoille sähköpostiin. Itse sain linkin noin kello 10.10, jolloin kaikki itse haluamani asunnot olivat jo varattuja. Päädyin valitsemaan asunnon Kathrine Kollegiet -asuntolasta, jossa oli pelkästään ulkomaalaisia vaihto-opiskelijoita. Vuokra asunnossa oli n.550€/kk.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopisto järjesti yhtenä päivänä vaihto-opiskelijoille rekisteröitymispäivän, jolloin viralliset asiat sai hoidettua kerralla kuntoon yliopiston tiloissa. Pohjoismaalaisilta opiskelijoilta edellytettiin vähemmän paperityötä, mutta asukkaaksi rekisteröityminen oli kaikkien pakko tehdä. Vastaavasti Suomeen palattuani maistraatista pyydettiin käymään henkilökohtaisesti paikanpäällä ja Kelalle tuli ilmoittaa Suomeen paluusta. Mitään ongelmia en kohdannut tiedon saannin ja lähettämisen kanssa, kun noudatti saatuja ohjeita.</t>
+  </si>
+  <si>
     <t xml:space="preserve">hankala</t>
   </si>
   <si>
@@ -1249,6 +1606,12 @@
     <t xml:space="preserve">Suurlähetystön henkilökunta tarjosi resurssiensa puitteissa apuaan mm. maahantuloon, käytännön järjestelyihin sekä asunnon löytämiseen liittyvissä asioissa. Asunto on kuitenkin lähtökohtaisesti hankittava itse. Esimerkiksi netistä löytyy useita eri sivustoja, joissa julkaistaan ilmoituksia asunnoista ja kimppakämpistä. Etukäteen Suomesta käsin asuntoa on kuitenkin kovin vaikeaa vuokrata, ellei esimerkiksi kontaktien kautta satu löytymään luotettavaa vuokranantajaa. Siksi suosittelen hostellin tai muun majoituksen varaamista alkuun esimerkiksi viikon ajaksi, asunnon etsimistä varten. Asuntojen laatu eroaa monella tavalla suomalaisista asunnoista.</t>
   </si>
   <si>
+    <t xml:space="preserve">Etukäteisjärjestelyt ja Buenos Airesiin saapuminen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakuaika useisiin alani harjoittelupaikkoihin alkaa tyypillisesti jo marras-joulukuussa ja päättyy usein viimeistään heti alkuvuodesta. Tampereen yliopistossa tieto mahdollisesti saadusta apurahasta korkeakouluharjoitteluun varmistuu kuitenkin vasta tammikuussa, mikä monimutkaisti harjoittelupaikan hakemista. Tieto apurahasta on monille työnantajille yksi keskeisimmistä edellytyksistä harjoittelijan rekrytoinnissa. Joissakin muissa suomalaisissa yliopistoissa opiskelijat saavat tiedon käytössään olevasta apurahasta korkeakouluharjoitteluun jo marras-joulukuussa, mikä saattaa eri yliopistojen opiskelijat eriarvoiseen asemaan. Päteviä hakijoita harjoittelupaikkoihin on usein paljon, ja harjoittelijoita haastattelevilla ja valintapäätöksiä tekevillä työnantajilla on puolestaan toiveena saada harjoittelijat rekrytoitua mahdollisimman nopeasti tai vähintäänkin etukäteen päätetyllä aikataululla. Olin kuitenkin itse onnekas ja sain harjoittelupaikan jo ennen apurahapäätöstä sillä varauksella, että apurahan saaminen onnistuu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=42</t>
   </si>
   <si>
@@ -1258,6 +1621,9 @@
     <t xml:space="preserve">Kaikkein vaikein asia oli asunnon löytäminen. Ajattelimme, että olisi kiva asua yhdessä sekä seuran että rahan vuoksi. Tuohon aikaan Maastrichtissa oli tosi huono asuntotilanne, joten asunnon löytäminen oli vaikeaa. Kaiken lisäksi asunnot olivat yllättävän kalliita. Harvoin löysi hyvällä paikalla olevaa asuntoa, joka oli alle 500 euroa per naama. Opiskelijoille tarkoitettu asuntola oli täynnä ja monet yksityiset asunnonomistajat eivät ottaneet opiskelijoita. Lopulta löysimme täydellisen asunnon (400e/kk/hlö), mutta ongelmana oli, että sen pystyi vuokraamaan vasta kolme viikkoa sen jälkeen, kun olimme saapuneet Maastrichtiin. Ratkaisimme tämän vuokraamalla airBnB:n kautta pienen kaksion kolmeksi viikoksi aivan Maastrichtin keskustasta. Tämäkin sujui yllättävän hyvin, mutta toki oli todella kiva muuttaa isompaan asuntoon Sint Pietersbergin kaupunginosaan. Sint Pietersberg oli todella kaunista ja turvallisen oloista seutua eikä matka (2,5 km) kouluunkaan ollut paha pyörällä. Itse asunto oli juuri rempattu ja muutenkin tosi siistissä kunnossa. Olisimme ehkä säästyneet tältä asuntosäädöltä, jos olisimme aloittaneet asunnon etsimisen aikaisemmin. Eli kannattaa aloittaa heti tammikuussa haravoimaan vaihtoehtoja!</t>
   </si>
   <si>
+    <t xml:space="preserve">Olin jo lukiosta asti haaveillut lähteväni jossakin vaiheessa opiskeluja vaihtoon, ja kun kuulin tästä Maastricht-vaihdosta, olin heti kiinnostunut. Kynnys lähteä oli pieni, koska tämä vaihto ei aiheuttanut opinnoista jälkeen jäämistä. Lisäksi heti tiesi, että ei joutuisi lähteä yksin. Paikkoja oli kuusi kappaletta ja lopulta meitä lähti vain neljä. Aluksi hakuprosessi tuntui vähän monimutkaiselta, mutta Tarja Lehdon pitämä vaihtoinfo selkeytti asioita. Myös edellisenä vuotena olleiden opiskelijoiden tapaaminen auttoi prosessia. Kohdeyliopiston sivuilla täytyi ladata muun muassa passin ja vakuutuksen kuva. Tämä portaali oli jotenkin vanhanaikainen ja vaikea käyttää, mutta siitäkin selvittiin. Tiesimme jo Suomessa, että meidän täytyy ensimmäistä jaksoa varten ilmoittautua erikseen ryhmätöihin ja lopulta tässäkin onnistuttiin, mutta oikean linkin löytäminen monien sivustojen seasta oli vaikeaa. Minulla oli ennestään matkavakuutus, joka oli kerralla voimassa 90 päivää. Vaihtomme kesti hieman yli 90 päivää, joten heinäkuussa otin yhteyttä vakuutusyhtiööni ja jatkoin vakuutusta. Tämä ei ollut ongelma. Ennen lähtöä hain myös apurahaa Erasmukselta sekä korotettua opintotukea Kelalta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=22</t>
   </si>
   <si>
@@ -1267,6 +1633,9 @@
     <t xml:space="preserve">Asunnon saaminen Uppsalassa ei ole itsestäänselvyys, joten kannattaa ottaa asunto, jota yliopisto tarjoaa. Flogsta on legendaarinen opiskelijakylä, jossa on bileitä melkein joka ilta. Itselleni se olisi ollut hieman liikaa, joten viihdyin Kantorsgatanin huomattavasti rauhallisemmassa opiskelijakylässä. Oli kiva saada nukkua yönsä rauhassa ja viettää rauhallista koti-iltaa, jos siltä tuntui. Flogstaan oli vain viiden kilometrin matka, joten sinne pääsi kyllä bilettämään aina halutessaan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hakuprosessi ja etukäteisjärjestelyt olivat varsin vaivattomia, Ruotsi on yksi helpoimpia vaihtokohteita byrokratian kannalta. Eniten aikaa veivät motivaatiokirjeen kirjoittaminen ja sopivien kurssien etsiminen, joihin molempiin kannattaa käyttää tarpeeksi aikaa. Minua ohjeistettiin kirjoittamaan rehellisesti oikeat syyt vaihtoon lähtemiselle, mutta samalla miettimään miten erottuisin muista hakijoista. Kaikki lähtevät vaihtoon parantamaan kielitaitoaan, kansainvälistyäkseen ja hankkiakseen uusia kokemuksia, mutta on hyvä kirjoittaa myös joitain persoonallisempia syitä vaihtoon hakemiselle. Kun hakemus on jätetty, loppu onkin vain vahvistuksen odottamista. Tietojen saaminen koti- ja kohdeyliopistosta saattaa kestää ja vaatii malttia, mutta muita ponnisteluita se ei edellytä. Uppsalan yliopistossa ollaan varsin huomioon ottavia ja seikkaperäisiä, joten kaikki tarpeellinen kerrottiin hyvin selkeästi, kun vahvistus lopulta saapui.</t>
+  </si>
+  <si>
     <t xml:space="preserve">itsestäänselvyys</t>
   </si>
   <si>
@@ -1279,6 +1648,9 @@
     <t xml:space="preserve">Myös asunnon hankkiminen sujui minun kohdallani kivuttomasti, sillä eräällä tuttavallani on yksiö Berliinissä, ja hän vuokrasi asuntonsa minulle. Asunto sijaitsi rauhallisella alueella ja hyvien kulkuyhteyksien päässä Länsi-Berliinissä, ja se oli hyvässä kunnossa sekä edullinen. Plussaa oli lisäksi se, että asunto oli täysin kalustettu ja varustettu, joten matkalaukkuun ei tarvinnut yrittää sulloa edes pyyhkeitä tai lakanoita. Jos joku tätä matkakertomusta lukeva on asunnon tarpeessa Berliinistä, voi ottaa minuun yhteyttä, ja minä voin välittää yhteystietoja puolin ja toisin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaiken kaikkiaan hakuprosessi sujui mutkattomasti. Yliopistolta sai hyvin tietoa prosessin etenemisestä, ja kattavat ohjeet, mitä milloinkin piti tehdä. Kaikesta informoitiin ja muistutettiin.  Kaikilla oli myös mahdollisuus omaan henkilökohtaiseen tutoriin, jonka kanssa olisi voinut olla yhteydessä jo ennen kohdemaahan matkustamistakin, mutta itse en sellaista hankkinut, ja koin saaneeni riittävästi tietoa ja apua ilmankin. Ainut asia, joka aiheutti enemmänkin päänvaivaa etukäteisvalmisteluissa, oli Learning Agreementin tekeminen, sillä kesälukukauden koko kurssitarjonta ei ollut vielä netissä nähtävillä, ja minulle oli myös hieman epäselvää, minkälaisia kokonaisuuksia valitsisin. Sain kuitenkin jonkinlaisen suunnitelman kasaan, osittain edellisten lukukausien kurssitarjonnan perusteella. Berliinissä huomasin, että sekin stressaaminen oli täysin turhaa, sillä täytimme Saksassa sähköisesti kokonaan uudet LA:t. Muiden dokumenttien kanssa ei ongelmia ollut, ja niiden lähettely sujui sähköpostitse oikein näppärästi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">sujua</t>
   </si>
   <si>
@@ -1291,6 +1663,9 @@
     <t xml:space="preserve">Yksi ainoista päänvaivaa tuottaneista asioista vaihdon aikana oli vaihdon alussa tammikuussa asunnon löytäminen, sillä se vei minulta aikaa melkein kaksi viikkoa ja jouduinkin asumaan hostellissa tuon ajan. Yritin etsiä asuntoa jo ennen vaihtoa kyselemällä yliopistosta, mutta sieltä ei juuri autettu. En myöskään hakenut opiskelijoiden dormiin Bezigradiin tai Rozna Dolinaan, vaan päätin hankkia asunnon yksityisiltä asunnonvälittäjiltä. Vaatimuksenani oli oma huone jaetussa huoneistossa, ja kävin katsomassa muutamaa huonetta, ennen kuin tärppäsi. Löysin asunnon vaihtarikaverini kautta, joka asui samassa asunnossa lopulta kuin minä ja vinkkasi minulle vapaana olevasta huoneesta. Olin iloinen, että menin juuri tähän asuntoon, sillä minulla oli maailman ihanimmat kämppikset: saksalainen vaihtari, yksi slovenialainen miesopiskelija sekä kaksi slovenialaista naisopiskelijaa. Oli hienoa tutustua myös slovenialaisiin opiskelijoihin! Huoneeni maksoi 220 euroa, mutta kooltaan se oli hyvin pieni. Vuokrataso Ljubljanassa on suhteellisen halpa: oman huoneen voi löytää noin 200-300 eurolla, soluasunnot ovat sitäkin huomattavasti halvempia. Vinkkini asunnon etsimiseen on se, että sen hankintaan kannattaa varata aikaa, mutta asunto löytyy varmasti myös paikan päältä. Hyvä puoli oli se, että hostellit Ljubljanassa eivät ole kalliita.</t>
   </si>
   <si>
+    <t xml:space="preserve">Opiskelin Ljubljanassa muuten englanniksi ja koen, että kehityin kevään aikana jonkun verran kielitaidossani. Ryhmätöiden lisäksi kursseilla on tyypillisesti kaksi eri tenttiä ja parityönä tai yksin tehtäviä esseitä. Koin, että kurssien opintopisteisiin suhteutettuna kurssit ovat huomattavasti työläämpiä kuin Suomessa, joten töitä kurssien eteen kyllä joutui tekemään. En ole vielä saanut vaihdosta opintopisteitä ja joudunkin tekemään yhden tentin vielä kotiyliopistossa, koska lähdin kesken lukukauden lopun pois kesätöiden vuoksi. En ole vielä varma, saanko suoritettua jokaisen kurssin, koska en tiedä vielä jokaista arvosanaakaan. Se selviää heinäkuuhun mennessä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=717</t>
   </si>
   <si>
@@ -1300,6 +1675,9 @@
     <t xml:space="preserve">Asunnon saaminen Krakovasta syyslukukaudeksi osoittautui erittäin helpoksi. Tarjontaa oli todella paljon, etenkin kun monet turisteille asuntoja vuokraavat firmat vuokraavat samoja asuntoja talvikauden ajaksi opiskelijoille. Hinnat näissä asunnoissa ovat tosin Puolan hintatasoon verrattuna korkeat, vaikkakin silti Suomen vuokriin nähden edulliset. Noin 300 eurolla per kuukausi (1250 zlotylla) saa jo helposti suuren huoneen hyvin varustellusta asunnosta keskeltä kaupunkia, ja jos on valmis tinkimään sijainnista edes hieman, tippuvat hinnat nopeasti jo 200 euroon (800 zlotyyn) ja sen alle.  Itse asuin syyslukukauden aivan vanhan kaupungin reunalla, Planty-puiston vieressä isossa ja avarassa asunnossa kolmen muun Erasmus-opiskelijan kanssa. Asunnon löysin Erasmus-opiskelijoille asuntoja välittävän firman sivuilta ja yhteydenpito heidän kanssaan oli alusta asti hyvin helppoa. Kevätlukukaudeksi asunto ei ollut enää saatavilla ja asuntotilanne oli muutenkin selvästi heikompi kuin syksyllä. Lopulta erään vaihtarien Facebook-ryhmän kautta löysin yksityisen henkilön vuokraaman asunnon aivan keskeltä kaupunkia, johon lopulta muutimmekin yhden vanhan kämppikseni ja yhden uuden kämppiksen kanssa. Pääkadun varrella asumisessa hauskana bonuksena tuli katua pitkin lähes viikoittain kulkevat paraatit, mielenosoitukset ja mm. Krakovan maraton, joita saimme kämppiksieni kanssa seurata aitiopaikoilta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajankohtainen luettelo syyslukukaudella järjestettävistä englanninkielisistä kursseista saapui loppujen lopuksi vain muutamaa viikkoa ennen opetuksen alkua ja samalla aikataululla myös kevätlukukaudella. Omaan pääaineeseeni liittyviä kursseja ei juurikaan tarjottu, tai jos tarjottiinkin, ne katosivat mystisesti kurssilistasta muutamaa päivää ennen opetuksen alkua. Asia ei sinänsä ollut maailmanloppu itselleni, sillä ensisijaisesti olinkin kiinnostunut opiskelemaan Puolassa kaikkea sellaista, jota en Suomessa voisi opiskella. Lopulta päädyin ottamaan kursseja, jotka käsittelivät mm. puolalaisia elokuvia, juutalaisia elokuvia, holokaustia sekä Puolan historiaa. Ilmoittautuminen omille kursseilleni tapahtui helposti netin kautta, mutta kuulin myös tarinoita siitä, kuinka toisille kursseille ilmoittautuakseen täytyi jonottaa useita tunteja päästäkseen tapaamaan sitä yhtä ainoaa sihteeriä, jolla oli valtuudet rekisteröidä opiskelijoita kurssille. Tyypillisin kurssimuoto oli yksi 2h 15min luento viikossa (yhteen putkeen, ilman taukoa) ja kurssin lopuksi esseen kirjoitus. Läsnäolo luennoilla oli pakollista ja ainoastaan kolme poissaoloa per kurssi sallittiin. Osa luennoitsijoista oli tämän säännön kanssa hyvinkin tiukkoja, kun taas osa vähän hövelimpiä. Kaikki luennoitsijat puhuivat erinomaista englantia ja yhteenkään kurssiin en joutunut pettymään. Syyslukukaudella tarjottiin vaihtoehdoksi myös suorittaa osa kursseista ainoastaan käymällä luennoilla ja saamalla tästä 2 opintopistettä, mutta kevätlukukaudelle tämä vaihtoehto poistettiin ja kaikki kurssit täytyi suorittaa täysinä, yleensä 6 opintopisteen laajuisina paketteina esseineen. Näiden kurssien lisäksi osallistuin myös yliopiston tarjoamalle maksulliselle kielikurssille (5h/vko) molempien lukukausien aikana.</t>
+  </si>
+  <si>
     <t xml:space="preserve">osoittautua</t>
   </si>
   <si>
@@ -1312,6 +1690,9 @@
     <t xml:space="preserve">Asunnon hakeminen oli todella helppoa. Kehotan JKU:n hakijoita tekemään hakemuksensa mahdollisimman nopeasti, sillä asunnot jaetaan hakemusten vastaanottojärjestyksessä. Tein oman hakemukseni marraskuun alussa, pari viikkoa hakuajan alkamisen jälkeen ja sain asunnon, jonka olin kolmen valintani joukossa asettanut ensimmäiselle sijalle: yksiön omalla keittiöllä haluamastani asuntolasta. Marraskuun lopulla takarajan tuntumassa hakemuksensa jättäneet eivät olleet yhtä tyytyväisiä. JKU:n kansainvälisen toimiston ihmiset kertoivat rehkineensä tosissaan, jotta kaikki saivat katon päänsä päälle.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ensimmäisestä orientaatiopäivästä valtaosa kului opiskelijaksi ja kaupungin asukkaaksi ilmoittautumisen tuottaman paperisodan merkeissä. Etukäteisvaroitus pitkään päivään varautumisesta oli täysin perusteltu. Orientoiviin opintoihin kuului kaksi kurssia, molemmat vapaaehtoisia: kahden viikon intensiivikurssi saksaa kolmella eri taitotasolla ummikosta edistyneeseen sekä nimellä ”Cultural Sensitivity Training” kulkenut kurssi, joka sisälsi aluksi pari luentoa ja lukukauden lopuksi palautetun esseen. Yleinen mielipide opiskelijoiden keskuudessa oli, ettei tuo kulttuurisen hienotunteisuuden koulutus tehnyt heitä hullua hurskaammiksi. JKU:n kansainvälinen toimisto järjesti kolme edullista ja kokemisen arvoista matkaa lähiseudun kulttuurikohteisiin, kuten Mauthausenin keskitysleiriin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=292</t>
   </si>
   <si>
@@ -1321,6 +1702,12 @@
     <t xml:space="preserve">Kesäkuun alussa sain Englannista sähköpostia asunnon hankkimiseen liittyen. Loughborough’n yliopistolla on kätevä verkkopalvelin, jossa voi selailla kampuksen eri asuntoloita, lukea opiskelijoiden kommentteja niistä sekä lopuksi valita kaavakkeen avulla, minne haluaisi muuttaa asumaan. Jos yliopiston asuntolat eivät innosta, kaupungissa on yllin kyllin yksityisten vuokraajien kimppa-asuntoja tarjolla. Yksityiseltä vuokrattaessa kannattaa kuitenkin tarkistaa, mitä kaikkea vuokraan sisältyy. Englantilaiset talot pitävät lämpöä huonosti, joten lämmitysmaksut saattavat etenkin talvella nousta pilviin. Tästä syystä yksityisasunnot saattavat ainakin aluksi vaikuttaa halvemmilta, vaikka totuus on toinen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen ja sosiaalinen elämä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tein alustavan opintosuunnitelmani hieman kiireisellä aikataululla informaatiokatkoksen vuoksi. Onneksi kohdeyliopiston nettisivuilta löytyi kattava opaskirja eri yksiköiden kurssien sisältöihin, enkä joutunut summanmutikassa valitsemaan kivan kuuloisia kursseja. Jouduin kyllä hieman etsiskelemään kurssitarjotinta, koska englantilainen termi module catalogue hämmensi, eikä opukseen ollut suoraa linkkiä nettisivuilla. Sain lopulta paperit laitettua eteenpäin hieman aikataulusta viiveellä, mutta leppoisat englantilaiset eivät pienestä myöhästymisestä pahastuneet.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=135</t>
   </si>
   <si>
@@ -1330,6 +1717,9 @@
     <t xml:space="preserve">Sitten asunnon hankkiminen. Hakuvaiheessa kannattaa ilmoittautua UO:n host family ohjelmaan. Tämä tarkoittaa että saapuessasi Eugeneen vastassa on paikallinen isäntäperhe joka omassa tapauksessani tarjosi ensimmäisen viikon asumisen ja suuren osan ylläpidosta + asiaan kuuluvat kiertoajelut Eugenessa ja lähiseuduilla. Samalla isäntäperhe avusti asunnon etsimisessä ja tarjoutui jopa kyyditsemään asuntoesittelyihin. Asuntoa voi toki etukäteen säätää esim. craigslistin kautta, tarjontaa on Eugenessa melkeinpä rajattomasti. Ongelmaksi tässä tulee se, että asuntojen hinta-laatusuhde on kaikkea mahdollista maan ja taivaan väliltä, enkä itse suosittele kirjoittamaan vuokrasopimusta ennen kuin olet itse käynyt asunnon paikan päällä toteamassa. Useammassakin esittelyssä vastaan tuli tilanne jossa tupakan, homeen ja hien hajuisista asunnoista/huoneista pyydettiin 500-600 euroa kuukaudelta, mikä nyt on ihan heittämällä ylihintaa ala-arvoiseen laatuun nähden. Asuntoa hakiessa kannattaa ottaa myös selvää takuuvuokran suuruudesta ja ennen kaikkea siitä, pitääkö vuokrahinta sisällään jätehuoltoa, sähköä, vettä ja internettiä, jotka usein rahastetaan erikseen. Ja ellet aio ostaa autoa, on syytä tarkastaa myös koulumatkan pituus. Mahdollisuutena on myös asua kampuksella mikä omasta mielestäni vaikutti kuitenkin suhteettoman kalliilta ja kampus itsessään hieman liian valvotulta ja säädellyltä alueelta asua.</t>
   </si>
   <si>
+    <t xml:space="preserve">Viisumiprosessin ohella on suotavaa katsoa, että rokotus- ja terveystodistukset ovat kunnossa, samoin kuin varmistaa vielä vakuutusyhtiöltä, että matkavakuutuksesi vastaa Oregonin yliopiston sille laatimia vaatimuksia. Jos nämä eivät ole kunnossa on ymmärtääkseni mahdollisuus sille, että UO perii vaihto-opiskelijalta sievoisen lisäsumman vielä siihen lukukausimaksujen kylkeen. Lukukausimaksut Tampereelta tulevalle vaihto-opiskelijalle olivat vähän alta $ 600 / lukukausi (syksyn vaihto on yhden lukukauden, keväällä vaihtoon suuntaava maksaa sekä tammikuussa alkavan talvilukukauden maksun ja maaliskuun lopussa alkavan kevätlukukauden maksun). Kielitodistus tulee myös hankkia, mihin onneksi riitti kielikeskuksen todistus käymistäni englannin kursseista Tampereella.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=860</t>
   </si>
   <si>
@@ -1339,6 +1729,9 @@
     <t xml:space="preserve">Asunnon saamisen hankaluudesta Trondheimissa oli jo etukäteen varoiteltu, joten en sinänsä yllättynyt, kun sain heinäkuussa kielteisen päätöksen hakemuksestani paikallisen opiskelijajärjestön SiT:n asuntoihin. Asunnon saaminen aiheuttikin pientä päänvaivaa, sillä norjankielisten yksityisten asuntoilmoitusten selailu paikalliselta tori.fi (finn.no) -sivustolta ja lukuisat kielteiset vastaukset saivat stressitason hiljalleen matkan lähestyessä kasvamaan. Alennettua hotelliasumista tarjottiin ensimmäisille viikoille niille, jotka eivät onnistuneet saamaan asuntoa ennen Trondheimiin tuloaan. Tieto tästä helpotti jo paljon, ja edellisellä viikolla ennen lähtöäni onnistuin saamaan myös soluasunnon vuosi aikaisemmin valmistuneesta yksityisestä opiskelijakylästä Camp Trondheimista noin 3-4 kilometriä yliopistokampukseltani. Vaikka asunto olikin hintava, oli se myös hyvin varusteltu, erittäin siisti ja hieno viidennen kerroksen vuononäkymineen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Muutettaessa ulkomaille tulee tehdä ilmoitus maistraattiin ja maastamuuttoilmoitus postille. Lisäksi tein itse matkustusilmoituksen ulkoministeriön sivuilla. Muita huolehdittavia asioita ennen lähtöä olivat opintotuen muutosilmoitus Kelalle, vakuutusten uusiminen, asuntoasiat, matkojen ostaminen ja puhelimen liittymän vaihtaminen (pystyin käyttämään Suomi-numeroani samalla hinnalla Norjassa). Itse kävin keskustelemassa myös pankissa maksu- ja raha-asioiden hoitumisesta syksyn aikana. Itselleni syksyn aikana yllätyksenä tulivat silti ulkomaanmaksujen tilisiirtojen ylimääräiset maksut ja eräät muut rahan siirtymiseen liittyvät ongelmat (vuokranantaja kertoi vastaanottaneensa vähemmän rahaa kuin maksoin). Yleisesti ottaen maksuasiat Norjassa hoituivat kuitenkin Visa electronilla, eikä käteiselle tai rahan vaihdolle etukäteen ollut suurta tarvetta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">varoitella</t>
   </si>
   <si>
@@ -1351,6 +1744,9 @@
     <t xml:space="preserve">Asunnon hakeminen oli naurettavan helppoa parin rasti ruutuun – sivun täyttämisen ansiosta. Suurin osa opiskelija-asunnoista on vaihtareille tarjolla Esch-sur-Alzetessa, josta on muutamien kilometrien matka Belvalin kampukselle, johon kaikki aineet on pikku hiljaa ilmeisesti siirtymässä. Busseilla, junalla ja pyörällä yliopistolle pääsee kätevästi 15 – 30 minuutissa. Luxiin junamatka kestää 25 minuuttia. Suosittelen ehdottomasti opiskelijaresidenssiin muuttamista, sillä siellä tutustuu parhaiten ja suurin osa bileistä pidetään kuitenkin isommissa residensseissä. Itselläni kävi harmin paikka kun muutin 12 hengen kolmikerroksiseen taloon eikä mulle osunut yhtään kämppistä ennen huhtikuuta. Oma aktiivisuus siis korostui aika runsaasti, muilla kun seuraa riitti ihan vaan keittiöön menemällä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Itseni kohdalla monesta eri tutkinto-ohjelmasta kurssien ottaminen rajoitti kurssikavereihin tutustumista, sillä olin esimerkiksi vain yhdellä kasvatustieteiden kurssilla, jolloin kurssikaverit jäivät hyvin etäisiksi. Heillä oli tiukkaan hioutunut ryhmä ollessaan jo toisen vuoden opiskelijoita. Suosittelisinkin valitsemaan kursseja enemmän yhdestä tutkinto-ohjelmasta, jolloin porukkaan pääsee paremmin mukaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">rastia</t>
   </si>
   <si>
@@ -1363,6 +1759,9 @@
     <t xml:space="preserve">ISEP:n sopimuksen mukaan vaihtomaksuun kuuluu asunto sekä Meal Plan, joten asunto oli valmiina kun saavuin paikalle. Asuin viiden muun tytön kanssa Suomen soluja muistuttavassa asunnossa. Kaikilla vaihtareilla oli omissa asunnoissaan omat huoneet, mikä osoittautuikin hyväksi, sillä välillä omaa rauhaa kyllä kaipasi. Paikallisilla saattoi olla double room, eli kaksi opiskelijaa saattoi asua samassa huoneessa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopistolla ei ollut varsinaista tuutori-toimintaa. Orientaatioviikolla vapaaehtoiset opiskelijat olivat kertomassa käytännöistä ja auttamassa alkuun pääsemisessä, mutta koviin moniin heistä ei tutustunut kunnolla tai edes nähnyt orientaatioviikon jälkeen. Viikon aikana saimme kuitenkin esimerkiksi puhelinliittymät aktivoitua ja tarpeelliset tavarat ostettua, sillä kv-toimisto järjesti yhteisiä retkiä esimerkiksi ostoskeskukseen. Orientaatioviikolla järjestettiin myös jonkin verran muutakin ohjelmaa, ja kävimmekin esimerkiksi venereissulla läheisellä järvellä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">nsubj</t>
   </si>
   <si>
@@ -1378,6 +1777,9 @@
     <t xml:space="preserve">Lähtiessäni Berliiniä kohti, minulla ei ollut pysyvää asuntoa tiedossa, mutta kuitenkin huone seuraavaksi kahdeksi viikoksi. Liityin lisäksi Facebookissa erilaisiin asunnonetsintäryhmiin ja kuulin, että paikan päällä etsintä voisi olla helpompaa. Berliinin vuokrataso yleisesti on varsin maltillinen, jopa halpa suurkaupungiksi, vaikka vuokrat ovatkin viimevuosina olleet nousussa. Kaupungin julkinen liikenneverkosto on myös varsin kattava ja toimiva, mutta matka kaupungin toiselta laidalta toiselle puolelle voi helposti venyä reilusti yli tunnin pituiseksi, mikä kannattaa huomioida, jos ei halua istua julkisissa useita tunteja päivästä.  Lopulta asuntoasiakin kääntyi parhain päin, sillä sain jäädä samaan huoneeseen, jossa olin viettänyt ensimmäiset kaksi viikkoa, koko harjoittelun ajaksi. Toinen vuokralaisista oli suunnitellut vuokraavansa aluksi kaksi huonetta, mutta tyytyikin sitten vain yhteen. Minulle tämä oli onnenpotku, sillä asunto sijaitsi todella lähellä museota (n.2km) ja pieni, mutta viihtyisä, huone oli Berliininkin hintaluokassa erittäin edullinen (200e/kk).</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennen lähtöäni Berliiniin olin päivittänyt jo olemassa olevan vakuutukseni vastaamaan harjoitteluaikaani ulkomailla, uusinut passini, ostanut lennot sekä etsinyt asuntoa. Vakuutusasia ei ollut aivan yksinkertainen ymmärtää, mutta järjestyi kyselemällä. Passin uusiminen onnistui yllättävän joutuisasti, samoin kuin kansainvälisen opiskelijakortin ja edulliset lennot löytyivät netistä. Asunto sen sijaan tuotti hieman enemmän huolta. Muutaman nettisivun (mm. http://www.wg-gesucht.de/) kautta etsin vuokralle tarjottavia huoneita. Vaikka tarjouksia vapaista huoneista oli paljon, niin samoin oli kyselijöitäkin. En ollut aivan käsittänyt, kuinka vaikeaa asunnon löytäminen loppukesästä ja alkusyksystä voisi olla, kun erityisesti opiskelijat etsivät sankoin joukoin huoneita. Lähettämieni hakemusten määrä liikkui kenties sadassa ja kävin myös läpi kolme Skype-haastattelua tuloksetta. Useimmat halusivat tavata ja haastatella tulevan vuokralaisen kasvotusten tai etsivät pidempiaikaista kämppistä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=606</t>
   </si>
   <si>
@@ -1387,6 +1789,9 @@
     <t xml:space="preserve">Asuminen järjestyy varsin kivuttomasti ja suhteellisen edullisesti kampuksella sijaitsevasta asuntolasta. Sääntöjä toki asuntolassa riittää, mutta vaihto-opiskelijoille ne eivät tuntuneet pätevän ihan samalla laajuudella kuin korealaisille opiskelijoille. Asuntolan yhteydessä sijaitsee myös ruokala, jossa voi enemmän tai vähemmän edullisesti nauttia aamiaista ja illallista. Henkilökohtaisesti en suosittele kyseisen ruokalan antimia, joita voi kyllä käydä myös myöhemmin nautiskelemassa erillishintaan, vaikka ei "ruokasuunnitelmaa" asunnon yhteydessä ottaisikaan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sogang University tarjoaa vaihto-opiskelijoille tukea niin kutsutun HUGin (Hands Up for Gathering) opiskelijajärjestön (paikalliset kutsuvat "klubeiksi") kautta. HUGissa on paitsi ulkomaalaisia opiskelijoita myös varsin kiitettävä määrä korealaisia opiskelijoita, jotka yleensä liittyvät saadakseen kontakteja ulkomailla ja harjoittaakseen kielitaitoa. Tapahtumia vaikutti olevan joka viikko, keskiviikkoisin, "tuutoroinnin" merkeissä. Keskiviikkoisin siis korealaiset opiskelijat auttoivat vaihto-opiskelijoita opettelemaan koreankielen perusteita ja toki myös muiden asioiden kanssa. Apua löytynee aina sitä tarvitseville, joten ei tarvi pelätä vaikka koreaa ei osaisikaan. HUG järjesti myös yhteisiä retkiä ja erilaisia tapahtumia, joiden kautta pääsi tutustumaan kulttuuriin. Tampereeseen verrattuna tapahtumia vaihto-opiskelijoille on silti todella vähän ja viihteen järjestämisestä jokainen vastaa pitkälti itse. ​Usein vaihto-opiskelijat eivät olleet kovinkaan tervetulleita paikallisten tapahtumiin tai kerhoihin. Pääsyy lienee paikallisten heikko englannin kielitaito, mutta useimmilla kerhoilla on myös kahden vuoden mittainen vähimmäisjäsenyys. Tästä huolimatta kavereita löytyy nopeasti ja vaihto-opiskelijat ovat innokkaita suunnittelemaan tapahtumia ja matkoja; Tylsää siis tuskin tulee olemaan, varsinkin ottaen huomioon kuinka monipuolinen ja jännittävä maa Etelä-Korea on!</t>
+  </si>
+  <si>
     <t xml:space="preserve">järjestyä</t>
   </si>
   <si>
@@ -1399,6 +1804,9 @@
     <t xml:space="preserve">Asuminen tapahtui kampuksella asuntoloissa kahden henkilön huoneissa. Huonekaverin sai valita online-järjestelmässä luotujen profiilien perusteella. Itse tykkäsin myös jutella Facebookissa huonekaverini kanssa etukäteen. Halusin varmistaa, että tulisimme toimeen, koska yhteinen huone on melko pieni ja se on oma "koti" seuraavat 4 kuukautta. Huoneen vuokra sisältyi ISEP:ille maksettuun ohjelmamaksuun.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaihtarit saapuivat Hamline Universityyn noin viikko ennen muita opiskelijoita eli elokuun lopussa. Meillä oli aluksi muutaman päivän orientaatio, eli tutustuimme yliopiston toimintatapoihin ja toivuimme aikaerosta. Lisäksi kävimme osavaltion messuilla sekä yhdessä jenkkien suurimmissa kauppakeskuksissa Mall of Americassa. Yliopiston kansainvälinen osasto (kaksi työntekijää ja kolme opiskelijamentoria) huolehti vaihtarien asioista todella hyvin koko vaihdon ajan. Lisäksi koululla oli kaksi kansainvälisten opiskelijoiden järjestöä, joten tukiverkko oli kunnossa. Erillistä kielikurssia ei yliopistolla ollut.</t>
+  </si>
+  <si>
     <t xml:space="preserve">tapahtua</t>
   </si>
   <si>
@@ -1411,6 +1819,9 @@
     <t xml:space="preserve">Saapuessani Varsovaan minulla oli onneksi jo asunto tiedossa. Kaikkein tehokkain kanava on etsiä asuntoja yliopiston vaihto-opiskelijoiden Facebook-ryhmästä (linkit ryhmiin tulevan IRO:n sähköposteissa). Siellä monet Varsovasta lähtevät tarjoavat kämppiään uusille vaihtareille. Ilman kämppää olevan kannattaa majoittua Oki Doki –hostelliin, jossa on lukukausien alkaessa todella paljon vaihtareita. Sieltä löytyy varmasti porukkaa kimppakämppään.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tampereen työväenopistossa on mahdollista opiskella puolan kieltä, ja suosittelen kyllä alkeiskurssin käymistä ennen lähtöä. Kieli on vaikea, joten pienikin apu on paikallaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=498</t>
   </si>
   <si>
@@ -1420,6 +1831,9 @@
     <t xml:space="preserve">CROUS:lla on Rennesissä kaksi opiskelija-asuntolaa, Sévigné ja Patton, joista yleensä vaihtareille tarjotaan paikkoja. Itselläni kävi tuuri ja pääsin ensimmäiseen, joka sijaitsi huomattavasti paremmalla paikalla lähempänä keskustaa ja yliopistoa, ja jonka huoneet olivat myös hieman suurempia kuin Pattonissa. Vuokra oli noin 250e ja siihen sisältyi myös langaton netti, joka toimi kiitettävästi. Itse majoituin suhteellisen uudessa rakennuksessa varsinaisen päärakennuksen takana, ja siellä huoneet olivat melko nykyaikaiset (jääkaappi, oma suihku/wc, työpöytä, sänky) ja ennen kaikkea siistit. Ainut miinus oli, että huoneeseen sai itse hankkia aivan kaiken täkistä ja tyynystä alkaen sekä kaikki keittövälineet. Ilmeisesti Zephyrillä olisi ollut antaa joitakin aiempien vaihtareiden jättämiä tavaroita, mutta meitä ei oikeastaan tästä kukaan infonnut ennen kuin vasta myöhemmin. Niille, jotka eivät asuntolapaikkaa saaneet, Zephyr auttoi hankkimaan kimppa-asuntoja muuta kautta ja muutama vaihtari majoittui jopa perheissä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen ja muuta</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=559</t>
   </si>
   <si>
@@ -1429,6 +1843,9 @@
     <t xml:space="preserve">Ennen lähtöäni luin monesta paikasta, että asunto kannattaisi ehdottomasti hankkia vasta paikanpäällä. Monissa kertomuksissa varoiteltiin erityisesti sitä että asunnot tai huoneet eivät ole aina ihan samanlaisia kuin ne kuvissa näyttävät. Tästä syystä päätin vuokrata huoneen vasta paikanpäälle saavuttuani. Jälkeenpäin ajateltuna olisin ehkä tehnyt toisin. Asunnottomuus oli aika stressaavaa ja ensimmäisinä päivinä käytin asunnon etsimiseen paljon aikaa. Toinen syy miksi olisin hankkinut asunnon jo etukäteen on se, että kahden suuren ja muutamien pienemmän yliopiston Barcelonaan tulee syksyllä todella paljon vaihto-opiskelijoita ja muitakin uusia opiskelijoita, joten kilpailu asunnoista on todella kovaa. Huoneita kaupungissa on kuitenkin tarjolla riittämiin, mutta parhaimmat menivät todella nopeasti. Vuokrataso oli kaupungissa mielestäni todella vaihteleva, taso ei välttämättä aina vaihdellut alueen mukaan, vaan sen mukaan mitä vuokranantaja siitä keksi pyytää. Itse otin asunnon asunnonvälitysfirman kautta, koska tämä tuntui kaikista luotettavimmalta vaihtoehdolta. Vuokra pikkuruisesta huoneestani oli kuitenkin aika korkea ja monet yksityiseltä asuntonsa hankkineet asuivat samantasoisissa asunnoissa paljon halvemmalla. Toki myös asuntoja tarjoavien yritysten kautta oli mahdollista löytää kiva ja halpa huone/asunto, mutta kuten mainittua, kilpailu oli kovaa erityisesti syyskuun alussa milloin itse saavuin Barcelonaan. Yksityisellä puolella ei ollut harvinaista ettei vuokrasopimuksia ollut ollenkaan, mikä mahdollisti joustavuuden molemmille tahoille – niin hyvässä kuin pahassa. Asuntoa hankkiessa myös paikallisen ESN-sivuston Facebook-ryhmä voi olla hyvä apuväline.</t>
   </si>
   <si>
+    <t xml:space="preserve">Oma laitokseni tarjosi tuutortoimintaa, mutta käsittääkseni tämä käytäntö ei ollut kaikilla laitoksilla yhtä aktiivisesti käytössä. Myös omalla laitoksellani oli hyvinkin paljon tuurista kiinni minkälaisen tuutorin sai. Jotkin opiskelijat eivät nähneet tuutoriaan kertaakaan, oma mahtava tuutorini tuli kentälle vastaan ja vietti ensimmäiset päivät kanssani – siitäkin huolimatta että keskuudessamme vallitsi hienoinen kielimuuri – minä en puhunut espanjaa eikä hänen englannin kielen tasonsa ollut kovinkaan korkea. Ja vaikka olinkin varautunut tähän, silti paikallisten nuorten matala kielitaito yllätti. Opettajankoulutuslaitos järjesti tervetuloseminaarin kaikille vaihto-opiskelijoilleen ja henkilökunnan englannin kieli oli loistavaa, mikä oli todella ilahduttavaa. Myös seminaarin anti oli kiinnostava, vaikkakin se keskittyi katalaanien historiaan tai nykypäivän politiikkaan sen sijaan että seminaarissa olisi puhuttu jotakin käytännön asumiseen tai opiskeluun liittyvistä asioista. Henkilökunta oli kuitenkin hyvin avuliasta ja helposti lähestyttävää. Tervetuloseminaari oli mukava aloitus myös siinä mielessä, että se mahdollisti tutustumisen kaikkiin laitoksen vaihto-opiskelijoihin heti alkuvaiheessa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">lukea</t>
   </si>
   <si>
@@ -1441,6 +1858,9 @@
     <t xml:space="preserve">Fudanin asuntola vaihto-opiskelijoille sijaitsee pohjoiskampuksen luoteisimmassa nurkassa, noin kilometrin (ehkä?) päässä tärkeimmästä hallinto- ja opetusrakennuksesta, Guanghua Lousta. Asuntola on 23-kerroksinen jätti, jonka aulassa on päivystys 24 tuntia vuorokaudessa sekä pieni kauppa, josta saa mm. pikkupurtavaa, valmisruokia sekä joitain perustarvikkeita aamusta iltaan. Asuntola ja sen huoneet ovat siistejä, joskin askeettisia eikä niissä ole lämmitystä. Talvisaikaan ilmastointilaite ei ole usein tarpeeksi ja joissain huoneissa ikkunat ja/tai ovi falskaavat kylmää ilmaa. Kuuma vesi tulee vedenlämmittimen kautta, ja sitä riittää noin viiden minuutin yhtäjaksoiseen suihkutteluun. Internetiä ei saa suoraan, vaan se pitää käydä hankkimassa alakerran marketista. Wi-fi –reitittimen haluajien kannattaa ostaa se heti kun mahdollista, sillä ne myydään äkkiä loppuun heti lukukauden alussa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuminen ja vapaa-aika</t>
+  </si>
+  <si>
     <t xml:space="preserve">sijaita</t>
   </si>
   <si>
@@ -1453,6 +1873,9 @@
     <t xml:space="preserve">Asunnot olivat vaihtareille valmiina, mutta saimme muuttaa niihin sisään vasta juuri ennen lukukauden alkua ja jouduimme lähtemään niistä heti seuraavana päivänä lukukauden päättymisestä. Ennen saapumista saimme jo Suomesta käsin täyttää asuntohakemukset ja esittää toiveitamme asumistyyppiin liittyen. Kampuksella olevassa asuntolassa on niin sanottu kotiintuloaika, joten kannattaa miettiä tarkkaan haluaako asua kampuksen sisällä vaiko hiukan kalliimmassa kampuksen ulkopuolella olevassa asuntolassa, jossa on enemmän vapauksia. Kannattaa olla siis ajoissa liikkeellä asuntolapaperien suhteen, ne lähetetäänkin yleensä samassa vaihtohakupaperien kanssa. Tätä varten tulee myös käydä lääkärintarkastuksessa YTHS:llä. Vuokrataso ei mielestäni eroa paljoa TOASin soluasuntojen vuokrasta, mutta asuntola tulee maksaa heti lukukauden alussa kerralla.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennen saapumista yliopistoon saimme sähköpostitse tietää niin sanotun atin, eli tuutorimme nimen ja yhteystiedot, jolta sai kysellä neuvoja jo ennen Koreaan saapumista. Oletin kuitenkin, että atti olisi yhtä valmis auttamaan saapuessamme kuin kv-tuutorit ovat täällä Tampereen yliopistossa. Näin ei kuitenkaan ole. Heillä on paljon enemmän tuutoroitavia kerralla, johtuen siitä että kyseessä on Suomeen verrattuna paljon isompi yliopisto, ja voivat olla vastassa vain jos saapuu tiettyinä päivinä Koreaan lähellä kurssien alkua, ja silloinkin vain tietyllä bussipysäkillä. Toisin sanoen, kannattaa ottaa hyvin itse selvää mitkä kulkuneuvot ottaa yliopistolle lentokentältä ja kysellä kaikki mahdollinen atiltaan valmiiksi ennen saapumista! International Student Organization järjestää kuitenkin lukukauden mittaan aina silloin tällöin vapaa-ajan ohjelmaa vaihto-opiskelijoille. Näissä on hyvä tilaisuus tutustua muihin vaihtareihin ja myös hiukan yliopiston niin sanottuihin kv-tuutoreihin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=430</t>
   </si>
   <si>
@@ -1462,6 +1885,9 @@
     <t xml:space="preserve">Minulla ei ollut asuntoa valmiina, mutta minulla on ystäviä Brasiliasta, joten he järjestivät minulle majoituksen pariksi ensimmäiseksi viikoksi erääseen perheeseen. Perheen kautta löysinkin itselleni hyvän kämpän Copacabanalta. Vuokra oli noin 350 e/kk. Minulla kävi hyvä säkä kämpän suhteen, sillä se oli todella hyvässä kunnossa. Kävin nimittäin katsomassa monta kämppää, jotka olivat huomattavasti kalliimpia, kuin tuo ja huomattavasti huonommassa kunnossa. Vuokrat Riossa ovat melko korkeita.</t>
   </si>
   <si>
+    <t xml:space="preserve">Olin Portossa Portugalissa vaihdossa ennen Rioon lähtöä ja siellä otin muutaman kielikurssin. Oli hyvä, että osasi kieltä jo vähän ennen lähtöä sillä Brasiliassa harva puhuu englantia. Varsinkin asuntoa vuokratessa voi joutua vaikeuksiin, mikäli yhteistä kieltä ei löydy. Onneksi ihmiset ovat siellä uskomattoman avuliaita ja siten apua yleensä löytyy helposti. En osallistunut intensiivikielikurssille, jota IBMECin yhteistyökumppani tarjosi. Se oli aika kallis ja myöhemmin kuulin, että ehkä se ei ollut sen arvoistakaan, mutta toki jos ei kieltä yhtään osaa niin on se hyvä saada edes jonkinlainen käsitys portugalin kielestä. Koulussa oli alkuun tuutoritoimintaa, mutta hyvin vähän, kun vertaa aikaisempaan Erasmus- vaihtooni Portossa. Alussa meille nimettiin tuutorit, mutta jotenkin se tuutoritoiminta sitten kumminkin kuihtui jo ensimmäisen viikon jälkeen. Toki apua saa aina, kun sitä ymmärtää vaan pyytää.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=84</t>
   </si>
   <si>
@@ -1471,6 +1897,9 @@
     <t xml:space="preserve">Suurella perheellämme oli myös yhteinen asunto. Jordanstownin kampuksella sijaitsi kaksi erilaista asuntolaratkaisua. Suurempi Dalriada oli pääasiassa täynnä paikallisia, mutta siellä asui myös vaihtareita. Näissä kämpissä jokaisella oli omat kylpyhuoneet mutta yhteiskeittiöt.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopistossa toimi myös kansainvälisten opiskelijoiden yhdistys, joka järjesti paljon hauskaa ohjelmaa. Tämä helpotti vaihtareiden tutustumista toisiinsa ja lopulta olimmekin yhtä suurta perhettä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=125</t>
   </si>
   <si>
@@ -1489,6 +1918,9 @@
     <t xml:space="preserve">Syy miksi saavuin Britteihin viikkoa ennen lukukauden alkua oli se, ettei minulla ollut vielä asuntoa. Student Villagen tarjoama asuminen oli niin järkyttävän kallis, että päätin hoitaa itse asunnon hankinnan. Kalleus johtui siitä, että he eivät varaa vaihto-opiskelijoille erillisiä short-term asuntoja. Ennen lähtöä minulla olikin AirBnB:n kautta varattu huone viikoksi. Asumisen kevääksi sain järjestettyä jo toisena päivänä. Huone löytyi spareroom-sivuston kautta, johon yksityiset vuokranantajat voivat laittaa ilmoituksiaan. Tämä vaihtoehto oli huomattavasti halvempi, sillä maksoin omasta huoneestani noin 200 puntaa kuussa vähemmän, mitä yliopiston tarjoama asuntola olisi maksanut.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Salfordiin tasan viikko ennen varsinaisen kevätlukukauden alkua tammikuun lopussa. Tammikuun viimeinen viikko oli niin sanottu Induction Week, mutta ohjelman ollessa käytännössä samaa joka päivä ei Induction Week ole missään määrin pakollinen tai välttämättä edes tarpeellinen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=147</t>
   </si>
   <si>
@@ -1498,6 +1930,9 @@
     <t xml:space="preserve">Viisikerroksinen asuntolani (dormitory 5; https://www.hse.ru/en/dormitory/kib) sijaitsi paraatipaikalla VDNH:n metroasemalla, Kibaltšitšan kadulla. Jaoin pääasiassa vain vaihto-opiskelijoille tarkoitetussa asuntolassa noin 10 neliön huoneen yhdessä hollantilaisen tytön kanssa, keittiön sekä wc- ja suihkutilat taas koko kerroksen kanssa. Asuntolasta on mahdollista saada myös oma huone, jos on hyvä tuuri tai on ajoissa yhteydessä asuntolan väkeen. Opiskelijoiden ahkerassa käytössä olivat myös asuntolan oma kuntosali ja lukusali. Tämän lisäksi torstaisin oli mahdollista vaihtaa pesulan valmiiksi pesemät puhtaat lakanat, ja päivittäin asuntolan omat siivoojat siivosivat yhteiset tilat.</t>
   </si>
   <si>
+    <t xml:space="preserve">Paikan päällä minua vastassa oli tuutorini, joka auttoi minua ensimmäisen päivän matkatavaroiden kantamisessa, asuntolan löytämisessä, majoittumisessa, puhelinliittymän hankkimisessa ja väliaikaisen kulkukortin sekä opiskelijakortin hakemisessa kv-toimistosta. Vaikka itse sujuvasti puhunkin venäjää, oli lyhyiden yöunien jälkeinen ensimmäinen sukellus Moskovan vilinään huomattavasti mieluisampi kokemus tuutorini opastuksella kuin sitä ilman.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=811</t>
   </si>
   <si>
@@ -1507,6 +1942,9 @@
     <t xml:space="preserve">Asuntoni oli valmiina heti saavuttuani paikalle. Asuin Vogeliusvegillä. Maksoin neljän hengen solusta 260 €. Jokaisella oli iso makuuhuone, jaoimme oleskelutilan, keittiöin sekä kaksi vessaa, joista toisessa oli suihku. Suosittelen asumaan joko Peterhillewegillä tai Vogeliuswegillä, jotka sijaitsevat molemmat ihan yliopiston vieressä. Kämppisten kanssa ei kyllä ollut oikein ollenkaan kanssakäymistä, joka oli sääli sinänsä. Myös WG asunnot, jotka ovat kuin omakotitaloja, mutta asutaan muiden opiskelijoiden kanssa, ovat hyvä vaihtoehto, kunhan ne eivät ole liian kaukana keskustasta tai yliopistosta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ensimmäisenä kuukautena osallistuin EILC-kielikurssille. Kielikurssia oli maanantaista torstaihin klo 9-13. Suosittelen lähtemään Paderborniin heti kielikurssille, sillä tällöin on paljon kaikkia tapahtumia ja tutustuu muihin vaihto-opiskelijoihin. Myöhemmin tullessa voi olla vaikeampi päästä porukkaan mukaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=691</t>
   </si>
   <si>
@@ -1516,6 +1954,9 @@
     <t xml:space="preserve">Asuminen tapahtuu pienessä huoneessa yhdessä kämppiksen tai kahden kanssa. Huoneessa on vain sänky, kaappi, pöytä ja onneksi edes ilmastointi. Yksityisyyttä ei käytännössä ole ollenkaan, mutta onneksi minun kämppis oli tosi mukava ja voitiin olla omissa oloissamme toisen läsnäolon häiritsemättä. Toiset asuntolat ovat parempia ja siistimpiä kuin toiset. Tähän epäoikeudenmukaisuuteen ei auta kuin sopeutua. Itse pystyy vaikuttamaan hakemusvaiheessa valitsemalla kolmesta vaihtoehdosta sen, mikä sisältää pakolliset ruokailut kolme kertaa viikossa. Tällöin saa hienon hostellin ja tutustuu paikallisiin paljon. Haittapuolena on matkustamisen hankaluus, koska ruokailut ovat pakollisia ymmärtääkseni. Itse valitsin asumisen ilman ruokailua, jolloin randomisti sain kämpän Shaw collegesta, campuksen perimmäisestä nurkasta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaihtoon lähtiessä kannattaa ottaa oma matkavakuutus. Matkavakuutus noin pitkälle ajalle aasiaan on aika hintava, siihen kannattaa varautua. Kannattaa myös varata jo Suomessa ennen lähtöä puolitusinaa passikuvaa kaikenlaisiin hakemuksiin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=390</t>
   </si>
   <si>
@@ -1525,6 +1966,9 @@
     <t xml:space="preserve">Löysin itselleni asunnon internetistä sivustolta http://www.wg-gesucht.de. Asunto löytyi nopeasti ja vaivattomasti. Kyseessä oli kahden saksalaisen opiskelijan kimppakämppä. Heistä toinen oli lähdössä vuodeksi ulkomaille, joten pääsin asumaan täysin kalustettuun huoneeseen ja asuntoon. Vuokrasopimusta varten minun täytyi muun muassa todistaa saavani vuoden aikana tarpeeksi rahaa vuokraan, mutta ei tämäkään prosessi vaatinut kuin muutamien dokumenttien skannausta ja eteenpäin lähettämistä. Vaikka asuin Leipzigissa erittäin suositussa kaupunginosassa suhteellisen lähellä keskustaa ja yliopistoa, oli vuokra silti Tampereeseen verrattuna huokea.</t>
   </si>
   <si>
+    <t xml:space="preserve">Näiden ensimmäisten päivien jälkeen tuutorit järjestivät lähinnä bileitä ja retkiä. Totta kai heiltä sai muitakin neuvoja ja apua, jos kysyi. Informaatiota sai muutenkin aika huonosti. Aina sai erikseen mennä kysymään tai lähettää sähköpostia. Kaikki muutkin vaihto-opiskelijat, joiden kanssa puhuin tästä, olivat yhtä huonosti perillä asioista. Kaikki yliopiston henkilökunnan jäsenet olivat toisaalta oikein ystävällisiä ja auttoivat aina mielellään. Vaihto-opiskelijoiden suhteen oltiin myös todella rentoja. Sai opiskella mitä halusi ja jos jokin joskus meni vähän pieleen, asian sai aina korjattua.</t>
+  </si>
+  <si>
     <t xml:space="preserve">nmod:poss</t>
   </si>
   <si>
@@ -1537,6 +1981,9 @@
     <t xml:space="preserve">Soluasunnon itselleni hain Saksasta wg-gesuchtin nettisivujen kautta. Saksalaisen perheen vuokraamassa solussa asui lisäkseni kolme muuta. Vaikkei kämppiksien kanssa yhteiselo aina ilman ongelmia onnistunutkaan, suosittelen ehdottomasti ainakin harkitsemaan opiskelija-asuntolan sijaan soluasunnossa asumista. Oma kielitaitoni kehittyi huomattavan nopeasti ja etenkin vuokraisännän, -emännän sekä umpibaijerilaisen kämppikseni kautta opin tuntemaan paikalliskulttuuria paljon paremmin kuin monet muut asuntoloissa miltei täysin muiden vaihto-opiskelijoiden kanssa asuskelleet. Minulle ja monelle saksalaisellekin täysin käsittämätöntä paikallismurretta en oppinut muutamaa sanaa enempää. Augsburgin yliopiston asuntoloihin on myös tunkua eli asuntolaan halajavan kannattaa toimia hakemuksensa kanssa nopeasti.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lukuvuosi Universität Augsburgissa alkaa yli kuukauden myöhemmin kuin Suomessa, lokakuun alussa. Saavuin paikalle lokakuun ensimmäisenä päivänä eli juuri sinä päivänä, kun saamissani papereissa pyydettiin olemaan paikalla. Mikäli asuntojärjestelyt vain sallivat, kannattaa paikalle saapua viikkoakin aiemmin. Lukuvuoden alussa ruuhka opintoasiain kansliaan on kova, sillä toimisto on auki vain kolme tuntia päivässä ja jo aamuyhdeksältä ovella oli satojen ihmisten jono. Koska jouduin myös osallistumaan orientaatioluennoille yms, sain opiskelijakorttini, peruspalvelutunnukseni ja opiskelijakorttiin sisältyvän edullisen paikallisliikenteen lukukausilipun vasta seuraavalla viikolla. Jos ajatus pummilla matkustamisesta aiheuttaa huolta, saavu hieman etuajassa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">solu#asunto</t>
   </si>
   <si>
@@ -1549,6 +1996,9 @@
     <t xml:space="preserve">Edellä mainitun lisäksi hoidin jo Suomessa ollessani itselleni asunnon Ateenasta. Käytin paikallisen ESN:n kanssa yhteistyötä tekevän Stay in Athensin palveluja. Asunnon varaaminen ja maksaminen sujuivat mutkattomasti ja luotettavasti. En osaa sinällään sanoa onko järkevämpää varata asunto jo Suomesta käsin, vai mennä paikan päälle ilman asuntoa katselemaan eri vaihtoehtoja. Itse halusin varata hyvissä ajoin, ettei asiasta tarvitsisi sen enempiä stressata.</t>
   </si>
   <si>
+    <t xml:space="preserve">Etukäteisjärjestelyt Suomessa sujuivat melko mutkattomasti. Varsinkin Tampereen yliopiston henkilökunnan kanssa asiointi oli helppoa ja ripeää. Erilaisia lomakkeita piti täytellä muutamia, mistä ei koitunut opiskelijalle kovin kummoista vaivaa. Kohdeyliopistoon lähetettyjä dokumentteja sai toki jonkin aikaa odotella takaisin, mikä on kuitenkin varsin ymmärrettävää. Opiskelijan kannaltahan olisi mukavaa saada myös kohdeyliopiston vahvistus mahdollisimman pian, jotta käytännön järjestelyissä, kuten kotimaan asunnon alivuokraamisessa, rohkenisi edetä. Pakollisten lomakkeiden ja dokumenttien täyttelyn lisäksi tein varsin vähän etukäteisjärjestelyjä itse vaihtoon liittyen. Passin uusiminen, lentolippujen varaaminen ja matkavakuutuksen ottaminen ovat varsin yksinkertaisia toimenpiteitä, joista ei suuremmin aiheutunut päänvaivaa. Tavallisen matkavakuutuksen lisäksi en ottanut mitään vakuutuksia. Kohdemaassa tarvittavat rokotukset minulla oli jo voimassa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=448</t>
   </si>
   <si>
@@ -1558,6 +2008,9 @@
     <t xml:space="preserve">Asumisen osalta vaihtoehdot ovat asuntola ja yksityinen vuokranantaja, joilla kummallakin on puolensa. Itse päädyin yksityiselle sen tarjoaman vapauden ja vapaa-ajan puolesta paremman sijainnin takia (kampus suhteellisen kaukana keskustasta), tosin on hyvä muistaa että kulttuurierojen takia vuokranantajatkin voivat olla varsin holhoavia mutta tämäkin kannattaa ottaa kohteliaisuutena; he vain kokevat olevansa vastuussa sinusta ja pitävät sinusta siksi huolta. Vuokrajärjestelyt hoituvat sujuvasti koulun edustajan, Orlandon, kautta ja hänen puoleensa on hyvä kääntyä kaiken tähän liittyvän osalta jo hyvissä ajoin. Asuntoloissa meno on ainakin näennäisesti rajoitetumpaa, liikkumista, vierailijoita tarkkaillaan ja mm.alkoholin käyttö koulualueella on "kielletty", mutta koulussa tulee ehkä käytyä ahkerammin... Hintojen puolesta yksityinen vuokranantaja saattaa tulla jopa asuntolaa edullisemmaksi, mutta toki asuntoja löytyy moneen lähtöön.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kurssit tuli alustavasti valita jo etukäteen ja niihin olikin hyvä tutustua, mutta käytännössä valinnat rekisteröitiin vasta paikan päällä opintokoordinaattorille ja mahdollista oli valita oikeastaan mitä tahansa kursseja kunhan niille oli tilaa (käytännössä siis kannattaa saapua muutama päivä ennen varsinaista periodin alkua kun kurssit täyttyvät). Periodin alettua opintokoordinaattorille oli myös varsin hankala päästä ruuhkan takia. On hyvä varautua siihen että paikanpäällä ei juuri ohjausta ole luvassa, koulu järjestää vaihtareille vain tervetulotilaisuuden ja korkeintaan jonkinlaisen kiertoajelun, joten vaihtareiden kanssa kannattaa verkostoitua nopeasti ja suunnitella myös reissuja yhdessä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=51</t>
   </si>
   <si>
@@ -1567,6 +2020,9 @@
     <t xml:space="preserve">Asunnon Augsburgista etsin itse. Laitoin wg-gesucht.de-sivustolle viestin, että etsin asuntoa vaihdon ajaksi ja jo heti seuraavana päivänä sain yhteydenoton sähköpostitse yksiöstä mukavan tuntuisella alueella, joka ei ollut kovin kaukana yliopistosta. Kävin sähköpostitse kirjeenvaihtoa asuntoa vuokraavan pariskunnan kanssa ja päätin vuokrata kyseisen asunnon vaihtoni ajaksi. En olisi voinut toivoa parempaa asuntoa ja paikkaa asunnolle vaihdossa ollessani. Asuin asunnossa yksin, jonka myötä sain omaa rauhaa ja pystyin päättämään monista arjen asioista ihan itse. Asunto oli kuuden asunnon pienkerrostalossa, ja vuokranantajani asuivat vuokraamani asunnon alla sijaitsevassa asunnossa. Näin ollen pystyin pyytämään heiltä apua monissa asioissa, myös sellaisissa, jotka eivät liittyneet asuntoon. He myös kutsuivat minut muutaman kerran syömään heidän kanssaan ja sain siten myös erittäin tärkeää harjoitusta saksan puhumiseen ihan tavallisessa saksalaisen perheen arjessa. Asunnon läheltä löytyivät myös helposti ratikka- ja bussipysäkit sekä kaikki tarvittavat ruoka- ja taloustavarakaupat. Alue oli myös viihtyisä sekä yksi kaupungin arvostetuimmista alueista, ja siellä oli viihtyisää käydä esimerkiksi lenkillä. Alue tuntui myös ihan oikeasti saksalaiselta asuinalueelta, mistä olen todella iloinen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaihdon aikana suoritettavia opintoja suunnitellessa oli melko vaikea löytää tietoa Augsburgin yliopistossa tarjottavista kursseista. Kurssikuvauksia kyllä yliopiston internet-sivuilla oli, mutta oli vaikea tietää kenellä kurssit on tarkoitettu ja mitä kursseja itse voi vaihto-opiskelijana ottaa. Jokaiselle opintosuunnalle oli onneksi määrätty omat vastaavat opettajat, jotka vastasivat vaihto-oppilaiden kysymyksiin. Kyseisiltä opettajilta sain tietoa järjestettävistä kursseista sekä vinkkejä, mitkä mahdollisesti toisivat hyvän lisän omiin opintoihini.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=619</t>
   </si>
   <si>
@@ -1576,6 +2032,9 @@
     <t xml:space="preserve">Asuntoni Sloveniassa oli lottovoitto. Asuimme kahdestaan huoneessa, jossa oli pieni keittiö ja pesuhuone/vessa. Lisäksi olimme asunnon ensimmäiset asukkaat, joten kaikki oli aivan uutta ja melko toimivaa. Muutamia puutteita talossa vielä oli, sillä kaikki ei ollut valmistunut aivan ajallaan. Esimerkiksi sälekaihtimet isoihin ikkunoihin saimme vasta kuukauden asumisen jälkeen. Ensimmäisessä kerroksessa asuvaa hissin toimimattomuus ei haitannut, mutta viidennen kerroksen asukkaat olivat välillä hyvinkin närkästyneitä tähän puutteeseen. Samassa asuntolassa asui myös paljon muita vaihto-opiskelijoita ja toisten ovilla käytiinkin vierailuilla tiheään tahtiin. Vaihdon aikana meistä tulikin yhtenäinen ja iso Erasmus-perhe.</t>
   </si>
   <si>
+    <t xml:space="preserve">Koperiin, yliopistokaupunkiini, saavuin viikkoa myöhemmin, orientaatioviikon alkaessa. Sekä koulu, että paikallinen ESN-järjestö auttoivat sopeutumisessa paikallisiin oloihin. Paikalliset ESN:n jäsenet olivatkin läpi vaihtoni suurin apu, jonka sain. Myös koululla oltiin aktiivisia aluksi ja halukkaita auttamaan, mutta lopulta suurin apu löytyi professoreista ja koulukavereista, eikä suinkaan niistä ihmisistä, joiden olisi pitänyt olla meistä vastuussa. Kieli oli aluksi vierasta, mutta perusteet oppi nopeasti kyselemällä ja kokeilemalla. Lisäksi kävin puolen vuoden sloveenin kurssin, jolla en tietenkään oppinut kieltä kokonaisuudessaan, mutta josta oli hurjasti hyötyä esimerkiksi ruokalistoja lukiessa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=703</t>
   </si>
   <si>
@@ -1585,6 +2044,9 @@
     <t xml:space="preserve">Jos halusi saada paikallisen opiskelija-asuntosäätiön asunnon, piti tehdä online-hakemus suoraan kyseiselle taholle (Studentenwerk). Tämä on edullisin vaihtoehto, sillä yksityisiltä markkinoilta on vaikeampaa löytää kalustettua asuntoa. Itse asuntotarjouksen sain kuitenkin vasta kolme viikkoa ennen lähtöäni. Kannattaa siis kaikesta huolimatta katsella myös yksityisiä opiskelija-asuntoloita. Ainakin vaihtoyliopiston kansainvälisten asioiden toimistosta muistutettiin monessa ohjeessa, että kaikille vaihtareille ei koskaan riitä tarpeeksi opiskelija-asuntoja.</t>
   </si>
   <si>
+    <t xml:space="preserve">Erasmus-vaihtoon hakeminen tapahtui vaivattomasti ensimmäisessä vaiheessa Terhi Niemisen avulla. Oli vain täytettävä hakemus ja laadittava Europass-ansioluettelo sekä motivaatiokirje. Sain varmistuksen vaihtopaikasta helmikuun alussa, jonka jälkeen alkoi hakuprosessin toinen vaihe, eli hakemusten täyttö ja lähettäminen Saksan yliopiston Erasmus-koordinaattorille. Kyseisessä yliopistossa oli siirrytty sähköiseen asiakirjojen ja todistusten lähettämiseen, joten koko kirjeenvaihdon aikana minun ei pitänyt lähettää mitään postitse. Ainoa Saksasta tullut kirje sisälsi virallisen sisäänpääsytodistuksen, joka oli ehdottomasti otettava mukaan yliopistoon kirjautumista varten. Muuten siis papereiden lähettely tapahtui sähköisillä lomakkeilla tai sähköpostitse. Tosin papereita olisi voinut lähettää myös faxilla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=645</t>
   </si>
   <si>
@@ -1594,6 +2056,9 @@
     <t xml:space="preserve">Vuokrasin asunnon kampukselta Parkwoodista, jossa useimmat vaihto-opiskelijat asuivat. Parkwood on tavallaan pieni opiskelijakylä, jossa on kaikki olennainen. Parkwood osoittautui itselleni hyväksi ratkaisuksi, sillä siellä oli melko hiljaista verrattuna muihin asuntoloihin. Parkwood sijaitsee tosin kauempana noin 10-15 minuutin kävelymatkan päästä pääkampukselta. Hintataso on sanalla sanoen kallis, vaikka asunnot ovatkin halvimmasta päästä, mutta toisaalta kampusasuminen kuitenkin lienee yksinkertaisin ja luotettavin vaihtoehto. Asuin viiden hengen kaksikerroksisessa soluasunnossa, jossa vessa, keittiö sekä suihku jaettiin. Kokolattiamattoihin sekä kaasuhellaan oli aluksi pieni totutteleminen, mutta lopulta tykästyin ainakin jälkimmäiseen. Asunnoissa kävi myös siivooja, joka vastasi yleisten tilojen siisteydestä, joten kämppäkavereiden kanssa ei tullut ongelmia siisteydestä huolehtimisen suhteen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin Iso-Britanniaan tammikuussa. Ennen saapumistani yliopistolta oltiin oltu yhteydessä ja kyselty, haluaisinko ostaa ennalta järjestetyn kuljetuksen lentokentältä kampusalueelle. Koin kuljetuksen helpoimpana tapana löytää perille. Kentissä tutortoimintaa ei ole ainakaan keväällä, joten eri paikkojen löytäminen sekä käytäntöihin ja ihmisiin tutustuminen oli pääasiassa omalla vastuulla. Siinä mielessä tuntui, että uudet vaihto-opiskelijat jätettiin ainakin keväällä oman onnensa nojaan ja tämän takia ainakin omasta puolestani suosittelisin puolen vuoden vaihto-opiskelun ajoittamista mieluummin syyslukukaudelle. Karttojen avulla ja apua pyytämällä selviytyi kuitenkin loppujen lopuksi suhteellisen hyvin, eikä kampusalue kuitenkaan ole kovin suuri, vaikka se suurempi onkin kuin Tampereella.</t>
+  </si>
+  <si>
     <t xml:space="preserve">vuokrata</t>
   </si>
   <si>
@@ -1606,6 +2071,9 @@
     <t xml:space="preserve">Ensimmäinen vinkkini asunnon etsintään: OLKAA AJOISSA LIIKKEELLÄ! Itselläni jäi asunnon hankkiminen vähän viime tippaan, ja lopputulos oli sen mukainen. Ensimmäiset kolme viikkoa asuin hotellissa kaupungin keskustassa, minkä jälkeen pääsin noin kuuden kilometrin päässä yliopistolta sijaitsevaan yksityiseen opiskelija-asuntolaan, Hamstead Campusiin aka HamCamiin. Asuntola oli ensijärkytyksestä (kokolattiamatot, yhteisvessat ja -suihkut, muutenkin suunnilleen 60-luvun tunnelma) toivuttuani varsin siedettävä asuinratkaisu: hinta pienestä huoneesta pitkällä käytävällä oli halpa, noin 400€/kuukausi, ja siellä asui paljon muitakin vaihtareita (tämä toki kostautui viikonloppuisin äänekkäinä bileinä). Suurimpana miinuksena oli kuitenkin tuo etäisyys yliopistoon ja siten myös keskustaan, sillä bussilla kulkeminen osoittautui välttämättömäksi ja oli sietämättömän kallista Tampereen mittapuulla. Koko lukukauden voimassa oleva bussikortti olisi maksanut 360€, mutta itse tyydyin matkakorttiin, jolla yhdensuuntainen matka maksoi n. 3€ ja edestakainen n. 5,5€. Muiden vaihtareiden asunnoissa vierailtuani oma majoitus alkoi kyllä harmittaa: vaikka kampuksen omissa asuntoloissa vuokra oli kova (yli 600€ pienestä huoneesta, omasta kylppäristä ja jaetusta keittiöstä), asunnot olivat uudehkoja ja siistejä ja tietysti bonuksena se, että luennolle oli parhaimmillaan matkaa vain 100 metriä. Saadessani Astonista ensimmäisen sähköpostin, siinä linjattiin suoraan että kampuksella sijaitsevat asuntolat on tarkoitettu EU:n ulkopuolisille ja koko lukuvuoden Astonissa viettäville opiskelijoille, mutta vierailin kyllä useammassakin kampuksella sijaitsevassa asunnossa, jonka vuokralainen ei täyttänyt ko. kriteerejä... Suosittelen siis kysymään asiasta suoraan yliopistolta mikäli kampuksella asuminen kiinnostaa! ﻿</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaahan saapuminenkin sujui mutkattomasti. Ensimmäinen viikko yliopistolla oli lähinnä kampusalueeseen, opiskelutapoihin ja muihin vaihto-opiskelijoihin tutustumista eikä vaatinut suuria älyllisiä ponnistuksia. ﻿Tuutorointi oli suomalaisella mittapuulla olematonta: syksyllä sähköpostiin tuli viesti, johon vastaamalla oli mahdollista saada itselleen "peer mentor", jonka kanssa olisi voinut viestitellä etukäteen mieltä askarruttavista kysymyksistä, mutta jätin mahdollisuuden käyttämättä. Astoniin saavuttuani oli parin ensimmäisen viikon ajan tarjolla tapahtumia erityisesti meille vaihto-opiskelijoille (tapahtumat järjesti joko Astonin International Society tai Birminghamin International Love -yhdistys, joka tarjosi tapahtumia, joihin osallistui myös Birminghamin muiden yliopistojen vaihto-opiskelijoita), mutta siihen pariin ensimmäiseen viikkoon ne tapahtumat sitten jäivätkin. Pitkin lukukautta järjestettiin toki VisitUK:n retkiä muihin kaupunkeihin ja Britannian nähtävyyksiin, mutta sopimattomien ajankohtien takia osallistumiseni näille jäi vähäiseksi. ﻿</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=106</t>
   </si>
   <si>
@@ -1615,6 +2083,9 @@
     <t xml:space="preserve">Vuokrasin asunnon SSH:lta. Yliopisto suositteli tätä organisaatiota, ja vuokraamani asunto oli asuttava, mutta ei kovinkaan tasokas. Vuokrataso Groningenissa on melko sama kuin Suomessa ja huoneita voi olla hiukan haastava löytää syksyllä ja keväällä. SSH oli sinänsä helppo, että huoneen sai varattua jo Suomesta käsin, ja muuttamaan pääsi kuun alussa. Moni kaverini oli kuitenkin löytänyt huomattavasti parempia huoneita yksityiseltä puolelta, joten suosittelisin tutkimaan sitä tarjontaa hyvinkin tarkasti. Halpaa asuminen ei kuitenkaan ole kummassakaan tapauksessa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Opiskelijakaupunkina Groningenissa on hyvin aktiivista opiskelijatoimintaa. Tuutorointia ja tukihenkilöitä sekä ohjeistusta opintojen aloitukseen löytyy hyvin. Tutustumisviikon aikana riitti tapahtumia ja sitä kautta tapasi myös helposti paljon uusia ihmisiä. Tälle viikolle kannattaa ehdottomasti osallistua, koska sen aikana sai myös hyvän kuvan kaupungista tapahtumien ollessa eri puolilla. Myös yliopisto pyrkii helpottamaan sopeutumista uuteen opiskelupaikkaan ja tätä toimintaa pyritään myös kehittämään entisestään. Tervetuliaisseminaarit olivat ihan hyödyllisiä tapahtumia, joten niihinkin kannattaa osallistua.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=11</t>
   </si>
   <si>
@@ -1624,6 +2095,9 @@
     <t xml:space="preserve">Ainoa negatiiviseksi kokemani asia vastaanottavan yliopiston hakemusjärjestelyissä oli se, että vaihtopaikasta tuleva lopullinen varmistus venyy ilmeisesti aina niin pitkälle, että asunnon hankinnassa on tehtävä paljon kompromisseja. Yleisesti ottaen voisi sanoa, että Prahassa asuntoja tulee vastaan hyvin nopeasti ja niihin on myös muutettava hyvin nopeasti. Lisäksi monessa asunnossa vuokraisäntä tai -emäntä saattaa haluta sopimusta pidemmäksi ajaksi kuin puoleksi vuodeksi, joten siinä mielessä sopivan vuokrasopimuksen etsintä voi olla vaikeaa. Yliopiston tarjoamat asuntolat ovat kaukana keskustasta, ja keskustasta saattaa joka tapauksessa löytää asunnon halvemmalla. Esimerkiksi yliopistolta asuntola-alueelle Hostivař kestää noin tunnin. Kyseisellä alueella asuu niin paikallisia kuin vaihto-opiskelijoita, ja sitä voisi verrata vaikkapa Hervannan teekkarikylään.</t>
   </si>
   <si>
+    <t xml:space="preserve">Erään kaukosuhteellisen vierailuni aikana kävin itse toimittamassa tarvittavat hakupaperit Prahassa sijaitsevaan yliopistoon, jossa olin toki jo aiemmin käynyt edeltävänä keväänä järjestäessäni ainejärjestöekskursion kyseiseen kaupunkiin. Charles Universityn kansainvälisyyskoordinaattori Beáta Tomečková vaikutti todella pätevältä ja iloiselta henkilöltä jo ensi näkemältä, eikä tämä mielikuvani hänestä muuttunut koko vaihdon aikana.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=760</t>
   </si>
   <si>
@@ -1633,6 +2107,9 @@
     <t xml:space="preserve">Asunnon etsintä Wienissä vaatii jonkin verran aikaa ja vaivaa, mutta mikään mahdoton tehtävä se ei ole. Isossa yliopistokaupungissa on tarjolla runsaasti kalustettuja soluhuoneita, jotka ovat suositeltavia harjoittelun ajaksi. Wienissä on muutenkin yleisempää asua solussa (eli WG:ssä) ainakin opiskelujen ajan. Yhteisöllinen asuminen on suositeltavaa, koska elämä isossa kaupungissa voi tuntua yksinäiseltä ainakin aluksi, jos työpäivän jälkeen sulkeutuisi yksiöön. Katsoin soluhuoneita Facebookin ryhmistä sekä jobwohnen.at-nettisivustolta, josta lopulta löysin oman huoneeni. Kannattaa myös kysyä Wienin yliopiston kansainvälisten asioiden toimistosta heidän omaa Housing-listaa (osoitteesta: erasmus.incoming@univie.ac.at). Monet yksityishenkilöt tarjoavat asuntojaan tai huoneitaan vuokralle Erasmus-opiskelijoille ja toimistomme päivitti tätä listaa säännöllisin väliajoin. Kannattaa myös kysyä paikan päällä (siis Wienin kv-toimistossa) olevien harjoittelijoiden yhteystietoja, sillä heiltä voisi saada kontakteja asunnon etsintään tai ehkä jopa vuokrata heidän huoneensa. Yksityisen tarjonnan lisäksi vaihtoehtona voi harkita myös valmiiksi kalustettuja opiskelija-asuntoloita (OeAD, STUWO, WIHAST), joiden vuokrat tosin ovat verrattain korkeat. Yksityisillä markkinoilla vuokrataso on suomalaiselle kohtuullinen. Eläminen on muutenkin jonkin verran halvempaa, kuin Suomessa. Etenkin ulkona syöminen ja juominen ovat edullisia suomalaiseen hintatasoon tottuneelle.</t>
   </si>
   <si>
+    <t xml:space="preserve">Wieniin kannattanee lentää Finnairilla, koska lento on suora, mukaan saa ottaa 23 kg matkatavaraa ja lisälaukuista veloitetaan vain 25 €. Mikäli varaa hyvissä ajoin ja on varaa puljata lentopäiviä, lennon voi saada kahdella sadalla eurolla. Mikäli haluaa matkustaa budjetilla, voisi varmaankin lentää Ryanairilla Pirkkalasta Budapestiin ja matkustaa sieltä junalla tai bussilla Wieniin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">vaatia</t>
   </si>
   <si>
@@ -1645,6 +2122,9 @@
     <t xml:space="preserve">Sain vuokrattua asunnon tuttavani kautta ennen kuin muutin Unkariin. Muutin kuitenkin toisena lukukautena toiseen asuntoon. Asunnon vuokraaminen Budapestissa on suhteellisen helppoa ja asunnot löysin Facebookin ryhmistä jotka on suunnattu vaihtareille ja muille ulkomaalaisille. Ulkomaalaisille asuntojen hinnat ovat korkeammat kuin paikallisille, joten suosittelen etsimään myös tietoa paikallisilta vuokrien hinnoista ja mistä niitä kannattaa etsiä. Minä ja kämppikseni asuimme aivan Budapestin keskustassa, joten vuokramme oli myös hieman korkeampi. Normaalisti asuntoja saa vuokrattua 150–250 euron kuukausihinnalla. Suosittelen vaihtoon lähteville muuttamaan kimppakämppään, koska silloin on mahdollisuus tutustua uusiin ihmisiin, harjoittaa kielitaitoa ja vuokrataso on myös näin halvempi.</t>
   </si>
   <si>
+    <t xml:space="preserve">Jokaisella vaihto-opiskelijalla oli oma tuutori ja orientaatiopäivät alkoivat kolme päivää ennen varsinaisten kurssien alkua. Orientaatiopäivien lisäksi tutorit järjestivät erilaisia tapahtumia koko lukukauden ajan. Omat tuutorit auttoivat käytännön asioiden hoitamisessa ja oma tuutorini lähetti minulle aktiivisesti sähköpostia jo ennen saapumistani Unkariin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=802</t>
   </si>
   <si>
@@ -1654,6 +2134,9 @@
     <t xml:space="preserve">Olin hakupapereita ja muita lappuja täyttäessäni laittanut rastin ruutuun ja ilmoittanut haluavani asunnon yliopiston kautta. Se on mielestäni kätevin ja eteläisen Saksan hintatasoa ajatellen myös järkevin ratkaisu. Itselläni sattui vielä erittäin hyvä tuuri sekä asunnon sijainnin että kämppisten suhteen. Omassa WG:ssäni meitä oli yhteensä kahdeksan henkeä, jotka jakoivat keittiön, kaksi vessaa ja kaksi suihkua. Talo oli vanha ja hissitön, mutta ehdottoman viehättävä asuinpaikka, sekä turistikierrosten nähtävyys. Oman saksan kielen kehittymisen kannalta oli lottovoitto päästä juuri kyseiseen huoneeseen asumaan – kämppiksistäni kuusi oli saksalaisia (tai jos heiltä kysyttäisiin, niin baijerilaisia). Yksi amerikkalainenkin mahtui joukkoomme, eli myös englannin kielen taitoni koheni toivottavasti hieman. Kaupungista pääse myös bussilla kätevästi IKEAan mikäli tarve vaatii. Itse selvisin erittäin vähällä ostoksien suhteen, sillä WG:n keittiössä oli entisten ja nykyisten asukkien astioita, joita me kaksi vaihtariakin saimme käyttää. Lakanatkin odottivat jo sängyllä valmiina kun saavuin kämpille, ja itse ostinkin ensimmäisellä IKEA-reissulla vain pari pyyhettä ja kynnysmaton. Asuntolassamme oleva netti kustansi euron kuussa ja se maksettiin yliopiston kirjakaupasta ostettavilla kupongeilla. Tämä oli yksi käytännön asioista, joka tuntui aluksi varsin monimutkaiselta, mutta tutorit opastivat avuliaasti tässäkin asiassa.</t>
   </si>
   <si>
+    <t xml:space="preserve">Syyskuun alussa lensin Müncheniin, josta olin varannut hostellin yhdeksi yöksi. Seuraavana päivänä lähdin laukkuni kanssa seikkailemaan junalla Regensburgia kohti. Noin puolentoista tunnin matkustamisen jälkeen saavuin tähän pienehköön baijerilaiseen kaupunkiin. Jätin matkalaukkuni asemalle säilytyslokeroon ja lähdin suunnistamaan saamieni (hyvien) ohjeiden mukaan bussilla Regensburgin yliopiston Akademisches Auslandsamtia kohti (joka muutti vaihtovuoteni loppupuolella nimensä International Office –muotoon). Bussipysäkiltä bongasin heti meksikolaisen vaihtarin, jonka kanssa yhdessä löysimme vaivattomasti perille. Ohjeistusta oli tutoreiden toimesta saatavilla sekä englanniksi että saksaksi. Muutamien allekirjoitusten ja informaationivaskojen jälkeen saimme kartat ja kämppien avaimet, jonka jälkeen suunnistus jatkui. Uusi ystäväni suuntasi yliopiston lähellä olevaan asuntolaan, mutta itse pääsin monen amerikkalaisen vaihtarin tavoin asumaan ydinkeskustaan, vanhaan kaupunkiin, joka on erittäin kaunis ja kaiken lisäksi UNESCO:n maailmanperintökohteiden joukossa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">laittaa</t>
   </si>
   <si>
@@ -1666,6 +2149,9 @@
     <t xml:space="preserve">Asumisratkaisumme oli kaupungin reunalla pellon laidalla sijaitseva opiskelija-asuntola Avant-Garde, jossa jokaisella oli yksiö vessalla ja suihkulla. Keittiö ja pyykkitilat olivat jokaisen kerroksen yhteiset; Vuokra 350€/kk, takuuvuokra 500€. Ensimmäisen kuukauden vuokra ja takuuvuokra pyydettiin maksamaan heti saavuttuamme, jolloin osalla oli ongelmia kortin maksurajojen kanssa. Asioiden hoitaminen asuntolassa oli hyvin epämuodollista, mutta kaikesta huolimatta suhteellisen toimivaa, ja esimerkiksi vieraiden majoittamiseen asunnossa suhtauduttiin positiivisesti. Rakennuksessa asui opiskelijoita myös muista oppilaitoksista. Vuokraan kuuluva wlan-yhteys oli arvaamaton ja iltaisin välillä käyttökelvoton. Mölyävistä asukkaista ja vuotavasta keittiön katosta huolimatta Avant-Garde oli luultavasti paras asumisratkaisu, joka Maastrichtissa oli tarjolla kyseiselle aikavälille.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohdemaassa meidät otettiin hyvin vastaan. Vietimme alusta asti paljon aikaa niin muiden vaihto-oppilaiden kuin kansainvälisen lääketiedelinjan (ITM) paikallisten opiskelijoidenkin kanssa. Paikallisesta opetuskoordinaattorista ei kuitenkaan ollut paljon apua.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asua#ratkaisu</t>
   </si>
   <si>
@@ -1696,6 +2182,9 @@
     <t xml:space="preserve">Asuminen Tokiossa on aika kallista. Vuokra ja julkisten liikennevälineiden kuukausikortit olivat kalliimpia kuin mihin oli tottunut. Jos vain saa mahdollisuuden, kannattaa hakea stipendiä Japanin päästä. Suomeen verrattuna vihannekset ja hedelmät olivat todella arvokkaita. Ruokapuoli saattoi tuottaa päänvaivaa, koska ruokakaupoissa myytiin tavaraa, mitä ei ollut ikinä ennen nähnyt. Ruokaselosteisiin tutustuminen vaatii kärsivällisyyttä, koska kaikki on tietenkin ilmoitettu vain japaniksi. Joissain tapauksissa ulkona syömisestä tulee jopa halvempaa kuin ruuan tekemisestä kotona. Myös yliopiston ruokala tarjosi ruokaa koko päivän, mikä oli erittäin tervetullutta.</t>
   </si>
   <si>
+    <t xml:space="preserve">ICU:ssa oli laaja valikoima erilaisia vapaa-ajan ryhmiä, joihin liittyä. Kaikkea löytyi Idolseista Glee clubiin. Itse kokeilin esimerkiksi japanilaista perinteistä tanssia. Johonkin klubiin liittyminen on todella suositeltavaa, koska niissä pääsee kokemaan Japanin kulttuurille ominaisen "senpai-kohai suhteen". Tokiossahan riittää nähtävää, joten kun aikaa jäi, aina oli jokin tapahtuma tai paikka, jossa käydä. Myös Tokion lähialueet olivat kauniita ja näkemisen arvoisia. Liikkuminen junalla ja bussilla toisiin kaupunkeihin sujuu Tokiosta näppärästi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">kallis</t>
   </si>
   <si>
@@ -1708,6 +2197,9 @@
     <t xml:space="preserve">Asuminen pääkampuksen asuntolassa oli edullista, ja Kelan opintotuki ulkomaille riitti muutenkin mainiosti kattamaan käytännössä kaikki kuluni Moskovassa. Asuntolassa on 13 kerrosta, ja rakennuksesta löytyy muun muassa ilmainen pesula ja kuudennen kerroksen pieni kahvila. Vuodevaatteet ja pyyhkeet tulevat ”talon puolesta”, ja niitä voi vaihtaa keskiviikkoisin. Huoneissa on kylpyhuoneet ja jääkaapit, ruokaa voi taas laittaa kerroskeittiöissä, joita on yksi per kerros.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopistolle saavuttuani venäläistyylinen juoksuttaminen ei ollut niin pahaa kuin mitä odotin. Aluksi jätin tavarani kampuksella sijaitsevan asuntola numero kahden aulaan vahtimestareiden vahdittaviksi, minkä jälkeen oli aika tehdä vuokrasopimus yliopistorakennuksessa. Sitten maksoin samassa rakennuksessa sijaitsevassa Gazprombankin konttorissa etukäteen kolmen kuukauden vuokran, minkä jälkeen palasin takaisin osoittamaan maksaneeni vuokran. Sen jälkeen järjesteltiin asioita vielä itse asuntolan johdon kanssa, kunnes sain lopulta tavarat huoneeseeni. Ensimmäisenä päivänä ehdin vielä myös kysellä kaikenlaisia kysymyksiä yliopiston kansainvälisten opiskelijoiden toimiston väeltä, käydä ruokakaupassa ja tutustua kämppikseeni. Jaoimme pienen huoneen kahdestaan, mikä on yleinen käytäntö venäläisissä opiskelija-asuntoloissa. Tähän on syytä varautua henkisesti.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=817</t>
   </si>
   <si>
@@ -1717,6 +2209,9 @@
     <t xml:space="preserve">Asumisjärjestelyt olivat vaihdon aikana paljon puhuttu sirkus, kun jatkuvasti joku muutti paikasta toiseen erinäisistä syistä. Näissä asioissa ei kannattanut olla liian sinisilmäinen tai nirso. Itse onnistuin sattuman kautta löytämään sopivan asunnon Airbnb:n välityksellä jo Suomesta käsin. Kontaktoin vuokraemäntäni kuitenkin ilman kyseistä palvelua ja teimme avoimen kirjallisen vuokrasopimuksen hintaan 240€/kk +150€ takuu. Minulla oli kaksi kämppistä, jotka vaihtuivat vähän väliä. Minulla oli myös oma huone. Tietyistä mukavuuksista jouduin kuitenkin luopumaan, kuten tarpeeksi pitkä sänky ja lämmin vesi suihkussa minuutin jälkeen. Vesi oli juomakelpoista, vaikka maistuikin vähän erilaiselta suomalaiseen kraanaveteen nähden. Sevillassa asumisessa on hyvä huomioida, että suurinta osaa rakennuksista ei ole tiivistetty tuplaikkunoilla ja kunnollisilla eristeillä, kuten suomessa, vaan erityisesti loppusyksyn viileät yöt pudottavat sisälämpötilan hyvinkin alhaisiin lukemiin. Omassa huoneessani oli kivilattia, joka hohkasi kylmää yllättävänkin paljon.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopisto vaatii totuttelua suomalaiselle opiskelijalle. Espanjalainen ”hälläväliä” – kulttuuri näkyy paikoittain myös opettajien ratkaisuissa ja yliopiston toiminnassa. Hyvänä esimerkkinä yliopistolla internet toimi hyvinkin vaihtelevasti ja päivästä riippuen, mikä näytti olevan paikallisille täysin normaalia. Kaikki ei näin ollen ole ihan niin justiinsa. Kursseja koitin katsoa jo Suomessa valmiiksi syksyä varten, mutta niistä oli vaikea löytää mitään tietoa. Tämä oli onni, sillä vaikka olisinkin suunnitellut kaiken valmiiksi, ei toteutus olisi välttämättä ollut lähellekään sitä. Tähän oli syynä kurssien ilmoittautumisessa vallinnut viidakon laki, jossa nopeat söivät hitaat. Yliopisto ilmoitti Erasmus –opiskelijoille kaksi viikkoa aikaa tutustua ja tehdä muutoksia kursseihinsa, mutta todellisuudessa varsinkin kaikki englanninkieliset kurssit olivat täynnä ensimmäisen tunnin jälkeen, kun ilmoittautuminen alkoi. Tästä johtuen osa opiskelijoista jäi jopa rannalle kurssirallissa ja jäivät kokonaan ilman kursseja. Tämä asia kannattaa ehdottomasti huomioida, jos vaihtopaikkasi tulee olemaan UPO. Tästä huolimatta onnistuin varmistamaan paikkani muutamalla yllättävän hyvälläkin kurssilla, joihin olin erittäin tyytyväinen. Mukaan mahtui kuitenkin myös eräs kurssi, jossa opetuskieleksi oli ilmoitettu englanti, mutta kurssin kuluessa ja tentissä vaihto-opiskelijat kohtasivat suhteellisen törkeääkin syrjintää. Opintopisteitä keräsin puolivuotisen ajalla 23 kappaletta, jotka olivat uta:an nähden varsin helppoja.</t>
+  </si>
+  <si>
     <t xml:space="preserve">sirkus</t>
   </si>
   <si>
@@ -1729,6 +2224,9 @@
     <t xml:space="preserve">Ulkomaisille opiskelijoille tarkoitettu asuntola on vain kolme vuotta vanha ja täten melko moderni. Termin "moderni" voi paikan päälle saavuttuaan ymmärtää ihmisestä riippuen eri tavoin, mutta verrattuna venäläisiin asuntoloihin asuinolosuhteet ovat erinomaiset. Asuntolassa asuu omissa siivissään myös venäläisiä opiskelijoita. Itse jaoin huoneen kahden italialaisen opiskelijan kanssa ja viereisessä huoneessa asui meksikolainen ja brasilialainen opiskelija. Näiden kahden huoneen asukkaat siis jakavat keskenään eteisen, jääkaapin, kylpyhuoneen ja vessan. Ihmistyypistä riippuen toinen näkee tässä asumismuodossa yksityisyyden puutetta ja kiistoja ja toinen voi nähdä mahdollisuuden. Itse sijoituin näiden kahden näkemyksen välimaastoon: välillä oli hieman vaikeaa elää niin tiiviisti yhdessä monen ihmisen kanssa, mutta toisaalta yksi lukukausi asuntolassa maksaa vain 3 000 ruplaa (eli noin 8 euroa kuussa). Vuokra-asunnon hankkiminenkin on mahdollista, mutta silloin olisi hyvä olla joku kämppis, jonka tuntee hyvin. Vuokrat luonnollisesti vaihtelevat alueesta riippuen, mutta sanoisin niiden olevan arviolta 200 euroa kuussa soluasunnoissa. Asuntolassa tietysti hyvä puoli on se, että kaikki kansainväliset opiskelijat ja läheiset kaverit ovat kaikki lähellä ja porukalla lähteminen johonkin on aina helpompaa. Asuntola on suljettu välillä 01.00-06.00, joka saattaa vaikeuttaa yökerhoissa käymistä, mikäli juhlimiseen on suurta taipumusta. Alkoholin säilyttäminen ja sen tuominen asuntolaan on kiellettyä ja tätä vahditaan aina silloin tällöin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lento Jekaterinburgiin ei ollut kauhean helppo, sillä kyseessä on yölento ja yöunet jäivät melko olemattomiksi aikaeron vuoksi. Lentokentälle saavuttuamme meitä oli vastassa onneksi "buddy" eli tuutori, joka oli lähetellyt meille sähköpostia jo ennen lähtöä ja kyseli muun muassa kyydityksen tarpeesta asuntolalle. Saimme myös tietää häneltä etukäteen, mistä maista huonekaverimme olivat. Saavuttuamme asuntolalle alkoi niin sanotun paperisodan käyminen: asuntolaa varten piti hoitaa fluorografin (röntgenkuva keuhkoista) ottaminen, rokotusten läpikäyminen, asuntolan vuokran maksaminen pankissa, ilmoittautuminen yliopiston kansainvälisessä yksikössä ja rekisteröityminen. Tämän lisäksi tuutorimme auttoi meitä puhelinliittymän hankkimisessa. Viisuminpidennys hoidetaan hiukan myöhemmin paikan päällä ja siihen tarvittavista asiakirjoista annetaan opiskelijoille tiedot paperilapulla. Vaikka HIV-todistus käsketään tekemään Suomessa, niin sitä ei kannata turhaan tehdä, sillä vain Venäjällä tehty testi käy. Venäläiset tuutorit auttavat HIV-testin teettämisessä ja viisuminpidennykseen vaadittavien asiakirjojen hankinnassa. Heiltä kannattaa rohkeasti kysyä päätä mietityttäviä asioita.</t>
+  </si>
+  <si>
     <t xml:space="preserve">vanha</t>
   </si>
   <si>
@@ -1741,6 +2239,9 @@
     <t xml:space="preserve">Se oli kuitenkin erittäin hankalaa, sillä monet olivat jo syksyllä muuttaneet yhteen ja enää oli jäljellä vain kalliimmat opiskelija-asuntolat. Muutin sellaiseen sitten loppujen lopuksi. Sain sieltä 15 neliöisen huoneen, jossa minulla pieni keittokomero ja oma kylpyhuone. Asuntola sijaitsi lähes keskustassa, jotten kaikki palvelut olivat lähellä. Kevätlukukaudeksi se toimikin, mutta jos olisin ollut pidempään niin en välttämättä siihen jäisi. Eli en suosittele pidemmäksi aikaa. Vuokra oli rapeat 640e kuitenkin. Siihen kuului netti, ja kerran kuukaudessa siivous. Pyykkien peseminen onnistui asuntolan pesutuvassa, jossa oli vain 2 konetta, vaikka asuntolassa oli lähes 300 opiskelijaa. Se maksoi kuitenkin erikseen. Suosittelen siis kämppisasumista ja olisin itse halunnut kovasti sellaiseen, sillä ne jotka asuivat sellaisessa olivat varsin tyytyväisiä. Airbnb asuminen olisi ollut myös hyvä mahdollinen vaihtoehto, sain tietää siitä hieman liian myöhään. Ilmeisesti hinnatkaan eivät olisi olleet järin korkeat.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennen lähtöä hoidin vakuutusasiat hyvissä ajoin. Tämä tarkoitti tapaamista vakuutusyhtiössä ja lisävakuutuksen ottaminen 3kk ylittäneelle ajalle, sillä oma matkavakuutus ei luonnollisesti kattanut sen pidempään. Se oli kuitenkin erittäin helppoa ja vaivatonta hoitaa, eikä kulutkaan olleet kummoiset. Matkustin noin 2 viikkoa ennen opintojen alkamista kohdemaahan, jotta saisin hieman aikaa asumisjärjestelyille. Tämä kuitenkin osoittautui hankalammaksi kuin oletinkaan. Tämä oletettavasti johtui siitä, että saavuin jo kun lukuvuosi oli jo alkanut. Lisäksi vuokranantajat eivät mielellään vuokranneet vain kevääksi asuntoa vaan halusivat pidempiaikaisia vuokralaisia. Olin aluksi ajatellut, että muuttaisin jonkun toisen opiskelijan kanssa yhteen ja mielellään ranskalaisen, jotta kielitaitokin kehittyisi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=534</t>
   </si>
   <si>
@@ -1750,6 +2251,9 @@
     <t xml:space="preserve">Koska kurssini olivat kaikki yliopiston keskustakampuksella ja yliopiston asuntola kahdeksan kilometrin päässä laitakaupungin Sart Tilman–kampuksella, oli järkevintä etsiä asunto yksityiseltä vuokranantajalta. Nettitietojen perusteella vapaita asuntoja vaikutti olevan kaupungissa paljon, ja niinpä päätinkin tutustua asuntoihin rauhassa paikan päällä.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hakuvaihe onnistui ilman mainittavia ongelmia. Yliopiston nettisivuilta löytyi jo syksyllä perustiedot kurssien sisällöistä ja ajankohdista, ja niinpä Learning Agreementin suunnittelu sujui mutkattomasti. Hyväksymiskirje tipahti postiluukkuuni joulukuussa. Pääaineeni on kirjallisuustiede, jota ei kuitenkaan Liègessä sellaisenaan opetettu: niinpä valitsin itselleni ranskan kielen ja kirjallisuuden, filosofian sekä taidehistorian kursseja. Paikan päällä opintojen alettua pudotin filosofian kurssin pois ja otin tilalle vaihtareille tarkoitetun kielikurssin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">järkevä</t>
   </si>
   <si>
@@ -1762,6 +2266,12 @@
     <t xml:space="preserve">Asuntolamme on uusi, rakennettu 2013 vuonna. Asuntoa ei tarvinnut etsiä, vaan se kuuluu automaattisesti tänne vaihtoon tuleville, jotka vastaavat myöntävästi asunnon tarpeeseen. (Osoite: Malysheva 144/ Komsomolskaya 66) Ulkoapäin asuntola on upea ja sisältä se on upea jos vertaa muihin paikallisiin asuntoloihin, kuitenkin yllättävän huonokuntoinen näin uudeksi asuntolaksi. Huoneessani kaikki kaapit huojuvat jos niitä yrittää siirtää ja hissi on todella usein jumissa. Jos jokin menee rikki esim. suihkukaapissa ei omasta viasta johtuen asuntola, saattaa korvata rikki menneen esineen, jos heidän varastostaan vielä löytyy varaosia, mutta jos varaosia ei löydy on asukki vastuussa tavaran ostamisesta. Ennen uutta vuotta joihinkin huoneisiin tultiin tekemään kylppärissä putkiremonttia ja siihen aikaan remonttimies astui kylppärini muovisen vesiputken päälle ja kaikki vesi joka tuli suihkussa käydessä tuli lattialle. Remonttimies selitti asiaa sillä, että putket ovat jo vanhat ja menevät siksi rikki (vaikka putki oli mennyt rikki samana aamuna, kun hän oli ollut töissä ja asuntola on erittäin uusi). Kerroin asuntolan vastaaville tapahtumasta ja he passittivat minut ostamaan putken. Ostettuani sen ja odotettuani, että putkimies tulee sen asentamaan selvisi, että vielä täytyisi käydä ostamassa lisäosa putkeen, joten menin senkin hankkimaan ja asia saatiin korjattua. Venäjää osaaville tällaiset ärsyttävät yksityiskohdat ovat hoidettavissa, mutta täällä on myös vaihto-oppilaita, joiden venäjän kielen taidot ovat alkeellisella tasolla ja jotka eivät itse pysty asioitansa hoitamaan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuntola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESN vaihto-opiskelijoiden organisaatio järjesti monia tapahtumia varsinkin alkuun, mm. ekskursioita kaupungissa, matkoja museoihin ja eläintarhaan ja monia kielikahviloita. Joihinkin tapahtumiin tuli osallistuttua ESN:n kautta, mutta koska olimme juuri muuttaneet asuntolaan ja tutustuneet kaikkiin vaihto-oppilaisiin ja venäläisiin, jotka asuvat samassa kerroksessa meidän kanssa, niin vietimme runsaasti aikaa heidän kanssaan. Oikeastaan ensimmäisen kuukauden aikana kävin huoneessani vain heittämässä laukkuni tuolille ja tulin nukkumaan kun silmät eivät enää pysyneet auki. Iltaiset teehetket saattoivat helposti venyä jopa aamuneljään tai viiteen, mutta tämä ei ollut useinkaan ongelmana opinnoissa, sillä suurin osa kursseistani ei alkanut ihan aamusta vaan vasta iltapäivällä.</t>
+  </si>
+  <si>
     <t xml:space="preserve">uusi</t>
   </si>
   <si>
@@ -1774,6 +2284,9 @@
     <t xml:space="preserve">Asuntola on 3 asemaa Ikebukurosta, yhdestä Tokion isoimmista keskustoista, ja yliopisto vielä 2 asemaa Ikebukurosta. Koulusta saa todistuksen junan/metron kuukausilippua varten, mutta se tulee maksamaan silti reilu 100e/3kk. Sen sijaan asuntola on todella halpa, vain noin 150e/kk sähkö ja vesi mukaan lukien. Käytin ilmastointilaitetta päivittäin kesät ja talvet, eikä vuokra noussut koskaan tuon suuremmaksi. Huone on riittävän suuri, siellä on oma vessa. Hanasta ei kuitenkaan tule kuin kylmää vettä. Asuntolalla on myös iso kylpyosasto, jossa on omat huoneet aina omalle kylpyammeelle, joten saa olla omassa rauhassa, ja jokaisessa kerroksessa kaksi suihkua. Myös pyykkihuone jossa on 3 pesukonetta ja 2 kuivausrumpua löytyy joka kerroksesta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saavuin asuntolalle 1.10., joka oli merkitty toivottavaksi saapumispäiväksi infopapereihin. Suurin osa muista vaihto-opiskelijoista oli kuitenkin tullut jo edellisenä päivänä, joten he olivat kaikki menneet yhdessä kunnantalolle rekisteröimään osoitteen ja ottamaan vakuutukset. Jouduin tekemään tämän kaiken yksin ja japaniksi. Japanilaisten englanninkielen taito on huono, jopa paikoissa joissa käy paljon ulkomaalaisia. Näitä asioita on kuitenkin parannettu tuleville vaihtareille mm. paremmalla tutor-toiminnalla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">asema</t>
   </si>
   <si>
@@ -1801,6 +2314,9 @@
     <t xml:space="preserve">Kuten jo aiemmin mainitsin, päätin asua yliopiston asuntolassa, joka on kampuksen sisäpuolella. Gonzaga tarjosi kahden hengen huoneita edulliseen hintaan ja minulla oli positiivisia kokemuksia asuntolasta edelliseltä oleskelultani. Asuntola on rakennettu 2000-luvun loppupuolella ja on hyvässä kunnossa. Asuntola tarjosi kaiken tarvittavan pyykkituvista ja salista ruokalaan ja huoneissa oli ilmastointi. Asuntolassa oli curfew, mutta tämä ei juuri haitannut asumistani. Vaihto-opiskelijoille tämä tarkoitti vain tulemista kotiin ennen kello viittä aamulla ja vaatimusta tehdä ilmoitus netissä, jos aikoi yöpyä muualla. Soulissa on tarjolla paljon erilaisia majoitusvaihtoehtoja, mutta hyvän paikan löytäminen netin välityksellä voi olla hyvin vaikeaa, jos ei tunne ketään maassa tai puhu Koreaa. Lisäksi ulkomaalaisilta saatetaan pyytää korkeampia hintoja. Asuntolan tasoista majoitusta ei ole saatavilla samaan hintaan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pari päivää saapumisen jälkeen ylipisto järjesti orientaation, jossa tarjottiin info-paketti ja paljon tarpeellista tietoa yliopistosta ja Soulista. Yliopiston H.U.G -opiskelijajärjestö piti vaihto-opiskelijoille tervetuliaispäivällisen ja juhlan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=435</t>
   </si>
   <si>
@@ -1810,6 +2326,9 @@
     <t xml:space="preserve">Itse valitsin muualla kuin kampuksella asumisen, ja tein mielestäni siinä itselleni oikean päätöksen. Kampuksella toki asui paljon vaihto-oppilaita, joiden porukkaan olisi kenties päässyt paremmin mukaan siellä asumalla, mutta olin itse iloinen, että tutustuin myös paikallisiin. Asuin siis kahden neljättä vuotta Carletonissa opiskelevan tytön kanssa omakotitalossa kaupungin liepeillä. Tytöt olivat kanadalaisen helpostilähestyttäviä ja vieraanvaraisia, auttoivat kaikessa ja kutsuivat mukaan bileisiinsä. Kanadalaisten kanssa ylipäänsä on yleensä ottaen todella helppo tulla toimeen ja he tuntuivat aidosti olevan kiinnostuneita tutustumaan eksoottisiin ulkomaalaisiin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaihto-opiskelijoille järjestettyä toimintaa yliopistolla oli varsinkin ensimmäisinä viikkoina paljon ja niissä oli hyvä tutustua muihin vaihtareihin ja paikallisiin tuutoreihin. CUEx (Carleton University Exhange) järjesti muun muassa viikoittaisia pubi-iltoja yliopistolla (kampuksella oli kaksi baaria), tutustumista paikallisiin harrastuksiin ja ravintoloihin, retkiä lähikaupunkeihin ja -kohteisiin (Montreal, Niagara Falls), kotibileitä ja kirjoituskahviloita, joista sai tarvittaessa apua esseiden yms. kirjoittamiseen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=363</t>
   </si>
   <si>
@@ -1819,6 +2338,9 @@
     <t xml:space="preserve">Koska Reykjavikin vuokra- ja opiskelija-asuntotilanne on hyvin huono, vaihto-opiskelijat majoittuvat useimmiten guesthouseissa. Guesthouset ovat hostelleja, joista moni majoittaa turisteja sesonkiaikaan kesällä ja tarjoaa vaihtareille pidempiaikaista majoitusta talvikaudella. Guesthousejen pidempiaikainen majoitus alkaa vasta syyskuun alusta, ja koska itse opinnot alkoivat elokuun puolella, joutuivat monet vaihtarit hankkimaan elokuun ajaksi vaihtoehtoisen majapaikan. Me turvauduimme hostellimajoitukseen turistihinnoin. Alun perin olimme varanneet kahden hengen huoneen downtownista, mutta koska kyseinen guesthouse oli ilmeisesti mennyt konkurssiin meille siitä ilmoittamatta, jouduimme viime hetkellä vaihtamaan elokuun majoitustamme. Valinnanvara oli heikko, joten päädyimme Bus Hostelliin (noin 20 min kävelymatkan päässä yliopistossa) 16 hengen dormiin. Kun rankan matkustuspäivän päätteeksi saavuimme tuon hostellin aulaan, meille ilmoitettiin, ettei check in onnistukaan (kuten oli ollut puhetta) vielä, vaan vasta kahden tunnin kuluttua. Avomieheni joutui lähtemään ylipistolle, sillä hänelle pakollinen orientoiva luento oli alkamassa. Orientaatiopäivä oli nimittäin muutettu orientaatioviikoksi kesän lopulla, jolloin olimme jo varanneet lennot, ja siten orientoivat alkoivatkin kolme päivää aiemmin kuin oli alun perin ilmoitettu. Vaihdossakaan kaikki ei todellakaan mene siis aina kuin strömsössä..</t>
   </si>
   <si>
+    <t xml:space="preserve">Kesän loppupuolella siirryimme Islantiin. Lähdimme Tampereelta aamuyöstä bussilla Helsinkiin ja Helsingistä lensimme Oslon kautta Keflavikiin (jonne menevät kaikki Islannin ulkomaanlennot). Oslon lentokenttä on naurettavan kallis paikka, etenkin näin opiskelijalle, joten kannattaa harkita mahdollisia omia eväitä tai suoraa lentoa, joka säästää aikaa ja vaivaa. Keflavikista matkustimme bussilla (45min, noin 13e) Reykjavikiin. Lentokentän ja Reykjavikin väliä kulkee useampikin bussiyhtiö ja busseja lähtee kiitettävän tiheästi. Perillä Reykjavikissa olimme iltapäivästä. Aikaero Islannin ja Suomen välillä on kesäaikaan kolme tuntia.</t>
+  </si>
+  <si>
     <t xml:space="preserve">opiskelija-asunto#tila</t>
   </si>
   <si>
@@ -1840,6 +2362,9 @@
     <t xml:space="preserve">Halusin asua Mainzissa jaetussa kämpässä, ja hain soluhuonetta sekä Studierendenwerkiltä että yksityiseltä. Studierendenwerkin elektronisen hakemuksen kanssa oli alussa ongelmia, mutta sain kuitenkin sitä kautta lopulta huoneen 8 hengen WG:stä (Wohngemeinschaft eli saksalaisittain soluasunto tai kimppakämppä) Inter2-nimisestä asuntolasta suoraan kampukselta. Meitä oli 4 ulkomaalaista ja 4 saksalaista, joten kielitaitoa pääsi treenaamaan kotonakin, ja kämppäkavereista sai myös hyviä kavereita. Kämpän sijainti oli hyvä mutta yli 300 euron hinta myös sen mukainen. Kannattaa myös huomioida, että Studierenwerk tarjoaa vaihtareille vain 6 tai 12 kuukauden sopimuksia, eli jollei alivuokralaista löydy, joutuu opiskelija maksamaan vuokraa myös tyhjästä kämpästä jo kotimaahansa palattuaan. Siinä mielessä yksityistä kannattaa myös harkita. Suurin osa vaihtareista kuitenkin asuu opiskelija-asuntoloissa, ja tarjontaa niistä löytyykin itse asiassa aika paljon, ja suurin osa asuntoloista onkin joko uusia tai perusteellisesti korjattuja – poikkeuksena halvemmat kampuksen Inter 1 sekä kauempana sijaitsevat Hechtscheim ja Weisenau.</t>
   </si>
   <si>
+    <t xml:space="preserve">Opetus alkoi vasta lokakuun 22. päivä. Kurssi-ilmoittautuminen vaikutti alkuun hyvin sekavalta ja monimutkaiselta operaatiolta kaikkine allekirjoituksineen ja lomakkeineen, mutta Germanistiikan puolella se hoitui lopulta huomattavasti helpommin, ja saimme käydä pari viikkoa kursseilla istumassa ennen niille ilmoittautumista. Itse valitsin kursseja pääasiassa oman mielenkiinnon mukaan enkä välittänyt niinkään korvattavuudesta saati paikallisten opintokokonaisuuksista. Kurssitarjonta oli hyvin laaja ja monipuolinen. Selvin ero suomalaiseen opetukseen on Saksassa huomattavasti yleisemmät seminaarit, joita minäkin kävin pari kolme lukukaudessa. Perinteiseen luennointiin verrattuna ne ovat helposti työläämpiä, sillä niistä kertyy melko paljon luettavaa joka tunnille, joilla sitten vain käydään jo luettua aihetta läpi. Opintopisteistä sovitaan opettajan kanssa yleensä vasta kurssin alussa, ja vaihto-opiskelijat voivat itse paljon vaikuttaa siihen, millä tavalla he haluavat kurssin suorittaa. Yhdestä kahteen pistettä saa ihan vain olemalla läsnä, ja enemmän pisteitä saa kurssista riippuen harjoitustehtävillä, esitelmillä, suullisella tai kirjallisella kokeella tai Hausarbeitilla. Useimmat opettajat ovat hyvin joustavia vaihto-opiskelijoiden kanssa, eikä riittävien opintopisteiden saaminen ole nähdäkseni ongelma. Yliopiston byrokratiakiemurat olivat ainakin saksan laitoksella melko vaatimattomat, kunnes viimeisten viikkojen opintosuoritusten ja allekirjoitusten metsästäminen pitkin kampusta meinasi viedä hermot.</t>
+  </si>
+  <si>
     <t xml:space="preserve">haluta</t>
   </si>
   <si>
@@ -1852,6 +2377,9 @@
     <t xml:space="preserve">Monella varmaan herää jo kysymys, entäs asuminen? Itse olin katsellut Granadan vaihtariryhmien erilaisilta Facebook -sivuilta (esim. Erasmus Granada jne.) asuntoja jo etukäteen ennen vaihtoon lähtemistä. Kämppätarjonta on Granadassa (kuten yleisestikin Espanjassa) erittäin runsasta, eikä sen löytymisen suhteen tarvitse siis panikoda. Juttelin muutamien ihmisten kanssa facebookin ja whatsapin välityksellä ja lopulta sovin alustavasti itselleni huoneen 4 hengen asunnosta noin viikkoa ennen vaihtoonlähtöäni. Moni vaihtarikaverini kuitenkin teki niin, että saapui Granadaan muutamaksi päiväksi hostelliin ja kävi sitten paikanpäällä katsomassa asuntoja. Suosittelen jälkimmäistä vaihtoehtoa lämpimästi.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ilokseni sain loppukeväästä 2014 kuulla, että olin saanut vaihtopaikan Granadan yliopistosta Informaation ja dokumentoinnin tiedekunnasta Cartujan kampsualueella. Kesällä tein kurssivalinnat Granadan yliopiston pyynnöstä sen verkkosivuilta löytyvien vanhojen kurssisuunnitelmien pohjalta (sivut espanjaksi), koska uusia ei ollut vielä silloin saatavissa. Tiesin tämän olevan ns. turhaa työtä ja että joutuisin tekemään kurssivalinnat vielä moneen kertaan uudestaan saavuttuani Granadaan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">herätä</t>
   </si>
   <si>
@@ -1864,6 +2392,9 @@
     <t xml:space="preserve">Koska minulla on jo ennestään kavereita Wienissä, pystyin asumaan kaverini kanssa alivuokralaisena, mikä teki hinnasta naurettavan. Muuten vuokra-asuntojen hinnat ovat suurin piirtein samaa luokkaa kuin Suomessakin. Moni muista vaihtareista kuitenkin asui opiskelija-asuntoloissa. Olen käynyt siellä ja ainakin ne, missä kävin, olivat tosi siistejä ja hyväkuntoisia. Yhteiset keittiöt ovat isoja; vessan ja suihkun yleensä joutuu jakamaan vain parin-kolmen ihmisen kesken.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yliopiston kautta pystyy myös harrastamaan monenlaista liikuntaa; (liikunta)kurssit kestävät yleensä yhden tai kaksi lukukautta ja ovat erittäin halpoja opiskelijoille. Minä en henkilökohtaisesti käynyt niillä, vaan ostin käytetyn pyörän second-hand liikkeestä ja pyöräilin sillä. Huom. esim. Donau-inselin alue on erittäin otollinen paikka pyöräilijöille ja lenkkeilijöille. Ei-liikunta –harrastusmahdollisuuksia on myös lukematon määrä, kaupungissa sattuu ja tapahtuu aina vuoden ympäri. http://www.wien.info/en -osoitteesta pystyy seuraamaan tapahtumia.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=319</t>
   </si>
   <si>
@@ -1871,6 +2402,9 @@
   </si>
   <si>
     <t xml:space="preserve">Olin hyvin onnekas ja löysin pitkän etsinnän jälkeen itselleni kimppakämpän Caenin keskustasta, missä asuin kahden ranskalaisen lääkisopiskelijan kanssa. En ollut kuullut kauhean hyvää CROUS-asunnoista (vaikka ne ovatkin halpoja, halvempia kuin kimppakämpät) ja koska tiesin viettäväni Caenissa koko lukuvuoden, halusin asua suhteellisen mukavasti, en 9 neliömetrin huoneessa. Löysin oman asuntoni appartager-sivuston kautta. Laitoin sinne sekä oman ilmoituksen että seurasin aktiivisesti asuntoilmoituksia. Oma aktiivisuus kannattaa! Vuokraisäntäni oli hyvin joustava, ja täytin vain noin 6-sivuisen vuokrasopimuksen normaalin noin 15-sivuisen sijaan. Lisäksi sain maksaa vuokrani verkkopankissa, eikä minun esimerkiksi tarvinnut joka kuukausi lähettää shekkiä vuokranantajalleni. Olin itse hyvin tyytyväinen asumisjärjestelyyni, en olisi koko vuotta halunnut asua yliopiston asuntoloissa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saavuin jo elokuun lopulla, ja syyslukukauden alussa järjestettiin vaihtareille paljon ohjelmaa sekä Erasmus-järjestön, että yliopiston taholta. Eri yksiköt yliopistolla järjestivät ranskalaisille opiskelijoille info-tilaisuuksia opintoihin liittyen, mutta sain tietää tästä vasta myöhemmin ja pystyinkin osallistumaan vain yhteen sellaiseen tilaisuuteen (näistä kannattaa ottaa selvää, koska tilaisuuksissa on mahdollista tavata opettajia ja kysellä kurssien sisällöistä yms.). Yliopisto järjesti myös vaihtareille info-tilaisuuden, mutta periaatteessa olimme jo saaneet kaiken saman tiedon sähköposteissa ennen saapumista Caeniin. Apua sai myös yksikköjen sihteereiltä, tosin välillä vastaanotto toimistolla ei ollut kovin lämmin. Ranskankielentaitoni joutuivat syksyn alussa koetukselle, mutta Erasmus-opiskelijoiden sihteerit ovat melko kärsivällisiä.</t>
   </si>
   <si>
     <t xml:space="preserve">onnekas</t>
@@ -1910,12 +2444,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1952,12 +2492,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1970,6 +2514,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1978,24 +2582,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="51.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="56.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="51.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2612,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -2014,7 +2621,7 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
@@ -2029,4898 +2636,5906 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>322</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>18</v>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>639</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>25</v>
+      <c r="M3" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>711</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>32</v>
+      <c r="M4" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>565</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>36</v>
+      <c r="M5" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>254</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>558</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>43</v>
+      <c r="M7" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>459</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>47</v>
+      <c r="M8" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>191</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>51</v>
+      <c r="M9" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>377</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>55</v>
+      <c r="M10" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>732</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>59</v>
+      <c r="M11" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>438</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>63</v>
+      <c r="M12" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>720</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>67</v>
+      <c r="M13" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>395</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>72</v>
+      <c r="M14" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>493</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>76</v>
+      <c r="M15" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>544</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>79</v>
+      <c r="M16" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>85</v>
+      <c r="M17" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>162</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>109</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>88</v>
+      <c r="M18" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>266</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>91</v>
+      <c r="M19" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>476</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="H20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>94</v>
+      <c r="M20" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>490</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>99</v>
+      <c r="M21" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>73</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>117</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>106</v>
+      <c r="M23" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>764</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>111</v>
+      <c r="M24" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>272</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>115</v>
+      <c r="M25" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>112</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>118</v>
+      <c r="M26" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>473</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>121</v>
+      <c r="M27" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>670</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>124</v>
+      <c r="M28" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>187</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>15</v>
+        <v>160</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>128</v>
+      <c r="M29" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>361</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>132</v>
+      <c r="M30" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="646.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>590</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>136</v>
+      <c r="M31" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>710</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>139</v>
+      <c r="M32" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="350.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>697</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>143</v>
+      <c r="M33" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>627</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>785</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>15</v>
+        <v>190</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>150</v>
+      <c r="M35" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>212</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>154</v>
+      <c r="M36" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>769</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>158</v>
+      <c r="M37" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>810</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="K38" s="0" t="s">
-        <v>162</v>
+      <c r="M38" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>215</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="K39" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>151</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>15</v>
+        <v>215</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>168</v>
+      <c r="M40" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>226</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J41" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="K41" s="0" t="s">
-        <v>171</v>
+      <c r="M41" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>676</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="K42" s="0" t="s">
-        <v>174</v>
+      <c r="M42" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>314</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="K43" s="0" t="s">
-        <v>177</v>
+      <c r="M43" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>52</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M44" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>144</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>15</v>
+        <v>237</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="K45" s="0" t="s">
-        <v>184</v>
+      <c r="M45" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>625</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="K46" s="0" t="s">
-        <v>187</v>
+      <c r="M46" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>220</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="K47" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M47" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>767</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J48" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L48" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="K48" s="0" t="s">
-        <v>195</v>
+      <c r="M48" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>387</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="K49" s="0" t="s">
-        <v>199</v>
+      <c r="M49" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="K50" s="0" t="s">
-        <v>202</v>
+      <c r="M50" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>620</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I51" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="J51" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>205</v>
+      <c r="M51" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>306</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="K52" s="0" t="s">
-        <v>208</v>
+      <c r="M52" s="0" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>378</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K53" s="0" t="s">
-        <v>211</v>
+      <c r="M53" s="0" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>859</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="K54" s="0" t="s">
-        <v>214</v>
+      <c r="M54" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>293</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="K55" s="0" t="s">
-        <v>217</v>
+      <c r="M55" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>835</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="K56" s="0" t="s">
-        <v>220</v>
+      <c r="M56" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>120</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="K57" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M57" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>850</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="K58" s="0" t="s">
-        <v>226</v>
+      <c r="M58" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>260</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>198</v>
+        <v>67</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="K59" s="0" t="s">
-        <v>229</v>
+      <c r="M59" s="0" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>569</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="K60" s="0" t="s">
-        <v>232</v>
+      <c r="M60" s="0" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>116</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="K61" s="0" t="s">
-        <v>235</v>
+      <c r="M61" s="0" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>434</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="K62" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M62" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>409</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L63" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="K63" s="0" t="s">
-        <v>241</v>
+      <c r="M63" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>302</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J64" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="L64" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="K64" s="0" t="s">
-        <v>244</v>
+      <c r="M64" s="0" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>699</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>198</v>
+        <v>67</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="J65" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="L65" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="K65" s="0" t="s">
-        <v>248</v>
+      <c r="M65" s="0" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>107</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J66" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="L66" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="K66" s="0" t="s">
-        <v>251</v>
+      <c r="M66" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>82</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K67" s="0" t="s">
-        <v>254</v>
+      <c r="M67" s="0" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>829</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>198</v>
+        <v>220</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="K68" s="0" t="s">
-        <v>257</v>
+      <c r="M68" s="0" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>754</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="K69" s="0" t="s">
-        <v>260</v>
+      <c r="M69" s="0" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J70" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L70" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K70" s="0" t="s">
-        <v>263</v>
+      <c r="M70" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>752</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="K71" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M71" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J72" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L72" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="K72" s="0" t="s">
-        <v>268</v>
+      <c r="M72" s="0" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>88</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="K73" s="0" t="s">
-        <v>271</v>
+      <c r="M73" s="0" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>812</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="K74" s="0" t="s">
-        <v>274</v>
+      <c r="M74" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>71</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J75" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="K75" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M75" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>557</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>198</v>
+        <v>67</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="K76" s="0" t="s">
-        <v>280</v>
+      <c r="M76" s="0" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>44</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K77" s="0" t="s">
-        <v>283</v>
+      <c r="M77" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>688</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="K78" s="0" t="s">
-        <v>286</v>
+      <c r="M78" s="0" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>405</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>289</v>
+        <v>67</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="K79" s="0" t="s">
-        <v>291</v>
+      <c r="M79" s="0" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>292</v>
+        <v>377</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>692</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>289</v>
+        <v>67</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J80" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L80" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="K80" s="0" t="s">
-        <v>295</v>
+      <c r="M80" s="0" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>525</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>289</v>
+        <v>67</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J81" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="K81" s="0" t="s">
-        <v>299</v>
+      <c r="M81" s="0" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>79</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J82" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L82" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="K82" s="0" t="s">
-        <v>304</v>
+      <c r="M82" s="0" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>225</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J83" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="K83" s="0" t="s">
-        <v>308</v>
+      <c r="M83" s="0" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="J84" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="L84" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="K84" s="0" t="s">
-        <v>313</v>
+      <c r="M84" s="0" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>844</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>289</v>
+        <v>220</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J85" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L85" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="K85" s="0" t="s">
-        <v>317</v>
+      <c r="M85" s="0" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>334</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>289</v>
+        <v>411</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>320</v>
+        <v>103</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J86" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L86" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K86" s="0" t="s">
-        <v>321</v>
+      <c r="M86" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>323</v>
+        <v>416</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>694</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>289</v>
+        <v>417</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J87" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L87" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="K87" s="0" t="s">
-        <v>324</v>
+      <c r="M87" s="0" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>325</v>
+        <v>420</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>286</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="K88" s="0" t="s">
-        <v>329</v>
+      <c r="M88" s="0" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>391</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>328</v>
+        <v>89</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="K89" s="0" t="s">
-        <v>332</v>
+      <c r="M89" s="0" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>298</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="J90" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="L90" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="K90" s="0" t="s">
-        <v>335</v>
+      <c r="M90" s="0" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>337</v>
+        <v>435</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>375</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J91" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L91" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="K91" s="0" t="s">
-        <v>339</v>
+      <c r="M91" s="0" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>341</v>
+        <v>440</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>831</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J92" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L92" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="K92" s="0" t="s">
-        <v>343</v>
+      <c r="M92" s="0" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>624</v>
       </c>
       <c r="F93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K93" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="0" t="n">
+      <c r="L93" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="K93" s="0" t="s">
-        <v>346</v>
+      <c r="M93" s="0" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>347</v>
+        <v>448</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>722</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L94" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K94" s="0" t="s">
-        <v>349</v>
+      <c r="M94" s="0" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>532</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>289</v>
+        <v>61</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J95" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L95" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="K95" s="0" t="s">
-        <v>354</v>
+      <c r="M95" s="0" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>774</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J96" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="K96" s="0" t="s">
-        <v>357</v>
+      <c r="M96" s="0" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>358</v>
+        <v>462</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>359</v>
+        <v>463</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F97" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="K97" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G97" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J97" s="0" t="n">
+      <c r="L97" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K97" s="0" t="s">
-        <v>361</v>
+      <c r="M97" s="0" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>362</v>
+        <v>467</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>61</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>58</v>
+        <v>470</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="K98" s="0" t="s">
-        <v>365</v>
+      <c r="M98" s="0" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>367</v>
+        <v>473</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>399</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>368</v>
+        <v>103</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J99" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="K99" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M99" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>370</v>
+        <v>477</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>371</v>
+        <v>478</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>126</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>289</v>
+        <v>479</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>58</v>
+        <v>481</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L100" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="K100" s="0" t="s">
-        <v>373</v>
+      <c r="M100" s="0" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>374</v>
+        <v>483</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>317</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>289</v>
+        <v>485</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>376</v>
+        <v>35</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="K101" s="0" t="s">
-        <v>377</v>
+      <c r="M101" s="0" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>379</v>
+        <v>490</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>839</v>
       </c>
       <c r="F102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K102" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G102" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J102" s="0" t="n">
+      <c r="L102" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="K102" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M102" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>381</v>
+        <v>493</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>731</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L103" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="K103" s="0" t="s">
-        <v>383</v>
+      <c r="M103" s="0" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>385</v>
+        <v>498</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>517</v>
       </c>
       <c r="F104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K104" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G104" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H104" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J104" s="0" t="n">
+      <c r="L104" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="K104" s="0" t="s">
-        <v>387</v>
+      <c r="M104" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>388</v>
+        <v>502</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>389</v>
+        <v>503</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>270</v>
       </c>
       <c r="F105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K105" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J105" s="0" t="n">
+      <c r="L105" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="K105" s="0" t="s">
-        <v>390</v>
+      <c r="M105" s="0" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>391</v>
+        <v>506</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>392</v>
+        <v>507</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>535</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>386</v>
+        <v>16</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>393</v>
+        <v>35</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J106" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="K106" s="0" t="s">
-        <v>394</v>
+      <c r="M106" s="0" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>395</v>
+        <v>511</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>396</v>
+        <v>512</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>650</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>386</v>
+        <v>67</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>23</v>
+        <v>514</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J107" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L107" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K107" s="0" t="s">
-        <v>398</v>
+      <c r="M107" s="0" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>399</v>
+        <v>516</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>400</v>
+        <v>517</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>449</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>386</v>
+        <v>16</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>401</v>
+        <v>35</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J108" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L108" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K108" s="0" t="s">
-        <v>402</v>
+      <c r="M108" s="0" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>403</v>
+        <v>521</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>404</v>
+        <v>522</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>743</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>386</v>
+        <v>16</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>405</v>
+        <v>35</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J109" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L109" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="K109" s="0" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M109" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>407</v>
+        <v>526</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>408</v>
+        <v>527</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>42</v>
       </c>
       <c r="F110" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K110" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G110" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H110" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J110" s="0" t="n">
+      <c r="L110" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="K110" s="0" t="s">
-        <v>409</v>
+      <c r="M110" s="0" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>411</v>
+        <v>532</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>386</v>
+        <v>16</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J111" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L111" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="K111" s="0" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M111" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>595</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>386</v>
+        <v>16</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J112" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L112" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="K112" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M112" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>417</v>
+        <v>540</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>418</v>
+        <v>541</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>632</v>
       </c>
       <c r="F113" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="K113" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G113" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J113" s="0" t="n">
+      <c r="L113" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="K113" s="0" t="s">
-        <v>420</v>
+      <c r="M113" s="0" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>421</v>
+        <v>545</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>422</v>
+        <v>546</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>717</v>
       </c>
       <c r="F114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K114" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G114" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J114" s="0" t="n">
+      <c r="L114" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="K114" s="0" t="s">
-        <v>423</v>
+      <c r="M114" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>424</v>
+        <v>549</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>494</v>
       </c>
       <c r="F115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="K115" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G115" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J115" s="0" t="n">
+      <c r="L115" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K115" s="0" t="s">
-        <v>427</v>
+      <c r="M115" s="0" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>428</v>
+        <v>554</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>429</v>
+        <v>555</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>292</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>386</v>
+        <v>16</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>401</v>
+        <v>35</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J116" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="K116" s="0" t="s">
-        <v>430</v>
+      <c r="M116" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>431</v>
+        <v>558</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>432</v>
+        <v>559</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>135</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>386</v>
+        <v>560</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="K117" s="0" t="s">
-        <v>433</v>
+      <c r="M117" s="0" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>434</v>
+        <v>563</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>435</v>
+        <v>564</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>860</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="J118" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="L118" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="K118" s="0" t="s">
-        <v>436</v>
+      <c r="M118" s="0" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>438</v>
+        <v>568</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>474</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>386</v>
+        <v>16</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J119" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="K119" s="0" t="s">
-        <v>440</v>
+      <c r="M119" s="0" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>441</v>
+        <v>572</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>442</v>
+        <v>573</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>455</v>
       </c>
       <c r="F120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="K120" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G120" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J120" s="0" t="n">
+      <c r="L120" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K120" s="0" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M120" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>445</v>
+        <v>577</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>446</v>
+        <v>578</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>369</v>
       </c>
       <c r="F121" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="K121" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="H121" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J121" s="0" t="n">
+      <c r="L121" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="K121" s="0" t="s">
-        <v>449</v>
+      <c r="M121" s="0" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>451</v>
+        <v>584</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>606</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J122" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L122" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="K122" s="0" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M122" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>453</v>
+        <v>587</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>454</v>
+        <v>588</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>441</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>455</v>
+        <v>18</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J123" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="K123" s="0" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M123" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>457</v>
+        <v>592</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>458</v>
+        <v>593</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>863</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>447</v>
+        <v>67</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J124" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="K124" s="0" t="s">
-        <v>460</v>
+      <c r="M124" s="0" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>462</v>
+        <v>598</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>498</v>
       </c>
       <c r="F125" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K125" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G125" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="H125" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J125" s="0" t="n">
+      <c r="L125" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="K125" s="0" t="s">
-        <v>463</v>
+      <c r="M125" s="0" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>464</v>
+        <v>601</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>465</v>
+        <v>602</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>559</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J126" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L126" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="K126" s="0" t="s">
-        <v>466</v>
+      <c r="M126" s="0" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="458.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>467</v>
+        <v>605</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>468</v>
+        <v>606</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>200</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>469</v>
+        <v>35</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J127" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L127" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="K127" s="0" t="s">
-        <v>470</v>
+      <c r="M127" s="0" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>471</v>
+        <v>610</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>422</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J128" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L128" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="K128" s="0" t="s">
-        <v>474</v>
+      <c r="M128" s="0" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>475</v>
+        <v>615</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>476</v>
+        <v>616</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>430</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="J129" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="L129" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="K129" s="0" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M129" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>478</v>
+        <v>619</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>479</v>
+        <v>620</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>84</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J130" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L130" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="K130" s="0" t="s">
-        <v>480</v>
+      <c r="M130" s="0" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>481</v>
+        <v>623</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>482</v>
+        <v>624</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>125</v>
       </c>
       <c r="F131" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K131" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G131" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="H131" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J131" s="0" t="n">
+      <c r="L131" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="K131" s="0" t="s">
-        <v>483</v>
+      <c r="M131" s="0" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>484</v>
+        <v>627</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>485</v>
+        <v>628</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>100</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>455</v>
+        <v>18</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J132" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L132" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="K132" s="0" t="s">
-        <v>486</v>
+      <c r="M132" s="0" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>487</v>
+        <v>630</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>488</v>
+        <v>631</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>147</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J133" s="0" t="n">
-        <v>16</v>
+        <v>580</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>489</v>
+        <v>21</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M133" s="0" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>490</v>
+        <v>634</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>491</v>
+        <v>635</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>811</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>447</v>
+        <v>67</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J134" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J134" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L134" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="K134" s="0" t="s">
-        <v>492</v>
+      <c r="M134" s="0" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>493</v>
+        <v>638</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>494</v>
+        <v>639</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>691</v>
       </c>
       <c r="F135" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K135" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G135" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="H135" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J135" s="0" t="n">
+      <c r="L135" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="K135" s="0" t="s">
-        <v>495</v>
+      <c r="M135" s="0" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>496</v>
+        <v>642</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>497</v>
+        <v>643</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>390</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J136" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="J136" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="K136" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L136" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="K136" s="0" t="s">
-        <v>498</v>
+      <c r="M136" s="0" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>499</v>
+        <v>646</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>500</v>
+        <v>647</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>666</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J137" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J137" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L137" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="K137" s="0" t="s">
-        <v>502</v>
+      <c r="M137" s="0" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>503</v>
+        <v>651</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>504</v>
+        <v>652</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>618</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>54</v>
+        <v>654</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J138" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L138" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="K138" s="0" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M138" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>507</v>
+        <v>656</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>508</v>
+        <v>657</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>448</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J139" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J139" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L139" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="K139" s="0" t="s">
-        <v>509</v>
+      <c r="M139" s="0" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>510</v>
+        <v>660</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>511</v>
+        <v>661</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>51</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J140" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J140" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L140" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="K140" s="0" t="s">
-        <v>512</v>
+      <c r="M140" s="0" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="350.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>513</v>
+        <v>664</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>514</v>
+        <v>665</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>619</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J141" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L141" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="K141" s="0" t="s">
-        <v>515</v>
+      <c r="M141" s="0" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>516</v>
+        <v>668</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>517</v>
+        <v>669</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>703</v>
       </c>
       <c r="F142" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="J142" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K142" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G142" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="H142" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J142" s="0" t="n">
+      <c r="L142" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="K142" s="0" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M142" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>519</v>
+        <v>672</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>520</v>
+        <v>673</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>645</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="G143" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J143" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L143" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="K143" s="0" t="s">
-        <v>521</v>
+      <c r="M143" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>522</v>
+        <v>676</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>523</v>
+        <v>677</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>119</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>524</v>
+        <v>35</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J144" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L144" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K144" s="0" t="s">
-        <v>525</v>
+      <c r="M144" s="0" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="486.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>526</v>
+        <v>681</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>106</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G145" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="J145" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="L145" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="K145" s="0" t="s">
-        <v>528</v>
+      <c r="M145" s="0" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>529</v>
+        <v>685</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>530</v>
+        <v>686</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G146" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>524</v>
+        <v>35</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J146" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J146" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="K146" s="0" t="s">
-        <v>531</v>
+      <c r="M146" s="0" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>532</v>
+        <v>689</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>533</v>
+        <v>690</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>760</v>
       </c>
       <c r="F147" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="J147" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K147" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G147" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="H147" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I147" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J147" s="0" t="n">
+      <c r="L147" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="K147" s="0" t="s">
-        <v>534</v>
+      <c r="M147" s="0" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>536</v>
+        <v>694</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>318</v>
       </c>
       <c r="F148" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="K148" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G148" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="H148" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J148" s="0" t="n">
+      <c r="L148" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="K148" s="0" t="s">
-        <v>538</v>
+      <c r="M148" s="0" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>539</v>
+        <v>698</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>540</v>
+        <v>699</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>802</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J149" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L149" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="K149" s="0" t="s">
-        <v>541</v>
+      <c r="M149" s="0" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>542</v>
+        <v>702</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>543</v>
+        <v>703</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>693</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G150" s="0" t="s">
-        <v>501</v>
+        <v>16</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>544</v>
+        <v>35</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J150" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L150" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="K150" s="0" t="s">
-        <v>545</v>
+      <c r="M150" s="0" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>547</v>
+        <v>708</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>26</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="G151" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>550</v>
+        <v>710</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J151" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J151" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L151" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K151" s="0" t="s">
-        <v>551</v>
+      <c r="M151" s="0" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>552</v>
+        <v>714</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>85</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>554</v>
+        <v>18</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J152" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L152" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="K152" s="0" t="s">
-        <v>555</v>
+      <c r="M152" s="0" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>556</v>
+        <v>718</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>557</v>
+        <v>719</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>341</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J153" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J153" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L153" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="K153" s="0" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M153" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>560</v>
+        <v>723</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>561</v>
+        <v>724</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>817</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>554</v>
+        <v>18</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J154" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L154" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="K154" s="0" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M154" s="0" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>563</v>
+        <v>727</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>564</v>
+        <v>728</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>224</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>565</v>
+        <v>455</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J155" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L155" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="K155" s="0" t="s">
-        <v>566</v>
+      <c r="M155" s="0" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>567</v>
+        <v>732</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>568</v>
+        <v>733</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>807</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G156" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>569</v>
+        <v>103</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J156" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L156" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="K156" s="0" t="s">
-        <v>570</v>
+      <c r="M156" s="0" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>571</v>
+        <v>737</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>572</v>
+        <v>738</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>534</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J157" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L157" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="K157" s="0" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M157" s="0" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>574</v>
+        <v>741</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>575</v>
+        <v>742</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>76</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G158" s="0" t="s">
-        <v>549</v>
+        <v>67</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>576</v>
+        <v>103</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J158" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L158" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="K158" s="0" t="s">
-        <v>577</v>
+      <c r="M158" s="0" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>578</v>
+        <v>746</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>579</v>
+        <v>747</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>806</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>549</v>
+        <v>748</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J159" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L159" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="K159" s="0" t="s">
-        <v>581</v>
+      <c r="M159" s="0" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>582</v>
+        <v>752</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>583</v>
+        <v>753</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>345</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>549</v>
+        <v>16</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>584</v>
+        <v>103</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J160" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L160" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="K160" s="0" t="s">
-        <v>585</v>
+      <c r="M160" s="0" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>586</v>
+        <v>757</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>587</v>
+        <v>758</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>385</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="0" t="s">
-        <v>588</v>
+        <v>16</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>589</v>
+        <v>18</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J161" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L161" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="K161" s="0" t="s">
-        <v>590</v>
+      <c r="M161" s="0" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>591</v>
+        <v>762</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>592</v>
+        <v>763</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>435</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="0" t="s">
-        <v>588</v>
+        <v>16</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J162" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J162" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L162" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="K162" s="0" t="s">
-        <v>593</v>
+      <c r="M162" s="0" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>594</v>
+        <v>766</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>595</v>
+        <v>767</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>363</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" s="0" t="s">
-        <v>588</v>
+        <v>16</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J163" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J163" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L163" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="K163" s="0" t="s">
-        <v>596</v>
+      <c r="M163" s="0" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>598</v>
+        <v>771</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>263</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G164" s="0" t="s">
-        <v>588</v>
+        <v>16</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>342</v>
+        <v>773</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="J164" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J164" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="L164" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="K164" s="0" t="s">
-        <v>600</v>
+      <c r="M164" s="0" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="498.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>601</v>
+        <v>775</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>602</v>
+        <v>776</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>838</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G165" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="J165" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I165" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="L165" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="K165" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M165" s="0" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>604</v>
+        <v>778</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>605</v>
+        <v>779</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>674</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" s="0" t="s">
-        <v>588</v>
+        <v>16</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>606</v>
+        <v>18</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J166" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J166" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="K166" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L166" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="K166" s="0" t="s">
-        <v>607</v>
+      <c r="M166" s="0" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>608</v>
+        <v>783</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>609</v>
+        <v>784</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>204</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="0" t="s">
-        <v>588</v>
+        <v>67</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>610</v>
+        <v>18</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J167" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J167" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="K167" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L167" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="K167" s="0" t="s">
-        <v>611</v>
+      <c r="M167" s="0" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>612</v>
+        <v>788</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>613</v>
+        <v>789</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>319</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="0" t="s">
-        <v>588</v>
+        <v>16</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J168" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J168" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L168" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="K168" s="0" t="s">
-        <v>614</v>
+      <c r="M168" s="0" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>615</v>
+        <v>792</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>616</v>
+        <v>793</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>519</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" s="0" t="s">
-        <v>588</v>
+        <v>67</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>617</v>
+        <v>18</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J169" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="J169" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="K169" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L169" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="K169" s="0" t="s">
-        <v>618</v>
+      <c r="M169" s="0" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
